--- a/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
+++ b/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A98749-2099-4075-925B-6820777BA2EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD9FF31-D43B-461C-BEC4-C688F4119875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="740">
   <si>
     <t>setting_name</t>
   </si>
@@ -2251,6 +2251,9 @@
   </si>
   <si>
     <t>data("HOSP5NOITE") == "1"</t>
+  </si>
+  <si>
+    <t>HNSM</t>
   </si>
 </sst>
 </file>
@@ -2787,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787AB6FC-E5B2-448F-8A60-6571052C1548}">
   <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
@@ -9199,11 +9202,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9716,15 +9719,15 @@
       <c r="A41" t="s">
         <v>375</v>
       </c>
-      <c r="B41" s="14" t="str">
-        <f>"304"</f>
-        <v>304</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>376</v>
+      <c r="B41" s="7" t="str">
+        <f>"301"</f>
+        <v>301</v>
+      </c>
+      <c r="C41" t="s">
+        <v>739</v>
+      </c>
+      <c r="D41" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -9732,14 +9735,14 @@
         <v>375</v>
       </c>
       <c r="B42" s="14" t="str">
-        <f>"305"</f>
-        <v>305</v>
+        <f>"304"</f>
+        <v>304</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -9747,14 +9750,14 @@
         <v>375</v>
       </c>
       <c r="B43" s="14" t="str">
-        <f>"306"</f>
-        <v>306</v>
+        <f>"305"</f>
+        <v>305</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -9762,14 +9765,14 @@
         <v>375</v>
       </c>
       <c r="B44" s="14" t="str">
-        <f>"307"</f>
-        <v>307</v>
+        <f>"306"</f>
+        <v>306</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -9777,14 +9780,14 @@
         <v>375</v>
       </c>
       <c r="B45" s="14" t="str">
-        <f>"308"</f>
-        <v>308</v>
+        <f>"307"</f>
+        <v>307</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -9792,14 +9795,14 @@
         <v>375</v>
       </c>
       <c r="B46" s="14" t="str">
-        <f>"309"</f>
-        <v>309</v>
+        <f>"308"</f>
+        <v>308</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -9807,14 +9810,14 @@
         <v>375</v>
       </c>
       <c r="B47" s="14" t="str">
-        <f>"310"</f>
-        <v>310</v>
+        <f>"309"</f>
+        <v>309</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -9822,14 +9825,14 @@
         <v>375</v>
       </c>
       <c r="B48" s="14" t="str">
-        <f>"311"</f>
-        <v>311</v>
+        <f>"310"</f>
+        <v>310</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -9837,14 +9840,14 @@
         <v>375</v>
       </c>
       <c r="B49" s="14" t="str">
-        <f>"312"</f>
-        <v>312</v>
+        <f>"311"</f>
+        <v>311</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -9852,14 +9855,14 @@
         <v>375</v>
       </c>
       <c r="B50" s="14" t="str">
-        <f>"313"</f>
-        <v>313</v>
+        <f>"312"</f>
+        <v>312</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -9867,14 +9870,14 @@
         <v>375</v>
       </c>
       <c r="B51" s="14" t="str">
-        <f>"314"</f>
-        <v>314</v>
+        <f>"313"</f>
+        <v>313</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -9882,14 +9885,14 @@
         <v>375</v>
       </c>
       <c r="B52" s="14" t="str">
-        <f>"315"</f>
-        <v>315</v>
+        <f>"314"</f>
+        <v>314</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -9897,14 +9900,14 @@
         <v>375</v>
       </c>
       <c r="B53" s="14" t="str">
-        <f>"316"</f>
-        <v>316</v>
+        <f>"315"</f>
+        <v>315</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -9912,14 +9915,14 @@
         <v>375</v>
       </c>
       <c r="B54" s="14" t="str">
-        <f>"317"</f>
-        <v>317</v>
+        <f>"316"</f>
+        <v>316</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -9927,14 +9930,14 @@
         <v>375</v>
       </c>
       <c r="B55" s="14" t="str">
-        <f>"318"</f>
-        <v>318</v>
+        <f>"317"</f>
+        <v>317</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -9942,14 +9945,14 @@
         <v>375</v>
       </c>
       <c r="B56" s="14" t="str">
-        <f>"319"</f>
-        <v>319</v>
+        <f>"318"</f>
+        <v>318</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -9957,14 +9960,14 @@
         <v>375</v>
       </c>
       <c r="B57" s="14" t="str">
-        <f>"320"</f>
-        <v>320</v>
+        <f>"319"</f>
+        <v>319</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -9972,14 +9975,14 @@
         <v>375</v>
       </c>
       <c r="B58" s="14" t="str">
-        <f>"321"</f>
-        <v>321</v>
+        <f>"320"</f>
+        <v>320</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -9987,14 +9990,14 @@
         <v>375</v>
       </c>
       <c r="B59" s="14" t="str">
-        <f>"322"</f>
-        <v>322</v>
+        <f>"321"</f>
+        <v>321</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -10002,14 +10005,14 @@
         <v>375</v>
       </c>
       <c r="B60" s="14" t="str">
-        <f>"323"</f>
-        <v>323</v>
+        <f>"322"</f>
+        <v>322</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -10017,14 +10020,14 @@
         <v>375</v>
       </c>
       <c r="B61" s="14" t="str">
-        <f>"324"</f>
-        <v>324</v>
+        <f>"323"</f>
+        <v>323</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -10032,18 +10035,30 @@
         <v>375</v>
       </c>
       <c r="B62" s="14" t="str">
+        <f>"324"</f>
+        <v>324</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>375</v>
+      </c>
+      <c r="B63" s="14" t="str">
         <f>"325"</f>
         <v>325</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D63" s="14" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="7"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
@@ -10059,7 +10074,6 @@
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
@@ -10086,10 +10100,10 @@
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="7"/>
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="7"/>
       <c r="C76" s="7"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -10162,6 +10176,7 @@
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
@@ -10181,8 +10196,8 @@
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="7"/>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="7"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
@@ -10234,6 +10249,9 @@
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
+++ b/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD9FF31-D43B-461C-BEC4-C688F4119875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B74D1D7-9CCA-428E-AD98-25B24E3B4C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1182,9 +1182,6 @@
     <t>CS Quelele</t>
   </si>
   <si>
-    <t>Ceu et Terra</t>
-  </si>
-  <si>
     <t>Clinica de Bra. Seminario de Padre</t>
   </si>
   <si>
@@ -1881,9 +1878,6 @@
     <t>Date of enrolment: &lt;b&gt;{{calculates.displayDATINC}}&lt;/b&gt;</t>
   </si>
   <si>
-    <t>Inscrição: &lt;b&gt;{{calculates.displayDATINC}}&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Last interview: &lt;b&gt;{{calculates.displayLASTINTERVIEW}}&lt;/b&gt;</t>
   </si>
   <si>
@@ -2254,6 +2248,12 @@
   </si>
   <si>
     <t>HNSM</t>
+  </si>
+  <si>
+    <t>Inclusão: &lt;b&gt;{{calculates.displayDATINC}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Ceu e Terra</t>
   </si>
 </sst>
 </file>
@@ -2791,9 +2791,9 @@
   <dimension ref="A1:O110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>52</v>
@@ -2867,10 +2867,10 @@
         <v>317</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>558</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2878,7 +2878,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2886,10 +2886,10 @@
         <v>317</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2902,16 +2902,16 @@
         <v>62</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2920,13 +2920,13 @@
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G8" t="s">
+        <v>560</v>
+      </c>
+      <c r="H8" t="s">
         <v>561</v>
-      </c>
-      <c r="H8" t="s">
-        <v>562</v>
       </c>
       <c r="M8" s="11" t="b">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         <v>40</v>
       </c>
       <c r="G11" t="s">
+        <v>605</v>
+      </c>
+      <c r="H11" t="s">
         <v>606</v>
-      </c>
-      <c r="H11" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2964,7 +2964,7 @@
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2972,15 +2972,15 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H13" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2988,10 +2988,10 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H15" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3004,10 +3004,10 @@
         <v>40</v>
       </c>
       <c r="G17" t="s">
+        <v>607</v>
+      </c>
+      <c r="H17" t="s">
         <v>608</v>
-      </c>
-      <c r="H17" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -3015,10 +3015,10 @@
         <v>40</v>
       </c>
       <c r="G18" t="s">
+        <v>609</v>
+      </c>
+      <c r="H18" t="s">
         <v>610</v>
-      </c>
-      <c r="H18" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -3026,10 +3026,10 @@
         <v>40</v>
       </c>
       <c r="G19" t="s">
+        <v>611</v>
+      </c>
+      <c r="H19" t="s">
         <v>612</v>
-      </c>
-      <c r="H19" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -3037,10 +3037,10 @@
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H20" t="s">
-        <v>615</v>
+        <v>738</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -3048,10 +3048,10 @@
         <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H21" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -3059,10 +3059,10 @@
         <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H22" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -3070,16 +3070,16 @@
         <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F23" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -3087,16 +3087,16 @@
         <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F24" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G24" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H24" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -3104,16 +3104,16 @@
         <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F25" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G25" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H25" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -3121,16 +3121,16 @@
         <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G26" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H26" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -3138,16 +3138,16 @@
         <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F27" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G27" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H27" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -3155,16 +3155,16 @@
         <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F28" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G28" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H28" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -3172,16 +3172,16 @@
         <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F29" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G29" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H29" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -3189,16 +3189,16 @@
         <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G30" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H30" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -3206,16 +3206,16 @@
         <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F31" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G31" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H31" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -3225,7 +3225,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B33" t="s">
         <v>52</v>
@@ -3236,16 +3236,16 @@
         <v>278</v>
       </c>
       <c r="F34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G34" t="s">
+        <v>674</v>
+      </c>
+      <c r="H34" t="s">
         <v>676</v>
       </c>
-      <c r="H34" t="s">
-        <v>678</v>
-      </c>
       <c r="O34" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -3253,16 +3253,16 @@
         <v>278</v>
       </c>
       <c r="F35" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G35" t="s">
+        <v>675</v>
+      </c>
+      <c r="H35" t="s">
         <v>677</v>
       </c>
-      <c r="H35" t="s">
-        <v>679</v>
-      </c>
       <c r="O35" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -3275,7 +3275,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -3294,10 +3294,10 @@
         <v>61</v>
       </c>
       <c r="G39" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H39" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -3322,7 +3322,7 @@
         <v>65</v>
       </c>
       <c r="H41" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -3335,7 +3335,7 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3343,10 +3343,10 @@
         <v>317</v>
       </c>
       <c r="F44" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I44" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
         <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3367,10 +3367,10 @@
         <v>317</v>
       </c>
       <c r="F47" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I47" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3383,7 +3383,7 @@
         <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -3391,10 +3391,10 @@
         <v>317</v>
       </c>
       <c r="F50" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I50" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -3407,7 +3407,7 @@
         <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -3415,10 +3415,10 @@
         <v>317</v>
       </c>
       <c r="F53" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I53" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -3431,7 +3431,7 @@
         <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -3439,10 +3439,10 @@
         <v>317</v>
       </c>
       <c r="F56" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I56" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -3455,7 +3455,7 @@
         <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -3463,10 +3463,10 @@
         <v>317</v>
       </c>
       <c r="F59" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I59" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -3479,7 +3479,7 @@
         <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -3487,10 +3487,10 @@
         <v>317</v>
       </c>
       <c r="F62" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I62" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -3503,7 +3503,7 @@
         <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3511,10 +3511,10 @@
         <v>317</v>
       </c>
       <c r="F65" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I65" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3527,7 +3527,7 @@
         <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3535,10 +3535,10 @@
         <v>317</v>
       </c>
       <c r="F68" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I68" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3553,7 +3553,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B71" t="s">
         <v>52</v>
@@ -3564,10 +3564,10 @@
         <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H72" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3575,10 +3575,10 @@
         <v>37</v>
       </c>
       <c r="E73" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F73" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3586,7 +3586,7 @@
         <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3594,13 +3594,13 @@
         <v>317</v>
       </c>
       <c r="F75" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G75" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H75" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="I75" t="str">
         <f>"1"</f>
@@ -3617,7 +3617,7 @@
         <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3625,13 +3625,13 @@
         <v>30</v>
       </c>
       <c r="F78" t="s">
+        <v>693</v>
+      </c>
+      <c r="G78" t="s">
+        <v>694</v>
+      </c>
+      <c r="H78" t="s">
         <v>695</v>
-      </c>
-      <c r="G78" t="s">
-        <v>696</v>
-      </c>
-      <c r="H78" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3735,7 +3735,7 @@
         <v>56</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3743,12 +3743,12 @@
         <v>38</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C3"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -3941,10 +3941,10 @@
         <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H18" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4106,10 +4106,10 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H30" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -4271,10 +4271,10 @@
         <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H42" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -4442,10 +4442,10 @@
         <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H54" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -4607,10 +4607,10 @@
         <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H66" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -4772,10 +4772,10 @@
         <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H78" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -4943,10 +4943,10 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H90" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -5114,10 +5114,10 @@
         <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H102" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -5279,10 +5279,10 @@
         <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H114" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -5444,10 +5444,10 @@
         <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H126" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -5609,10 +5609,10 @@
         <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H138" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5629,7 +5629,7 @@
         <v>273</v>
       </c>
       <c r="H139" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5774,10 +5774,10 @@
         <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H150" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -5964,10 +5964,10 @@
         <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H164" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -6151,10 +6151,10 @@
         <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H178" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -6192,10 +6192,10 @@
         <v>40</v>
       </c>
       <c r="G182" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H182" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -6228,16 +6228,16 @@
         <v>37</v>
       </c>
       <c r="E185" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F185" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G185" t="s">
+        <v>410</v>
+      </c>
+      <c r="H185" t="s">
         <v>411</v>
-      </c>
-      <c r="H185" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -6252,13 +6252,13 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B188" t="s">
         <v>38</v>
       </c>
       <c r="C188" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -6271,10 +6271,10 @@
         <v>40</v>
       </c>
       <c r="G190" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H190" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -6282,10 +6282,10 @@
         <v>40</v>
       </c>
       <c r="G191" t="s">
+        <v>427</v>
+      </c>
+      <c r="H191" t="s">
         <v>428</v>
-      </c>
-      <c r="H191" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -6293,7 +6293,7 @@
         <v>30</v>
       </c>
       <c r="F192" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G192" t="s">
         <v>340</v>
@@ -6310,7 +6310,7 @@
         <v>48</v>
       </c>
       <c r="F193" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.25">
@@ -6318,7 +6318,7 @@
         <v>38</v>
       </c>
       <c r="C194" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.25">
@@ -6326,10 +6326,10 @@
         <v>317</v>
       </c>
       <c r="F195" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I195" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.25">
@@ -6337,7 +6337,7 @@
         <v>318</v>
       </c>
       <c r="F196" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G196" t="s">
         <v>342</v>
@@ -6356,7 +6356,7 @@
         <v>278</v>
       </c>
       <c r="F198" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G198" t="s">
         <v>349</v>
@@ -6373,7 +6373,7 @@
         <v>69</v>
       </c>
       <c r="F199" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G199" t="s">
         <v>348</v>
@@ -6387,7 +6387,7 @@
         <v>319</v>
       </c>
       <c r="C200" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.25">
@@ -6395,7 +6395,7 @@
         <v>278</v>
       </c>
       <c r="F201" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G201" t="s">
         <v>351</v>
@@ -6424,10 +6424,10 @@
         <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H205" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
@@ -6435,10 +6435,10 @@
         <v>40</v>
       </c>
       <c r="G206" t="s">
+        <v>427</v>
+      </c>
+      <c r="H206" t="s">
         <v>428</v>
-      </c>
-      <c r="H206" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.25">
@@ -6449,7 +6449,7 @@
         <v>375</v>
       </c>
       <c r="F207" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G207" t="s">
         <v>345</v>
@@ -6470,13 +6470,13 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B210" t="s">
         <v>38</v>
       </c>
       <c r="C210" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -6489,10 +6489,10 @@
         <v>40</v>
       </c>
       <c r="G212" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H212" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -6500,10 +6500,10 @@
         <v>40</v>
       </c>
       <c r="G213" t="s">
+        <v>429</v>
+      </c>
+      <c r="H213" t="s">
         <v>430</v>
-      </c>
-      <c r="H213" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -6511,7 +6511,7 @@
         <v>30</v>
       </c>
       <c r="F214" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G214" t="s">
         <v>340</v>
@@ -6528,7 +6528,7 @@
         <v>48</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -6536,7 +6536,7 @@
         <v>38</v>
       </c>
       <c r="C216" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -6544,10 +6544,10 @@
         <v>317</v>
       </c>
       <c r="F217" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I217" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -6555,7 +6555,7 @@
         <v>318</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G218" t="s">
         <v>342</v>
@@ -6574,7 +6574,7 @@
         <v>278</v>
       </c>
       <c r="F220" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G220" t="s">
         <v>349</v>
@@ -6591,7 +6591,7 @@
         <v>69</v>
       </c>
       <c r="F221" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G221" t="s">
         <v>348</v>
@@ -6605,7 +6605,7 @@
         <v>319</v>
       </c>
       <c r="C222" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -6613,7 +6613,7 @@
         <v>278</v>
       </c>
       <c r="F223" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G223" t="s">
         <v>351</v>
@@ -6642,10 +6642,10 @@
         <v>40</v>
       </c>
       <c r="G227" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H227" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -6653,10 +6653,10 @@
         <v>40</v>
       </c>
       <c r="G228" t="s">
+        <v>429</v>
+      </c>
+      <c r="H228" t="s">
         <v>430</v>
-      </c>
-      <c r="H228" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -6667,7 +6667,7 @@
         <v>375</v>
       </c>
       <c r="F229" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G229" t="s">
         <v>345</v>
@@ -6688,13 +6688,13 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B232" t="s">
         <v>38</v>
       </c>
       <c r="C232" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -6707,10 +6707,10 @@
         <v>40</v>
       </c>
       <c r="G234" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H234" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -6718,10 +6718,10 @@
         <v>40</v>
       </c>
       <c r="G235" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H235" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -6729,7 +6729,7 @@
         <v>30</v>
       </c>
       <c r="F236" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G236" t="s">
         <v>340</v>
@@ -6746,7 +6746,7 @@
         <v>48</v>
       </c>
       <c r="F237" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -6754,7 +6754,7 @@
         <v>38</v>
       </c>
       <c r="C238" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -6762,10 +6762,10 @@
         <v>317</v>
       </c>
       <c r="F239" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I239" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -6773,7 +6773,7 @@
         <v>318</v>
       </c>
       <c r="F240" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G240" t="s">
         <v>342</v>
@@ -6792,7 +6792,7 @@
         <v>278</v>
       </c>
       <c r="F242" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G242" t="s">
         <v>349</v>
@@ -6809,7 +6809,7 @@
         <v>69</v>
       </c>
       <c r="F243" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G243" t="s">
         <v>348</v>
@@ -6823,7 +6823,7 @@
         <v>319</v>
       </c>
       <c r="C244" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -6831,7 +6831,7 @@
         <v>278</v>
       </c>
       <c r="F245" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G245" t="s">
         <v>351</v>
@@ -6860,10 +6860,10 @@
         <v>40</v>
       </c>
       <c r="G249" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H249" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -6871,10 +6871,10 @@
         <v>40</v>
       </c>
       <c r="G250" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H250" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -6885,7 +6885,7 @@
         <v>375</v>
       </c>
       <c r="F251" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G251" t="s">
         <v>345</v>
@@ -6906,13 +6906,13 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B254" t="s">
         <v>38</v>
       </c>
       <c r="C254" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -6925,10 +6925,10 @@
         <v>40</v>
       </c>
       <c r="G256" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H256" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
@@ -6936,10 +6936,10 @@
         <v>40</v>
       </c>
       <c r="G257" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H257" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.25">
@@ -6947,7 +6947,7 @@
         <v>30</v>
       </c>
       <c r="F258" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G258" t="s">
         <v>340</v>
@@ -6964,7 +6964,7 @@
         <v>48</v>
       </c>
       <c r="F259" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.25">
@@ -6972,7 +6972,7 @@
         <v>38</v>
       </c>
       <c r="C260" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
@@ -6980,10 +6980,10 @@
         <v>317</v>
       </c>
       <c r="F261" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I261" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.25">
@@ -6991,7 +6991,7 @@
         <v>318</v>
       </c>
       <c r="F262" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G262" t="s">
         <v>342</v>
@@ -7010,7 +7010,7 @@
         <v>278</v>
       </c>
       <c r="F264" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G264" t="s">
         <v>349</v>
@@ -7027,7 +7027,7 @@
         <v>69</v>
       </c>
       <c r="F265" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G265" t="s">
         <v>348</v>
@@ -7041,7 +7041,7 @@
         <v>319</v>
       </c>
       <c r="C266" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="267" spans="2:9" x14ac:dyDescent="0.25">
@@ -7049,7 +7049,7 @@
         <v>278</v>
       </c>
       <c r="F267" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G267" t="s">
         <v>351</v>
@@ -7078,10 +7078,10 @@
         <v>40</v>
       </c>
       <c r="G271" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H271" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="272" spans="2:9" x14ac:dyDescent="0.25">
@@ -7089,10 +7089,10 @@
         <v>40</v>
       </c>
       <c r="G272" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H272" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -7103,7 +7103,7 @@
         <v>375</v>
       </c>
       <c r="F273" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G273" t="s">
         <v>345</v>
@@ -7124,13 +7124,13 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B276" t="s">
         <v>38</v>
       </c>
       <c r="C276" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -7143,10 +7143,10 @@
         <v>40</v>
       </c>
       <c r="G278" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H278" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -7154,10 +7154,10 @@
         <v>40</v>
       </c>
       <c r="G279" t="s">
+        <v>469</v>
+      </c>
+      <c r="H279" t="s">
         <v>470</v>
-      </c>
-      <c r="H279" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -7165,7 +7165,7 @@
         <v>30</v>
       </c>
       <c r="F280" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G280" t="s">
         <v>340</v>
@@ -7182,7 +7182,7 @@
         <v>48</v>
       </c>
       <c r="F281" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -7190,7 +7190,7 @@
         <v>38</v>
       </c>
       <c r="C282" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -7198,10 +7198,10 @@
         <v>317</v>
       </c>
       <c r="F283" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I283" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -7209,7 +7209,7 @@
         <v>318</v>
       </c>
       <c r="F284" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G284" t="s">
         <v>342</v>
@@ -7228,7 +7228,7 @@
         <v>278</v>
       </c>
       <c r="F286" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G286" t="s">
         <v>349</v>
@@ -7245,7 +7245,7 @@
         <v>69</v>
       </c>
       <c r="F287" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G287" t="s">
         <v>348</v>
@@ -7259,7 +7259,7 @@
         <v>319</v>
       </c>
       <c r="C288" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
@@ -7267,7 +7267,7 @@
         <v>278</v>
       </c>
       <c r="F289" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G289" t="s">
         <v>351</v>
@@ -7296,10 +7296,10 @@
         <v>40</v>
       </c>
       <c r="G293" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H293" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -7307,10 +7307,10 @@
         <v>40</v>
       </c>
       <c r="G294" t="s">
+        <v>469</v>
+      </c>
+      <c r="H294" t="s">
         <v>470</v>
-      </c>
-      <c r="H294" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
@@ -7321,7 +7321,7 @@
         <v>375</v>
       </c>
       <c r="F295" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G295" t="s">
         <v>345</v>
@@ -7353,10 +7353,10 @@
         <v>40</v>
       </c>
       <c r="G299" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H299" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
@@ -7389,16 +7389,16 @@
         <v>37</v>
       </c>
       <c r="E302" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F302" t="s">
+        <v>472</v>
+      </c>
+      <c r="G302" t="s">
         <v>473</v>
       </c>
-      <c r="G302" t="s">
+      <c r="H302" t="s">
         <v>474</v>
-      </c>
-      <c r="H302" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
@@ -7413,13 +7413,13 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B305" t="s">
         <v>38</v>
       </c>
       <c r="C305" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -7432,10 +7432,10 @@
         <v>40</v>
       </c>
       <c r="G307" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H307" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -7443,10 +7443,10 @@
         <v>40</v>
       </c>
       <c r="G308" t="s">
+        <v>535</v>
+      </c>
+      <c r="H308" t="s">
         <v>536</v>
-      </c>
-      <c r="H308" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -7454,7 +7454,7 @@
         <v>30</v>
       </c>
       <c r="F309" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G309" t="s">
         <v>357</v>
@@ -7471,7 +7471,7 @@
         <v>48</v>
       </c>
       <c r="F310" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -7479,7 +7479,7 @@
         <v>38</v>
       </c>
       <c r="C311" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -7487,10 +7487,10 @@
         <v>317</v>
       </c>
       <c r="F312" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I312" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -7498,7 +7498,7 @@
         <v>318</v>
       </c>
       <c r="F313" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G313" t="s">
         <v>342</v>
@@ -7520,13 +7520,13 @@
         <v>69</v>
       </c>
       <c r="F315" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G315" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H315" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -7534,7 +7534,7 @@
         <v>38</v>
       </c>
       <c r="C316" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -7542,13 +7542,13 @@
         <v>318</v>
       </c>
       <c r="F317" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G317" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H317" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -7571,10 +7571,10 @@
         <v>40</v>
       </c>
       <c r="G321" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H321" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
@@ -7582,10 +7582,10 @@
         <v>40</v>
       </c>
       <c r="G322" t="s">
+        <v>535</v>
+      </c>
+      <c r="H322" t="s">
         <v>536</v>
-      </c>
-      <c r="H322" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
@@ -7593,7 +7593,7 @@
         <v>278</v>
       </c>
       <c r="F323" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G323" t="s">
         <v>358</v>
@@ -7610,7 +7610,7 @@
         <v>69</v>
       </c>
       <c r="F324" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G324" t="s">
         <v>348</v>
@@ -7624,7 +7624,7 @@
         <v>319</v>
       </c>
       <c r="C325" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
@@ -7632,7 +7632,7 @@
         <v>278</v>
       </c>
       <c r="F326" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G326" t="s">
         <v>351</v>
@@ -7661,10 +7661,10 @@
         <v>40</v>
       </c>
       <c r="G330" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H330" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
@@ -7672,10 +7672,10 @@
         <v>40</v>
       </c>
       <c r="G331" t="s">
+        <v>535</v>
+      </c>
+      <c r="H331" t="s">
         <v>536</v>
-      </c>
-      <c r="H331" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
@@ -7686,7 +7686,7 @@
         <v>375</v>
       </c>
       <c r="F332" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G332" t="s">
         <v>345</v>
@@ -7707,13 +7707,13 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B335" t="s">
         <v>38</v>
       </c>
       <c r="C335" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
@@ -7726,10 +7726,10 @@
         <v>40</v>
       </c>
       <c r="G337" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H337" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="338" spans="2:9" x14ac:dyDescent="0.25">
@@ -7737,10 +7737,10 @@
         <v>40</v>
       </c>
       <c r="G338" t="s">
+        <v>537</v>
+      </c>
+      <c r="H338" t="s">
         <v>538</v>
-      </c>
-      <c r="H338" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="339" spans="2:9" x14ac:dyDescent="0.25">
@@ -7748,7 +7748,7 @@
         <v>30</v>
       </c>
       <c r="F339" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G339" t="s">
         <v>357</v>
@@ -7765,7 +7765,7 @@
         <v>48</v>
       </c>
       <c r="F340" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="341" spans="2:9" x14ac:dyDescent="0.25">
@@ -7773,7 +7773,7 @@
         <v>38</v>
       </c>
       <c r="C341" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="342" spans="2:9" x14ac:dyDescent="0.25">
@@ -7781,10 +7781,10 @@
         <v>317</v>
       </c>
       <c r="F342" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I342" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="343" spans="2:9" x14ac:dyDescent="0.25">
@@ -7792,7 +7792,7 @@
         <v>318</v>
       </c>
       <c r="F343" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G343" t="s">
         <v>342</v>
@@ -7814,13 +7814,13 @@
         <v>69</v>
       </c>
       <c r="F345" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G345" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H345" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="346" spans="2:9" x14ac:dyDescent="0.25">
@@ -7828,7 +7828,7 @@
         <v>38</v>
       </c>
       <c r="C346" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="347" spans="2:9" x14ac:dyDescent="0.25">
@@ -7836,13 +7836,13 @@
         <v>318</v>
       </c>
       <c r="F347" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G347" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H347" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="348" spans="2:9" x14ac:dyDescent="0.25">
@@ -7865,10 +7865,10 @@
         <v>40</v>
       </c>
       <c r="G351" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H351" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="352" spans="2:9" x14ac:dyDescent="0.25">
@@ -7876,10 +7876,10 @@
         <v>40</v>
       </c>
       <c r="G352" t="s">
+        <v>537</v>
+      </c>
+      <c r="H352" t="s">
         <v>538</v>
-      </c>
-      <c r="H352" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
@@ -7887,7 +7887,7 @@
         <v>278</v>
       </c>
       <c r="F353" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G353" t="s">
         <v>358</v>
@@ -7904,7 +7904,7 @@
         <v>69</v>
       </c>
       <c r="F354" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G354" t="s">
         <v>348</v>
@@ -7918,7 +7918,7 @@
         <v>319</v>
       </c>
       <c r="C355" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
@@ -7926,7 +7926,7 @@
         <v>278</v>
       </c>
       <c r="F356" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G356" t="s">
         <v>351</v>
@@ -7955,10 +7955,10 @@
         <v>40</v>
       </c>
       <c r="G360" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H360" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
@@ -7966,10 +7966,10 @@
         <v>40</v>
       </c>
       <c r="G361" t="s">
+        <v>537</v>
+      </c>
+      <c r="H361" t="s">
         <v>538</v>
-      </c>
-      <c r="H361" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
@@ -7980,7 +7980,7 @@
         <v>375</v>
       </c>
       <c r="F362" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G362" t="s">
         <v>345</v>
@@ -8001,13 +8001,13 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B365" t="s">
         <v>38</v>
       </c>
       <c r="C365" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
@@ -8020,10 +8020,10 @@
         <v>40</v>
       </c>
       <c r="G367" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H367" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
@@ -8031,10 +8031,10 @@
         <v>40</v>
       </c>
       <c r="G368" t="s">
+        <v>539</v>
+      </c>
+      <c r="H368" t="s">
         <v>540</v>
-      </c>
-      <c r="H368" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="369" spans="2:9" x14ac:dyDescent="0.25">
@@ -8042,7 +8042,7 @@
         <v>30</v>
       </c>
       <c r="F369" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G369" t="s">
         <v>357</v>
@@ -8059,7 +8059,7 @@
         <v>48</v>
       </c>
       <c r="F370" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="371" spans="2:9" x14ac:dyDescent="0.25">
@@ -8067,7 +8067,7 @@
         <v>38</v>
       </c>
       <c r="C371" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="372" spans="2:9" x14ac:dyDescent="0.25">
@@ -8075,10 +8075,10 @@
         <v>317</v>
       </c>
       <c r="F372" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I372" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="373" spans="2:9" x14ac:dyDescent="0.25">
@@ -8086,7 +8086,7 @@
         <v>318</v>
       </c>
       <c r="F373" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G373" t="s">
         <v>342</v>
@@ -8108,13 +8108,13 @@
         <v>69</v>
       </c>
       <c r="F375" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G375" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H375" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="376" spans="2:9" x14ac:dyDescent="0.25">
@@ -8122,7 +8122,7 @@
         <v>38</v>
       </c>
       <c r="C376" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="377" spans="2:9" x14ac:dyDescent="0.25">
@@ -8130,13 +8130,13 @@
         <v>318</v>
       </c>
       <c r="F377" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G377" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H377" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="378" spans="2:9" x14ac:dyDescent="0.25">
@@ -8159,10 +8159,10 @@
         <v>40</v>
       </c>
       <c r="G381" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H381" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="382" spans="2:9" x14ac:dyDescent="0.25">
@@ -8170,10 +8170,10 @@
         <v>40</v>
       </c>
       <c r="G382" t="s">
+        <v>539</v>
+      </c>
+      <c r="H382" t="s">
         <v>540</v>
-      </c>
-      <c r="H382" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="383" spans="2:9" x14ac:dyDescent="0.25">
@@ -8181,7 +8181,7 @@
         <v>278</v>
       </c>
       <c r="F383" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G383" t="s">
         <v>358</v>
@@ -8198,7 +8198,7 @@
         <v>69</v>
       </c>
       <c r="F384" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G384" t="s">
         <v>348</v>
@@ -8212,7 +8212,7 @@
         <v>319</v>
       </c>
       <c r="C385" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
@@ -8220,7 +8220,7 @@
         <v>278</v>
       </c>
       <c r="F386" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G386" t="s">
         <v>351</v>
@@ -8249,10 +8249,10 @@
         <v>40</v>
       </c>
       <c r="G390" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H390" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -8260,10 +8260,10 @@
         <v>40</v>
       </c>
       <c r="G391" t="s">
+        <v>539</v>
+      </c>
+      <c r="H391" t="s">
         <v>540</v>
-      </c>
-      <c r="H391" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -8274,7 +8274,7 @@
         <v>375</v>
       </c>
       <c r="F392" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G392" t="s">
         <v>345</v>
@@ -8295,13 +8295,13 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B395" t="s">
         <v>38</v>
       </c>
       <c r="C395" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
@@ -8314,10 +8314,10 @@
         <v>40</v>
       </c>
       <c r="G397" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H397" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
@@ -8325,10 +8325,10 @@
         <v>40</v>
       </c>
       <c r="G398" t="s">
+        <v>541</v>
+      </c>
+      <c r="H398" t="s">
         <v>542</v>
-      </c>
-      <c r="H398" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -8336,7 +8336,7 @@
         <v>30</v>
       </c>
       <c r="F399" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G399" t="s">
         <v>357</v>
@@ -8353,7 +8353,7 @@
         <v>48</v>
       </c>
       <c r="F400" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="401" spans="2:9" x14ac:dyDescent="0.25">
@@ -8361,7 +8361,7 @@
         <v>38</v>
       </c>
       <c r="C401" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="402" spans="2:9" x14ac:dyDescent="0.25">
@@ -8369,10 +8369,10 @@
         <v>317</v>
       </c>
       <c r="F402" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I402" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="403" spans="2:9" x14ac:dyDescent="0.25">
@@ -8380,7 +8380,7 @@
         <v>318</v>
       </c>
       <c r="F403" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G403" t="s">
         <v>342</v>
@@ -8402,13 +8402,13 @@
         <v>69</v>
       </c>
       <c r="F405" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G405" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H405" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="406" spans="2:9" x14ac:dyDescent="0.25">
@@ -8416,7 +8416,7 @@
         <v>38</v>
       </c>
       <c r="C406" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="407" spans="2:9" x14ac:dyDescent="0.25">
@@ -8424,13 +8424,13 @@
         <v>318</v>
       </c>
       <c r="F407" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G407" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H407" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="408" spans="2:9" x14ac:dyDescent="0.25">
@@ -8453,10 +8453,10 @@
         <v>40</v>
       </c>
       <c r="G411" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H411" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="412" spans="2:9" x14ac:dyDescent="0.25">
@@ -8464,10 +8464,10 @@
         <v>40</v>
       </c>
       <c r="G412" t="s">
+        <v>541</v>
+      </c>
+      <c r="H412" t="s">
         <v>542</v>
-      </c>
-      <c r="H412" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="413" spans="2:9" x14ac:dyDescent="0.25">
@@ -8475,7 +8475,7 @@
         <v>278</v>
       </c>
       <c r="F413" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G413" t="s">
         <v>358</v>
@@ -8492,7 +8492,7 @@
         <v>69</v>
       </c>
       <c r="F414" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G414" t="s">
         <v>348</v>
@@ -8506,7 +8506,7 @@
         <v>319</v>
       </c>
       <c r="C415" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="416" spans="2:9" x14ac:dyDescent="0.25">
@@ -8514,7 +8514,7 @@
         <v>278</v>
       </c>
       <c r="F416" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G416" t="s">
         <v>351</v>
@@ -8543,10 +8543,10 @@
         <v>40</v>
       </c>
       <c r="G420" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H420" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
@@ -8554,10 +8554,10 @@
         <v>40</v>
       </c>
       <c r="G421" t="s">
+        <v>541</v>
+      </c>
+      <c r="H421" t="s">
         <v>542</v>
-      </c>
-      <c r="H421" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
@@ -8568,7 +8568,7 @@
         <v>375</v>
       </c>
       <c r="F422" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G422" t="s">
         <v>345</v>
@@ -8589,13 +8589,13 @@
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B425" t="s">
         <v>38</v>
       </c>
       <c r="C425" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
@@ -8608,10 +8608,10 @@
         <v>40</v>
       </c>
       <c r="G427" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H427" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
@@ -8619,10 +8619,10 @@
         <v>40</v>
       </c>
       <c r="G428" t="s">
+        <v>543</v>
+      </c>
+      <c r="H428" t="s">
         <v>544</v>
-      </c>
-      <c r="H428" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
@@ -8630,7 +8630,7 @@
         <v>30</v>
       </c>
       <c r="F429" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G429" t="s">
         <v>357</v>
@@ -8647,7 +8647,7 @@
         <v>48</v>
       </c>
       <c r="F430" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
@@ -8655,7 +8655,7 @@
         <v>38</v>
       </c>
       <c r="C431" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
@@ -8663,10 +8663,10 @@
         <v>317</v>
       </c>
       <c r="F432" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I432" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="433" spans="2:8" x14ac:dyDescent="0.25">
@@ -8674,7 +8674,7 @@
         <v>318</v>
       </c>
       <c r="F433" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G433" t="s">
         <v>342</v>
@@ -8696,13 +8696,13 @@
         <v>69</v>
       </c>
       <c r="F435" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G435" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H435" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="436" spans="2:8" x14ac:dyDescent="0.25">
@@ -8710,7 +8710,7 @@
         <v>38</v>
       </c>
       <c r="C436" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="437" spans="2:8" x14ac:dyDescent="0.25">
@@ -8718,13 +8718,13 @@
         <v>318</v>
       </c>
       <c r="F437" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G437" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H437" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="438" spans="2:8" x14ac:dyDescent="0.25">
@@ -8747,10 +8747,10 @@
         <v>40</v>
       </c>
       <c r="G441" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H441" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="442" spans="2:8" x14ac:dyDescent="0.25">
@@ -8758,10 +8758,10 @@
         <v>40</v>
       </c>
       <c r="G442" t="s">
+        <v>543</v>
+      </c>
+      <c r="H442" t="s">
         <v>544</v>
-      </c>
-      <c r="H442" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="443" spans="2:8" x14ac:dyDescent="0.25">
@@ -8769,7 +8769,7 @@
         <v>278</v>
       </c>
       <c r="F443" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G443" t="s">
         <v>358</v>
@@ -8786,7 +8786,7 @@
         <v>69</v>
       </c>
       <c r="F444" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G444" t="s">
         <v>348</v>
@@ -8800,7 +8800,7 @@
         <v>319</v>
       </c>
       <c r="C445" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="446" spans="2:8" x14ac:dyDescent="0.25">
@@ -8808,7 +8808,7 @@
         <v>278</v>
       </c>
       <c r="F446" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G446" t="s">
         <v>351</v>
@@ -8837,10 +8837,10 @@
         <v>40</v>
       </c>
       <c r="G450" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H450" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
@@ -8848,10 +8848,10 @@
         <v>40</v>
       </c>
       <c r="G451" t="s">
+        <v>543</v>
+      </c>
+      <c r="H451" t="s">
         <v>544</v>
-      </c>
-      <c r="H451" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
@@ -8862,7 +8862,7 @@
         <v>375</v>
       </c>
       <c r="F452" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G452" t="s">
         <v>345</v>
@@ -8894,10 +8894,10 @@
         <v>40</v>
       </c>
       <c r="G456" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H456" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
@@ -8962,10 +8962,10 @@
         <v>40</v>
       </c>
       <c r="G463" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H463" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
@@ -9032,7 +9032,7 @@
         <v>38</v>
       </c>
       <c r="C468" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="469" spans="1:15" x14ac:dyDescent="0.25">
@@ -9083,7 +9083,7 @@
     </row>
     <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B474" t="s">
         <v>52</v>
@@ -9094,10 +9094,10 @@
         <v>40</v>
       </c>
       <c r="G475" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H475" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="476" spans="1:15" x14ac:dyDescent="0.25">
@@ -9105,16 +9105,16 @@
         <v>278</v>
       </c>
       <c r="F476" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G476" t="s">
+        <v>674</v>
+      </c>
+      <c r="H476" t="s">
         <v>676</v>
       </c>
-      <c r="H476" t="s">
-        <v>678</v>
-      </c>
       <c r="O476" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="477" spans="1:15" x14ac:dyDescent="0.25">
@@ -9122,16 +9122,16 @@
         <v>278</v>
       </c>
       <c r="F477" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G477" t="s">
+        <v>675</v>
+      </c>
+      <c r="H477" t="s">
         <v>677</v>
       </c>
-      <c r="H477" t="s">
-        <v>679</v>
-      </c>
       <c r="O477" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="478" spans="1:15" x14ac:dyDescent="0.25">
@@ -9144,12 +9144,12 @@
         <v>38</v>
       </c>
       <c r="C479" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B480" t="s">
         <v>52</v>
@@ -9160,10 +9160,10 @@
         <v>40</v>
       </c>
       <c r="G481" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H481" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="482" spans="2:8" x14ac:dyDescent="0.25">
@@ -9174,13 +9174,13 @@
         <v>63</v>
       </c>
       <c r="F482" t="s">
+        <v>679</v>
+      </c>
+      <c r="G482" t="s">
+        <v>680</v>
+      </c>
+      <c r="H482" t="s">
         <v>681</v>
-      </c>
-      <c r="G482" t="s">
-        <v>682</v>
-      </c>
-      <c r="H482" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="483" spans="2:8" x14ac:dyDescent="0.25">
@@ -9206,7 +9206,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9233,47 +9233,47 @@
     </row>
     <row r="2" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B4" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -9284,62 +9284,62 @@
     </row>
     <row r="6" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B6" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B8" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>556</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B9" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -9388,10 +9388,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -9406,7 +9406,7 @@
         <v>66</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -9421,7 +9421,7 @@
         <v>67</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -9436,7 +9436,7 @@
         <v>68</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -9447,77 +9447,77 @@
     </row>
     <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B19" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B20" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D20" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B21" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D21" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B22" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D22" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B23" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D23" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -9639,7 +9639,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B35" t="str">
         <f>"1"</f>
@@ -9654,7 +9654,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B36" t="str">
         <f>"2"</f>
@@ -9669,7 +9669,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B37" t="str">
         <f>"3"</f>
@@ -9684,7 +9684,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B38" s="13" t="str">
         <f>"4"</f>
@@ -9699,17 +9699,17 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B39" s="7" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -9724,10 +9724,10 @@
         <v>301</v>
       </c>
       <c r="C41" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D41" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -9829,10 +9829,10 @@
         <v>310</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>382</v>
+        <v>739</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>382</v>
+        <v>739</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -9844,10 +9844,10 @@
         <v>311</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -9859,10 +9859,10 @@
         <v>312</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -9874,10 +9874,10 @@
         <v>313</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -9889,10 +9889,10 @@
         <v>314</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -9904,10 +9904,10 @@
         <v>315</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -9919,10 +9919,10 @@
         <v>316</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -9934,10 +9934,10 @@
         <v>317</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -9949,10 +9949,10 @@
         <v>318</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -9964,10 +9964,10 @@
         <v>319</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -9979,10 +9979,10 @@
         <v>320</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -9994,10 +9994,10 @@
         <v>321</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -10009,10 +10009,10 @@
         <v>322</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -10024,10 +10024,10 @@
         <v>323</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -10039,10 +10039,10 @@
         <v>324</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -10054,10 +10054,10 @@
         <v>325</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -10285,26 +10285,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B2" t="s">
         <v>278</v>
@@ -10406,12 +10406,12 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B3" t="s">
         <v>278</v>
@@ -10422,7 +10422,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B4" t="s">
         <v>278</v>
@@ -10433,7 +10433,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B5" t="s">
         <v>278</v>
@@ -10444,7 +10444,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B6" t="s">
         <v>278</v>
@@ -10455,7 +10455,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B7" t="s">
         <v>278</v>
@@ -10466,7 +10466,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B8" t="s">
         <v>278</v>
@@ -10477,7 +10477,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B9" t="s">
         <v>278</v>
@@ -10486,12 +10486,12 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B10" t="s">
         <v>318</v>
@@ -10500,12 +10500,12 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -10514,12 +10514,12 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B12" t="s">
         <v>318</v>
@@ -10528,12 +10528,12 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B13" t="s">
         <v>318</v>
@@ -10542,12 +10542,12 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -10556,12 +10556,12 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -10570,12 +10570,12 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B16" t="s">
         <v>278</v>
@@ -10584,12 +10584,12 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B17" t="s">
         <v>278</v>
@@ -10598,12 +10598,12 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B18" t="s">
         <v>318</v>
@@ -10612,12 +10612,12 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B19" t="s">
         <v>318</v>
@@ -10626,26 +10626,26 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B20" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B21" t="s">
         <v>318</v>
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -10662,7 +10662,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
@@ -10671,13 +10671,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -10688,7 +10688,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -10699,7 +10699,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -10732,7 +10732,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>317</v>
@@ -10743,7 +10743,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -10754,7 +10754,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -10765,7 +10765,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -10776,7 +10776,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
@@ -10787,7 +10787,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
@@ -10798,7 +10798,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -10809,7 +10809,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -10820,7 +10820,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B37" t="s">
         <v>278</v>
@@ -10831,7 +10831,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -10842,7 +10842,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B39" t="s">
         <v>278</v>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -10864,7 +10864,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B41" t="s">
         <v>278</v>
@@ -10875,7 +10875,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B43" t="s">
         <v>37</v>
@@ -10884,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -11857,7 +11857,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B132" t="s">
         <v>37</v>
@@ -11868,7 +11868,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B133" t="s">
         <v>30</v>
@@ -11879,7 +11879,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B134" t="s">
         <v>316</v>
@@ -11890,7 +11890,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B135" t="s">
         <v>318</v>
@@ -11901,7 +11901,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B136" t="s">
         <v>278</v>
@@ -11912,7 +11912,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B137" t="s">
         <v>37</v>
@@ -11923,7 +11923,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B138" t="s">
         <v>278</v>
@@ -11934,7 +11934,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B139" t="s">
         <v>62</v>
@@ -11945,7 +11945,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B140" t="s">
         <v>30</v>
@@ -11956,7 +11956,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B141" t="s">
         <v>316</v>
@@ -11967,7 +11967,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B142" t="s">
         <v>318</v>
@@ -11978,7 +11978,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B143" t="s">
         <v>278</v>
@@ -11989,7 +11989,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B144" t="s">
         <v>37</v>
@@ -12000,7 +12000,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B145" t="s">
         <v>278</v>
@@ -12011,7 +12011,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B146" t="s">
         <v>62</v>
@@ -12022,7 +12022,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B147" t="s">
         <v>30</v>
@@ -12033,7 +12033,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B148" t="s">
         <v>316</v>
@@ -12044,7 +12044,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B149" t="s">
         <v>318</v>
@@ -12055,7 +12055,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B150" t="s">
         <v>278</v>
@@ -12066,7 +12066,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B151" t="s">
         <v>37</v>
@@ -12077,7 +12077,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B152" t="s">
         <v>278</v>
@@ -12088,7 +12088,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B153" t="s">
         <v>62</v>
@@ -12099,7 +12099,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B154" t="s">
         <v>30</v>
@@ -12110,7 +12110,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B155" t="s">
         <v>316</v>
@@ -12121,7 +12121,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B156" t="s">
         <v>318</v>
@@ -12132,7 +12132,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B157" t="s">
         <v>278</v>
@@ -12143,7 +12143,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B158" t="s">
         <v>37</v>
@@ -12154,7 +12154,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B159" t="s">
         <v>278</v>
@@ -12165,7 +12165,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B160" t="s">
         <v>62</v>
@@ -12176,7 +12176,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B161" t="s">
         <v>30</v>
@@ -12187,7 +12187,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B162" t="s">
         <v>316</v>
@@ -12198,7 +12198,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B163" t="s">
         <v>318</v>
@@ -12209,7 +12209,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B164" t="s">
         <v>278</v>
@@ -12220,7 +12220,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B165" t="s">
         <v>37</v>
@@ -12232,7 +12232,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B166" t="s">
         <v>278</v>
@@ -12243,7 +12243,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B167" t="s">
         <v>62</v>
@@ -12265,7 +12265,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B169" t="s">
         <v>37</v>
@@ -12276,7 +12276,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B170" t="s">
         <v>30</v>
@@ -12287,7 +12287,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B171" t="s">
         <v>316</v>
@@ -12298,7 +12298,7 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B172" t="s">
         <v>318</v>
@@ -12309,7 +12309,7 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B173" t="s">
         <v>37</v>
@@ -12320,7 +12320,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B174" t="s">
         <v>318</v>
@@ -12331,7 +12331,7 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B175" t="s">
         <v>278</v>
@@ -12342,7 +12342,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B176" t="s">
         <v>37</v>
@@ -12353,7 +12353,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B177" t="s">
         <v>278</v>
@@ -12364,7 +12364,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B178" t="s">
         <v>62</v>
@@ -12375,7 +12375,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B179" t="s">
         <v>30</v>
@@ -12386,7 +12386,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B180" t="s">
         <v>316</v>
@@ -12397,7 +12397,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B181" t="s">
         <v>318</v>
@@ -12408,7 +12408,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B182" t="s">
         <v>37</v>
@@ -12419,7 +12419,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B183" t="s">
         <v>318</v>
@@ -12430,7 +12430,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B184" t="s">
         <v>278</v>
@@ -12441,7 +12441,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B185" t="s">
         <v>37</v>
@@ -12452,7 +12452,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B186" t="s">
         <v>278</v>
@@ -12463,7 +12463,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B187" t="s">
         <v>62</v>
@@ -12474,7 +12474,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B188" t="s">
         <v>30</v>
@@ -12485,7 +12485,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B189" t="s">
         <v>316</v>
@@ -12496,7 +12496,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B190" t="s">
         <v>318</v>
@@ -12507,7 +12507,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B191" t="s">
         <v>37</v>
@@ -12518,7 +12518,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B192" t="s">
         <v>318</v>
@@ -12529,7 +12529,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B193" t="s">
         <v>278</v>
@@ -12540,7 +12540,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B194" t="s">
         <v>37</v>
@@ -12551,7 +12551,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B195" t="s">
         <v>278</v>
@@ -12562,7 +12562,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B196" t="s">
         <v>62</v>
@@ -12573,7 +12573,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B197" t="s">
         <v>30</v>
@@ -12584,7 +12584,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B198" t="s">
         <v>316</v>
@@ -12595,7 +12595,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B199" t="s">
         <v>318</v>
@@ -12606,7 +12606,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B200" t="s">
         <v>37</v>
@@ -12617,7 +12617,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B201" t="s">
         <v>318</v>
@@ -12628,7 +12628,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B202" t="s">
         <v>278</v>
@@ -12639,7 +12639,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B203" t="s">
         <v>37</v>
@@ -12650,7 +12650,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B204" t="s">
         <v>278</v>
@@ -12661,7 +12661,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B205" t="s">
         <v>62</v>
@@ -12672,7 +12672,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B206" t="s">
         <v>30</v>
@@ -12683,7 +12683,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B207" t="s">
         <v>316</v>
@@ -12694,7 +12694,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B208" t="s">
         <v>318</v>
@@ -12705,7 +12705,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B209" t="s">
         <v>37</v>
@@ -12716,7 +12716,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B210" t="s">
         <v>318</v>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B211" t="s">
         <v>278</v>
@@ -12738,7 +12738,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B212" t="s">
         <v>37</v>
@@ -12749,7 +12749,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B213" t="s">
         <v>278</v>
@@ -12760,7 +12760,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B214" t="s">
         <v>62</v>

--- a/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
+++ b/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B74D1D7-9CCA-428E-AD98-25B24E3B4C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36407F75-A86D-4897-8C6F-EE0AFB65B3EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="741">
   <si>
     <t>setting_name</t>
   </si>
@@ -2139,12 +2139,6 @@
     <t>Assistente</t>
   </si>
   <si>
-    <t>ass 2</t>
-  </si>
-  <si>
-    <t>ass 3</t>
-  </si>
-  <si>
     <t>Claudino</t>
   </si>
   <si>
@@ -2254,6 +2248,15 @@
   </si>
   <si>
     <t>Ceu e Terra</t>
+  </si>
+  <si>
+    <t>Justiniano</t>
+  </si>
+  <si>
+    <t>Else</t>
+  </si>
+  <si>
+    <t>Tchico</t>
   </si>
 </sst>
 </file>
@@ -2674,16 +2677,16 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2703,7 +2706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>60120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2739,7 +2742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2750,7 +2753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -2761,7 +2764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -2769,7 +2772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2796,24 +2799,24 @@
       <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.140625" customWidth="1"/>
+    <col min="8" max="8" width="53.1796875" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" customWidth="1"/>
+    <col min="11" max="11" width="33.453125" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>553</v>
       </c>
@@ -2862,7 +2865,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D3" s="11" t="s">
         <v>317</v>
       </c>
@@ -2873,7 +2876,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
@@ -2881,7 +2884,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D5" s="11" t="s">
         <v>317</v>
       </c>
@@ -2892,29 +2895,29 @@
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D7" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>30</v>
       </c>
@@ -2932,12 +2935,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>52</v>
       </c>
@@ -2948,7 +2951,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>40</v>
       </c>
@@ -2959,7 +2962,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -2967,7 +2970,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>40</v>
       </c>
@@ -2978,12 +2981,12 @@
         <v>639</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>40</v>
       </c>
@@ -2994,12 +2997,12 @@
         <v>641</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>40</v>
       </c>
@@ -3010,7 +3013,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>40</v>
       </c>
@@ -3021,7 +3024,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>40</v>
       </c>
@@ -3032,7 +3035,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>40</v>
       </c>
@@ -3040,10 +3043,10 @@
         <v>613</v>
       </c>
       <c r="H20" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>40</v>
       </c>
@@ -3054,7 +3057,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>40</v>
       </c>
@@ -3065,7 +3068,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>37</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>37</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>37</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>37</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>37</v>
       </c>
@@ -3150,7 +3153,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
         <v>37</v>
       </c>
@@ -3167,7 +3170,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
         <v>37</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
         <v>37</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>37</v>
       </c>
@@ -3218,12 +3221,12 @@
         <v>627</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>678</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>278</v>
       </c>
@@ -3248,7 +3251,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>278</v>
       </c>
@@ -3265,12 +3268,12 @@
         <v>673</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>38</v>
       </c>
@@ -3278,12 +3281,12 @@
         <v>573</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
         <v>37</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>38</v>
       </c>
@@ -3308,7 +3311,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
         <v>62</v>
       </c>
@@ -3325,12 +3328,12 @@
         <v>604</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>38</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D44" t="s">
         <v>317</v>
       </c>
@@ -3349,12 +3352,12 @@
         <v>649</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>38</v>
       </c>
@@ -3362,7 +3365,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
         <v>317</v>
       </c>
@@ -3373,12 +3376,12 @@
         <v>660</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>38</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
         <v>317</v>
       </c>
@@ -3397,12 +3400,12 @@
         <v>661</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>38</v>
       </c>
@@ -3410,7 +3413,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D53" t="s">
         <v>317</v>
       </c>
@@ -3421,12 +3424,12 @@
         <v>662</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>38</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D56" t="s">
         <v>317</v>
       </c>
@@ -3445,12 +3448,12 @@
         <v>663</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>38</v>
       </c>
@@ -3458,7 +3461,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D59" t="s">
         <v>317</v>
       </c>
@@ -3469,12 +3472,12 @@
         <v>664</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>38</v>
       </c>
@@ -3482,7 +3485,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D62" t="s">
         <v>317</v>
       </c>
@@ -3493,12 +3496,12 @@
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>38</v>
       </c>
@@ -3506,7 +3509,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D65" t="s">
         <v>317</v>
       </c>
@@ -3517,12 +3520,12 @@
         <v>666</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>38</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D68" t="s">
         <v>317</v>
       </c>
@@ -3541,17 +3544,17 @@
         <v>659</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>682</v>
       </c>
@@ -3559,7 +3562,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D72" t="s">
         <v>40</v>
       </c>
@@ -3570,7 +3573,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D73" t="s">
         <v>37</v>
       </c>
@@ -3581,15 +3584,15 @@
         <v>682</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D75" t="s">
         <v>317</v>
       </c>
@@ -3607,12 +3610,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>38</v>
       </c>
@@ -3620,7 +3623,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D78" t="s">
         <v>30</v>
       </c>
@@ -3634,27 +3637,27 @@
         <v>695</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I110" s="10"/>
     </row>
   </sheetData>
@@ -3673,25 +3676,25 @@
       <selection pane="bottomLeft" activeCell="C461" sqref="C461"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -3738,26 +3741,26 @@
         <v>672</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>40</v>
       </c>
@@ -3776,7 +3779,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>37</v>
       </c>
@@ -3799,7 +3802,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -3807,7 +3810,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>40</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>37</v>
       </c>
@@ -3838,7 +3841,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>37</v>
       </c>
@@ -3858,7 +3861,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>37</v>
       </c>
@@ -3878,7 +3881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>37</v>
       </c>
@@ -3898,7 +3901,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>37</v>
       </c>
@@ -3918,17 +3921,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>40</v>
       </c>
@@ -3947,7 +3950,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>37</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -3972,7 +3975,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>40</v>
       </c>
@@ -3983,7 +3986,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>37</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>37</v>
       </c>
@@ -4023,7 +4026,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>37</v>
       </c>
@@ -4043,7 +4046,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>37</v>
       </c>
@@ -4063,7 +4066,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>37</v>
       </c>
@@ -4083,17 +4086,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>133</v>
       </c>
@@ -4101,7 +4104,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
         <v>40</v>
       </c>
@@ -4112,7 +4115,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>37</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>38</v>
       </c>
@@ -4137,7 +4140,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>40</v>
       </c>
@@ -4148,7 +4151,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>37</v>
       </c>
@@ -4168,7 +4171,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>37</v>
       </c>
@@ -4188,7 +4191,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>37</v>
       </c>
@@ -4208,7 +4211,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>37</v>
       </c>
@@ -4228,7 +4231,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
         <v>37</v>
       </c>
@@ -4248,17 +4251,17 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
         <v>40</v>
       </c>
@@ -4277,7 +4280,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
         <v>37</v>
       </c>
@@ -4300,7 +4303,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>38</v>
       </c>
@@ -4308,7 +4311,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
         <v>40</v>
       </c>
@@ -4319,7 +4322,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>37</v>
       </c>
@@ -4339,7 +4342,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
         <v>37</v>
       </c>
@@ -4359,7 +4362,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D48" t="s">
         <v>37</v>
       </c>
@@ -4379,7 +4382,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D49" t="s">
         <v>37</v>
       </c>
@@ -4399,7 +4402,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
         <v>37</v>
       </c>
@@ -4419,17 +4422,17 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D54" t="s">
         <v>40</v>
       </c>
@@ -4448,7 +4451,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D55" t="s">
         <v>37</v>
       </c>
@@ -4465,7 +4468,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>38</v>
       </c>
@@ -4473,7 +4476,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
         <v>40</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D58" t="s">
         <v>37</v>
       </c>
@@ -4504,7 +4507,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D59" t="s">
         <v>37</v>
       </c>
@@ -4524,7 +4527,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D60" t="s">
         <v>37</v>
       </c>
@@ -4544,7 +4547,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D61" t="s">
         <v>37</v>
       </c>
@@ -4564,7 +4567,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D62" t="s">
         <v>37</v>
       </c>
@@ -4584,17 +4587,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>178</v>
       </c>
@@ -4602,7 +4605,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D66" t="s">
         <v>40</v>
       </c>
@@ -4613,7 +4616,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D67" t="s">
         <v>37</v>
       </c>
@@ -4630,7 +4633,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>38</v>
       </c>
@@ -4638,7 +4641,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D69" t="s">
         <v>40</v>
       </c>
@@ -4649,7 +4652,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D70" t="s">
         <v>37</v>
       </c>
@@ -4669,7 +4672,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D71" t="s">
         <v>37</v>
       </c>
@@ -4689,7 +4692,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D72" t="s">
         <v>37</v>
       </c>
@@ -4709,7 +4712,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D73" t="s">
         <v>37</v>
       </c>
@@ -4729,7 +4732,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D74" t="s">
         <v>37</v>
       </c>
@@ -4749,17 +4752,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>193</v>
       </c>
@@ -4767,7 +4770,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D78" t="s">
         <v>40</v>
       </c>
@@ -4778,7 +4781,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D79" t="s">
         <v>37</v>
       </c>
@@ -4801,7 +4804,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>38</v>
       </c>
@@ -4809,7 +4812,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D81" t="s">
         <v>40</v>
       </c>
@@ -4820,7 +4823,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D82" t="s">
         <v>37</v>
       </c>
@@ -4840,7 +4843,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D83" t="s">
         <v>37</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D84" t="s">
         <v>37</v>
       </c>
@@ -4880,7 +4883,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D85" t="s">
         <v>37</v>
       </c>
@@ -4900,7 +4903,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D86" t="s">
         <v>37</v>
       </c>
@@ -4920,17 +4923,17 @@
         <v>192</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>208</v>
       </c>
@@ -4938,7 +4941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D90" t="s">
         <v>40</v>
       </c>
@@ -4949,7 +4952,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D91" t="s">
         <v>37</v>
       </c>
@@ -4972,7 +4975,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>38</v>
       </c>
@@ -4980,7 +4983,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D93" t="s">
         <v>40</v>
       </c>
@@ -4991,7 +4994,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D94" t="s">
         <v>37</v>
       </c>
@@ -5011,7 +5014,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D95" t="s">
         <v>37</v>
       </c>
@@ -5031,7 +5034,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D96" t="s">
         <v>37</v>
       </c>
@@ -5051,7 +5054,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D97" t="s">
         <v>37</v>
       </c>
@@ -5071,7 +5074,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D98" t="s">
         <v>37</v>
       </c>
@@ -5091,17 +5094,17 @@
         <v>207</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>228</v>
       </c>
@@ -5109,7 +5112,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D102" t="s">
         <v>40</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D103" t="s">
         <v>37</v>
       </c>
@@ -5137,7 +5140,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>38</v>
       </c>
@@ -5145,7 +5148,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D105" t="s">
         <v>40</v>
       </c>
@@ -5156,7 +5159,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D106" t="s">
         <v>37</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D107" t="s">
         <v>37</v>
       </c>
@@ -5196,7 +5199,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D108" t="s">
         <v>37</v>
       </c>
@@ -5216,7 +5219,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D109" t="s">
         <v>37</v>
       </c>
@@ -5236,7 +5239,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D110" t="s">
         <v>37</v>
       </c>
@@ -5256,17 +5259,17 @@
         <v>222</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>242</v>
       </c>
@@ -5274,7 +5277,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D114" t="s">
         <v>40</v>
       </c>
@@ -5285,7 +5288,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D115" t="s">
         <v>37</v>
       </c>
@@ -5302,7 +5305,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>38</v>
       </c>
@@ -5310,7 +5313,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D117" t="s">
         <v>40</v>
       </c>
@@ -5321,7 +5324,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D118" t="s">
         <v>37</v>
       </c>
@@ -5341,7 +5344,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D119" t="s">
         <v>37</v>
       </c>
@@ -5361,7 +5364,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D120" t="s">
         <v>37</v>
       </c>
@@ -5381,7 +5384,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D121" t="s">
         <v>37</v>
       </c>
@@ -5401,7 +5404,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D122" t="s">
         <v>37</v>
       </c>
@@ -5421,17 +5424,17 @@
         <v>241</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>259</v>
       </c>
@@ -5439,7 +5442,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D126" t="s">
         <v>40</v>
       </c>
@@ -5450,7 +5453,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D127" t="s">
         <v>37</v>
       </c>
@@ -5467,7 +5470,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>38</v>
       </c>
@@ -5475,7 +5478,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D129" t="s">
         <v>40</v>
       </c>
@@ -5486,7 +5489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D130" t="s">
         <v>37</v>
       </c>
@@ -5506,7 +5509,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D131" t="s">
         <v>37</v>
       </c>
@@ -5526,7 +5529,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D132" t="s">
         <v>37</v>
       </c>
@@ -5546,7 +5549,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D133" t="s">
         <v>37</v>
       </c>
@@ -5566,7 +5569,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D134" t="s">
         <v>37</v>
       </c>
@@ -5586,17 +5589,17 @@
         <v>256</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -5604,7 +5607,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D138" t="s">
         <v>40</v>
       </c>
@@ -5615,7 +5618,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D139" t="s">
         <v>37</v>
       </c>
@@ -5629,10 +5632,10 @@
         <v>273</v>
       </c>
       <c r="H139" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>38</v>
       </c>
@@ -5640,7 +5643,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D141" t="s">
         <v>40</v>
       </c>
@@ -5651,7 +5654,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D142" t="s">
         <v>37</v>
       </c>
@@ -5671,7 +5674,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D143" t="s">
         <v>37</v>
       </c>
@@ -5691,7 +5694,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D144" t="s">
         <v>37</v>
       </c>
@@ -5711,7 +5714,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D145" t="s">
         <v>37</v>
       </c>
@@ -5731,7 +5734,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D146" t="s">
         <v>37</v>
       </c>
@@ -5751,17 +5754,17 @@
         <v>271</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>277</v>
       </c>
@@ -5769,7 +5772,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D150" t="s">
         <v>40</v>
       </c>
@@ -5780,7 +5783,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D151" t="s">
         <v>37</v>
       </c>
@@ -5797,7 +5800,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>38</v>
       </c>
@@ -5805,7 +5808,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D153" t="s">
         <v>278</v>
       </c>
@@ -5822,7 +5825,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D154" t="s">
         <v>40</v>
       </c>
@@ -5833,7 +5836,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D155" t="s">
         <v>37</v>
       </c>
@@ -5853,7 +5856,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D156" t="s">
         <v>37</v>
       </c>
@@ -5873,7 +5876,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D157" t="s">
         <v>37</v>
       </c>
@@ -5893,7 +5896,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D158" t="s">
         <v>37</v>
       </c>
@@ -5913,7 +5916,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D159" t="s">
         <v>37</v>
       </c>
@@ -5933,17 +5936,17 @@
         <v>291</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>38</v>
       </c>
@@ -5951,7 +5954,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>292</v>
       </c>
@@ -5959,7 +5962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D164" t="s">
         <v>40</v>
       </c>
@@ -5970,7 +5973,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D165" t="s">
         <v>37</v>
       </c>
@@ -5987,7 +5990,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>38</v>
       </c>
@@ -5995,7 +5998,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D167" t="s">
         <v>278</v>
       </c>
@@ -6012,7 +6015,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D168" t="s">
         <v>40</v>
       </c>
@@ -6023,7 +6026,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D169" t="s">
         <v>37</v>
       </c>
@@ -6043,7 +6046,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D170" t="s">
         <v>37</v>
       </c>
@@ -6063,7 +6066,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D171" t="s">
         <v>37</v>
       </c>
@@ -6083,7 +6086,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D172" t="s">
         <v>37</v>
       </c>
@@ -6103,7 +6106,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D173" t="s">
         <v>37</v>
       </c>
@@ -6123,22 +6126,22 @@
         <v>305</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>308</v>
       </c>
@@ -6146,7 +6149,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D178" t="s">
         <v>40</v>
       </c>
@@ -6157,7 +6160,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D179" t="s">
         <v>37</v>
       </c>
@@ -6174,12 +6177,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>312</v>
       </c>
@@ -6187,7 +6190,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D182" t="s">
         <v>40</v>
       </c>
@@ -6198,7 +6201,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D183" t="s">
         <v>37</v>
       </c>
@@ -6215,7 +6218,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>38</v>
       </c>
@@ -6223,7 +6226,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D185" t="s">
         <v>37</v>
       </c>
@@ -6240,17 +6243,17 @@
         <v>411</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>425</v>
       </c>
@@ -6261,12 +6264,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D190" t="s">
         <v>40</v>
       </c>
@@ -6277,7 +6280,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D191" t="s">
         <v>40</v>
       </c>
@@ -6288,7 +6291,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D192" t="s">
         <v>30</v>
       </c>
@@ -6302,7 +6305,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D193" t="s">
         <v>316</v>
       </c>
@@ -6313,7 +6316,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>38</v>
       </c>
@@ -6321,7 +6324,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D195" t="s">
         <v>317</v>
       </c>
@@ -6332,7 +6335,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D196" t="s">
         <v>318</v>
       </c>
@@ -6346,12 +6349,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D198" t="s">
         <v>278</v>
       </c>
@@ -6365,7 +6368,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D199" t="s">
         <v>37</v>
       </c>
@@ -6382,7 +6385,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>319</v>
       </c>
@@ -6390,7 +6393,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D201" t="s">
         <v>278</v>
       </c>
@@ -6404,22 +6407,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D205" t="s">
         <v>40</v>
       </c>
@@ -6430,7 +6433,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D206" t="s">
         <v>40</v>
       </c>
@@ -6441,7 +6444,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D207" t="s">
         <v>62</v>
       </c>
@@ -6458,17 +6461,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>426</v>
       </c>
@@ -6479,12 +6482,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D212" t="s">
         <v>40</v>
       </c>
@@ -6495,7 +6498,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D213" t="s">
         <v>40</v>
       </c>
@@ -6506,7 +6509,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D214" t="s">
         <v>30</v>
       </c>
@@ -6520,7 +6523,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D215" t="s">
         <v>316</v>
       </c>
@@ -6531,7 +6534,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>38</v>
       </c>
@@ -6539,7 +6542,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D217" t="s">
         <v>317</v>
       </c>
@@ -6550,7 +6553,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D218" t="s">
         <v>318</v>
       </c>
@@ -6564,12 +6567,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B219" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D220" t="s">
         <v>278</v>
       </c>
@@ -6583,7 +6586,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D221" t="s">
         <v>37</v>
       </c>
@@ -6600,7 +6603,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B222" t="s">
         <v>319</v>
       </c>
@@ -6608,7 +6611,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D223" t="s">
         <v>278</v>
       </c>
@@ -6622,22 +6625,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D227" t="s">
         <v>40</v>
       </c>
@@ -6648,7 +6651,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D228" t="s">
         <v>40</v>
       </c>
@@ -6659,7 +6662,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D229" t="s">
         <v>62</v>
       </c>
@@ -6676,17 +6679,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B230" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B231" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>431</v>
       </c>
@@ -6697,12 +6700,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B233" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D234" t="s">
         <v>40</v>
       </c>
@@ -6713,7 +6716,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D235" t="s">
         <v>40</v>
       </c>
@@ -6724,7 +6727,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D236" t="s">
         <v>30</v>
       </c>
@@ -6738,7 +6741,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D237" t="s">
         <v>316</v>
       </c>
@@ -6749,7 +6752,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B238" t="s">
         <v>38</v>
       </c>
@@ -6757,7 +6760,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D239" t="s">
         <v>317</v>
       </c>
@@ -6768,7 +6771,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D240" t="s">
         <v>318</v>
       </c>
@@ -6782,12 +6785,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D242" t="s">
         <v>278</v>
       </c>
@@ -6801,7 +6804,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D243" t="s">
         <v>37</v>
       </c>
@@ -6818,7 +6821,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B244" t="s">
         <v>319</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D245" t="s">
         <v>278</v>
       </c>
@@ -6840,22 +6843,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B246" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B247" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B248" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D249" t="s">
         <v>40</v>
       </c>
@@ -6866,7 +6869,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D250" t="s">
         <v>40</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D251" t="s">
         <v>62</v>
       </c>
@@ -6894,17 +6897,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B252" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>445</v>
       </c>
@@ -6915,12 +6918,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B255" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D256" t="s">
         <v>40</v>
       </c>
@@ -6931,7 +6934,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D257" t="s">
         <v>40</v>
       </c>
@@ -6942,7 +6945,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D258" t="s">
         <v>30</v>
       </c>
@@ -6956,7 +6959,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D259" t="s">
         <v>316</v>
       </c>
@@ -6967,7 +6970,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B260" t="s">
         <v>38</v>
       </c>
@@ -6975,7 +6978,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D261" t="s">
         <v>317</v>
       </c>
@@ -6986,7 +6989,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D262" t="s">
         <v>318</v>
       </c>
@@ -7000,12 +7003,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B263" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D264" t="s">
         <v>278</v>
       </c>
@@ -7019,7 +7022,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D265" t="s">
         <v>37</v>
       </c>
@@ -7036,7 +7039,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B266" t="s">
         <v>319</v>
       </c>
@@ -7044,7 +7047,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D267" t="s">
         <v>278</v>
       </c>
@@ -7058,22 +7061,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B269" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B270" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D271" t="s">
         <v>40</v>
       </c>
@@ -7084,7 +7087,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D272" t="s">
         <v>40</v>
       </c>
@@ -7095,7 +7098,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D273" t="s">
         <v>62</v>
       </c>
@@ -7112,17 +7115,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B274" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B275" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>465</v>
       </c>
@@ -7133,12 +7136,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B277" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D278" t="s">
         <v>40</v>
       </c>
@@ -7149,7 +7152,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D279" t="s">
         <v>40</v>
       </c>
@@ -7160,7 +7163,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D280" t="s">
         <v>30</v>
       </c>
@@ -7174,7 +7177,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D281" t="s">
         <v>316</v>
       </c>
@@ -7185,7 +7188,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B282" t="s">
         <v>38</v>
       </c>
@@ -7193,7 +7196,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D283" t="s">
         <v>317</v>
       </c>
@@ -7204,7 +7207,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D284" t="s">
         <v>318</v>
       </c>
@@ -7218,12 +7221,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B285" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D286" t="s">
         <v>278</v>
       </c>
@@ -7237,7 +7240,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D287" t="s">
         <v>37</v>
       </c>
@@ -7254,7 +7257,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B288" t="s">
         <v>319</v>
       </c>
@@ -7262,7 +7265,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D289" t="s">
         <v>278</v>
       </c>
@@ -7276,22 +7279,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B290" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B291" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B292" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D293" t="s">
         <v>40</v>
       </c>
@@ -7302,7 +7305,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D294" t="s">
         <v>40</v>
       </c>
@@ -7313,7 +7316,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D295" t="s">
         <v>62</v>
       </c>
@@ -7330,17 +7333,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B296" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B297" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>320</v>
       </c>
@@ -7348,7 +7351,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D299" t="s">
         <v>40</v>
       </c>
@@ -7359,7 +7362,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D300" t="s">
         <v>37</v>
       </c>
@@ -7376,7 +7379,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B301" t="s">
         <v>38</v>
       </c>
@@ -7384,7 +7387,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D302" t="s">
         <v>37</v>
       </c>
@@ -7401,17 +7404,17 @@
         <v>474</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B303" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B304" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>518</v>
       </c>
@@ -7422,12 +7425,12 @@
         <v>475</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B306" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D307" t="s">
         <v>40</v>
       </c>
@@ -7438,7 +7441,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D308" t="s">
         <v>40</v>
       </c>
@@ -7449,7 +7452,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D309" t="s">
         <v>30</v>
       </c>
@@ -7463,7 +7466,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D310" t="s">
         <v>316</v>
       </c>
@@ -7474,7 +7477,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B311" t="s">
         <v>38</v>
       </c>
@@ -7482,7 +7485,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D312" t="s">
         <v>317</v>
       </c>
@@ -7493,7 +7496,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D313" t="s">
         <v>318</v>
       </c>
@@ -7507,12 +7510,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B314" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D315" t="s">
         <v>37</v>
       </c>
@@ -7520,53 +7523,53 @@
         <v>69</v>
       </c>
       <c r="F315" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G315" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H315" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B316" t="s">
         <v>38</v>
       </c>
       <c r="C316" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D317" t="s">
         <v>318</v>
       </c>
       <c r="F317" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G317" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H317" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B318" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B319" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B320" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D321" t="s">
         <v>40</v>
       </c>
@@ -7577,7 +7580,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D322" t="s">
         <v>40</v>
       </c>
@@ -7588,7 +7591,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D323" t="s">
         <v>278</v>
       </c>
@@ -7602,7 +7605,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D324" t="s">
         <v>37</v>
       </c>
@@ -7619,7 +7622,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B325" t="s">
         <v>319</v>
       </c>
@@ -7627,7 +7630,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D326" t="s">
         <v>278</v>
       </c>
@@ -7641,22 +7644,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B327" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B328" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B329" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D330" t="s">
         <v>40</v>
       </c>
@@ -7667,7 +7670,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D331" t="s">
         <v>40</v>
       </c>
@@ -7678,7 +7681,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D332" t="s">
         <v>62</v>
       </c>
@@ -7695,17 +7698,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B333" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B334" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>515</v>
       </c>
@@ -7716,12 +7719,12 @@
         <v>483</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B336" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="337" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D337" t="s">
         <v>40</v>
       </c>
@@ -7732,7 +7735,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="338" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D338" t="s">
         <v>40</v>
       </c>
@@ -7743,7 +7746,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="339" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D339" t="s">
         <v>30</v>
       </c>
@@ -7757,7 +7760,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="340" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D340" t="s">
         <v>316</v>
       </c>
@@ -7768,7 +7771,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="341" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B341" t="s">
         <v>38</v>
       </c>
@@ -7776,7 +7779,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="342" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D342" t="s">
         <v>317</v>
       </c>
@@ -7787,7 +7790,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="343" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D343" t="s">
         <v>318</v>
       </c>
@@ -7801,12 +7804,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B344" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="345" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D345" t="s">
         <v>37</v>
       </c>
@@ -7814,53 +7817,53 @@
         <v>69</v>
       </c>
       <c r="F345" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G345" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H345" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="346" spans="2:9" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="346" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B346" t="s">
         <v>38</v>
       </c>
       <c r="C346" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="347" spans="2:9" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="347" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D347" t="s">
         <v>318</v>
       </c>
       <c r="F347" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G347" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H347" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="348" spans="2:9" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="348" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B348" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="349" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B349" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="350" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B350" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="351" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D351" t="s">
         <v>40</v>
       </c>
@@ -7871,7 +7874,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="352" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D352" t="s">
         <v>40</v>
       </c>
@@ -7882,7 +7885,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D353" t="s">
         <v>278</v>
       </c>
@@ -7896,7 +7899,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D354" t="s">
         <v>37</v>
       </c>
@@ -7913,7 +7916,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B355" t="s">
         <v>319</v>
       </c>
@@ -7921,7 +7924,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D356" t="s">
         <v>278</v>
       </c>
@@ -7935,22 +7938,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B357" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B358" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B359" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D360" t="s">
         <v>40</v>
       </c>
@@ -7961,7 +7964,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D361" t="s">
         <v>40</v>
       </c>
@@ -7972,7 +7975,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D362" t="s">
         <v>62</v>
       </c>
@@ -7989,17 +7992,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B363" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B364" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>519</v>
       </c>
@@ -8010,12 +8013,12 @@
         <v>491</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B366" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D367" t="s">
         <v>40</v>
       </c>
@@ -8026,7 +8029,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D368" t="s">
         <v>40</v>
       </c>
@@ -8037,7 +8040,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="369" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D369" t="s">
         <v>30</v>
       </c>
@@ -8051,7 +8054,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="370" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D370" t="s">
         <v>316</v>
       </c>
@@ -8062,7 +8065,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="371" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B371" t="s">
         <v>38</v>
       </c>
@@ -8070,7 +8073,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="372" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D372" t="s">
         <v>317</v>
       </c>
@@ -8081,7 +8084,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="373" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D373" t="s">
         <v>318</v>
       </c>
@@ -8095,12 +8098,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="374" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B374" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="375" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D375" t="s">
         <v>37</v>
       </c>
@@ -8108,53 +8111,53 @@
         <v>69</v>
       </c>
       <c r="F375" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G375" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H375" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="376" spans="2:9" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="376" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B376" t="s">
         <v>38</v>
       </c>
       <c r="C376" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="377" spans="2:9" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="377" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D377" t="s">
         <v>318</v>
       </c>
       <c r="F377" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G377" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H377" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="378" spans="2:9" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="378" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B378" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="379" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B379" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="380" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B380" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="381" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D381" t="s">
         <v>40</v>
       </c>
@@ -8165,7 +8168,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="382" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D382" t="s">
         <v>40</v>
       </c>
@@ -8176,7 +8179,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="383" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D383" t="s">
         <v>278</v>
       </c>
@@ -8190,7 +8193,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="384" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D384" t="s">
         <v>37</v>
       </c>
@@ -8207,7 +8210,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B385" t="s">
         <v>319</v>
       </c>
@@ -8215,7 +8218,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D386" t="s">
         <v>278</v>
       </c>
@@ -8229,22 +8232,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B387" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B388" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B389" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D390" t="s">
         <v>40</v>
       </c>
@@ -8255,7 +8258,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D391" t="s">
         <v>40</v>
       </c>
@@ -8266,7 +8269,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D392" t="s">
         <v>62</v>
       </c>
@@ -8283,17 +8286,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B393" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B394" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>516</v>
       </c>
@@ -8304,12 +8307,12 @@
         <v>499</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B396" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D397" t="s">
         <v>40</v>
       </c>
@@ -8320,7 +8323,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D398" t="s">
         <v>40</v>
       </c>
@@ -8331,7 +8334,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D399" t="s">
         <v>30</v>
       </c>
@@ -8345,7 +8348,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D400" t="s">
         <v>316</v>
       </c>
@@ -8356,7 +8359,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="401" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B401" t="s">
         <v>38</v>
       </c>
@@ -8364,7 +8367,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="402" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D402" t="s">
         <v>317</v>
       </c>
@@ -8375,7 +8378,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="403" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D403" t="s">
         <v>318</v>
       </c>
@@ -8389,12 +8392,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="404" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B404" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="405" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D405" t="s">
         <v>37</v>
       </c>
@@ -8402,53 +8405,53 @@
         <v>69</v>
       </c>
       <c r="F405" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G405" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H405" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="406" spans="2:9" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="406" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B406" t="s">
         <v>38</v>
       </c>
       <c r="C406" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="407" spans="2:9" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="407" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D407" t="s">
         <v>318</v>
       </c>
       <c r="F407" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G407" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H407" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="408" spans="2:9" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="408" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B408" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="409" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B409" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="410" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B410" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="411" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D411" t="s">
         <v>40</v>
       </c>
@@ -8459,7 +8462,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="412" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D412" t="s">
         <v>40</v>
       </c>
@@ -8470,7 +8473,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="413" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D413" t="s">
         <v>278</v>
       </c>
@@ -8484,7 +8487,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="414" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D414" t="s">
         <v>37</v>
       </c>
@@ -8501,7 +8504,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="415" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B415" t="s">
         <v>319</v>
       </c>
@@ -8509,7 +8512,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="416" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D416" t="s">
         <v>278</v>
       </c>
@@ -8523,22 +8526,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B417" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B418" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B419" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D420" t="s">
         <v>40</v>
       </c>
@@ -8549,7 +8552,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D421" t="s">
         <v>40</v>
       </c>
@@ -8560,7 +8563,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D422" t="s">
         <v>62</v>
       </c>
@@ -8577,17 +8580,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B423" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B424" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>517</v>
       </c>
@@ -8598,12 +8601,12 @@
         <v>507</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B426" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D427" t="s">
         <v>40</v>
       </c>
@@ -8614,7 +8617,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D428" t="s">
         <v>40</v>
       </c>
@@ -8625,7 +8628,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D429" t="s">
         <v>30</v>
       </c>
@@ -8639,7 +8642,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D430" t="s">
         <v>316</v>
       </c>
@@ -8650,7 +8653,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B431" t="s">
         <v>38</v>
       </c>
@@ -8658,7 +8661,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D432" t="s">
         <v>317</v>
       </c>
@@ -8669,7 +8672,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="433" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D433" t="s">
         <v>318</v>
       </c>
@@ -8683,12 +8686,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="434" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B434" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="435" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D435" t="s">
         <v>37</v>
       </c>
@@ -8696,53 +8699,53 @@
         <v>69</v>
       </c>
       <c r="F435" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G435" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H435" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="436" spans="2:8" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="436" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B436" t="s">
         <v>38</v>
       </c>
       <c r="C436" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="437" spans="2:8" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="437" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D437" t="s">
         <v>318</v>
       </c>
       <c r="F437" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G437" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H437" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="438" spans="2:8" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="438" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B438" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="439" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B439" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="440" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B440" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="441" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D441" t="s">
         <v>40</v>
       </c>
@@ -8753,7 +8756,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="442" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D442" t="s">
         <v>40</v>
       </c>
@@ -8764,7 +8767,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="443" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D443" t="s">
         <v>278</v>
       </c>
@@ -8778,7 +8781,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="444" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D444" t="s">
         <v>37</v>
       </c>
@@ -8795,7 +8798,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="445" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B445" t="s">
         <v>319</v>
       </c>
@@ -8803,7 +8806,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="446" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D446" t="s">
         <v>278</v>
       </c>
@@ -8817,22 +8820,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="447" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B447" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="448" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B448" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B449" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D450" t="s">
         <v>40</v>
       </c>
@@ -8843,7 +8846,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D451" t="s">
         <v>40</v>
       </c>
@@ -8854,7 +8857,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D452" t="s">
         <v>62</v>
       </c>
@@ -8871,17 +8874,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B453" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B454" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>323</v>
       </c>
@@ -8889,7 +8892,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D456" t="s">
         <v>40</v>
       </c>
@@ -8900,7 +8903,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D457" t="s">
         <v>37</v>
       </c>
@@ -8917,7 +8920,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B458" t="s">
         <v>38</v>
       </c>
@@ -8925,7 +8928,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D459" t="s">
         <v>278</v>
       </c>
@@ -8939,17 +8942,17 @@
         <v>362</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B460" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B461" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>327</v>
       </c>
@@ -8957,7 +8960,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D463" t="s">
         <v>40</v>
       </c>
@@ -8968,7 +8971,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D464" t="s">
         <v>37</v>
       </c>
@@ -8985,7 +8988,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D465" t="s">
         <v>37</v>
       </c>
@@ -9002,7 +9005,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B466" t="s">
         <v>38</v>
       </c>
@@ -9010,7 +9013,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D467" t="s">
         <v>37</v>
       </c>
@@ -9027,15 +9030,15 @@
         <v>368</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B468" t="s">
         <v>38</v>
       </c>
       <c r="C468" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="469" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D469" t="s">
         <v>278</v>
       </c>
@@ -9049,12 +9052,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B470" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D471" t="s">
         <v>37</v>
       </c>
@@ -9071,17 +9074,17 @@
         <v>372</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B472" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B473" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>678</v>
       </c>
@@ -9089,7 +9092,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D475" t="s">
         <v>40</v>
       </c>
@@ -9100,7 +9103,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D476" t="s">
         <v>278</v>
       </c>
@@ -9117,7 +9120,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D477" t="s">
         <v>278</v>
       </c>
@@ -9134,20 +9137,20 @@
         <v>673</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B478" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B479" t="s">
         <v>38</v>
       </c>
       <c r="C479" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="480" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>671</v>
       </c>
@@ -9155,7 +9158,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="481" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D481" t="s">
         <v>40</v>
       </c>
@@ -9166,7 +9169,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="482" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D482" t="s">
         <v>37</v>
       </c>
@@ -9183,12 +9186,12 @@
         <v>681</v>
       </c>
     </row>
-    <row r="483" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B483" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="484" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B484" t="s">
         <v>39</v>
       </c>
@@ -9202,22 +9205,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -9231,1027 +9234,1042 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>701</v>
+        <v>738</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B4" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>702</v>
+        <v>739</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="B5" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B8" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="9" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B9" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="10" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="B9" s="13" t="str">
+      <c r="B10" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B12" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>63</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>70</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B15" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>70</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>70</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B17" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="13" t="str">
+      <c r="B18" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="D18" s="13" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B20" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>684</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B21" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>686</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="22" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B22" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>688</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="23" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B23" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C22" t="s">
-        <v>705</v>
-      </c>
-      <c r="D22" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="C23" t="s">
+        <v>703</v>
+      </c>
+      <c r="D23" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B24" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>690</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>69</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B26" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>69</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B27" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>45</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>69</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B28" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>41</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B30" t="str">
         <f>"D:NS,M:NS,Y:NS"</f>
         <v>D:NS,M:NS,Y:NS</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>50</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>332</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B32" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>334</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>332</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B33" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>335</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>332</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B34" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>336</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>397</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B36" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C36" s="15">
         <v>1</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D36" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>397</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B37" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C37" s="15">
         <v>2</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D37" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>397</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B38" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C38" s="15">
         <v>3</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D38" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>397</v>
       </c>
-      <c r="B38" s="13" t="str">
+      <c r="B39" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C39" s="15">
         <v>4</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D39" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>397</v>
       </c>
-      <c r="B39" s="7" t="str">
+      <c r="B40" s="7" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>399</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>375</v>
       </c>
-      <c r="B41" s="7" t="str">
+      <c r="B42" s="7" t="str">
         <f>"301"</f>
         <v>301</v>
       </c>
-      <c r="C41" t="s">
-        <v>737</v>
-      </c>
-      <c r="D41" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C42" t="s">
+        <v>735</v>
+      </c>
+      <c r="D42" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>375</v>
       </c>
-      <c r="B42" s="14" t="str">
+      <c r="B43" s="14" t="str">
         <f>"304"</f>
         <v>304</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D43" s="14" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>375</v>
       </c>
-      <c r="B43" s="14" t="str">
+      <c r="B44" s="14" t="str">
         <f>"305"</f>
         <v>305</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D44" s="14" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>375</v>
       </c>
-      <c r="B44" s="14" t="str">
+      <c r="B45" s="14" t="str">
         <f>"306"</f>
         <v>306</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D45" s="14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>375</v>
       </c>
-      <c r="B45" s="14" t="str">
+      <c r="B46" s="14" t="str">
         <f>"307"</f>
         <v>307</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D46" s="14" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>375</v>
       </c>
-      <c r="B46" s="14" t="str">
+      <c r="B47" s="14" t="str">
         <f>"308"</f>
         <v>308</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D47" s="14" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>375</v>
       </c>
-      <c r="B47" s="14" t="str">
+      <c r="B48" s="14" t="str">
         <f>"309"</f>
         <v>309</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D48" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>375</v>
       </c>
-      <c r="B48" s="14" t="str">
+      <c r="B49" s="14" t="str">
         <f>"310"</f>
         <v>310</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>739</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C49" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>375</v>
       </c>
-      <c r="B49" s="14" t="str">
+      <c r="B50" s="14" t="str">
         <f>"311"</f>
         <v>311</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D50" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>375</v>
       </c>
-      <c r="B50" s="14" t="str">
+      <c r="B51" s="14" t="str">
         <f>"312"</f>
         <v>312</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D51" s="14" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>375</v>
       </c>
-      <c r="B51" s="14" t="str">
+      <c r="B52" s="14" t="str">
         <f>"313"</f>
         <v>313</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D52" s="14" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>375</v>
       </c>
-      <c r="B52" s="14" t="str">
+      <c r="B53" s="14" t="str">
         <f>"314"</f>
         <v>314</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D53" s="14" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>375</v>
       </c>
-      <c r="B53" s="14" t="str">
+      <c r="B54" s="14" t="str">
         <f>"315"</f>
         <v>315</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D54" s="14" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>375</v>
       </c>
-      <c r="B54" s="14" t="str">
+      <c r="B55" s="14" t="str">
         <f>"316"</f>
         <v>316</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D55" s="14" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>375</v>
       </c>
-      <c r="B55" s="14" t="str">
+      <c r="B56" s="14" t="str">
         <f>"317"</f>
         <v>317</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D56" s="14" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>375</v>
       </c>
-      <c r="B56" s="14" t="str">
+      <c r="B57" s="14" t="str">
         <f>"318"</f>
         <v>318</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D57" s="14" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>375</v>
       </c>
-      <c r="B57" s="14" t="str">
+      <c r="B58" s="14" t="str">
         <f>"319"</f>
         <v>319</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D58" s="14" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>375</v>
       </c>
-      <c r="B58" s="14" t="str">
+      <c r="B59" s="14" t="str">
         <f>"320"</f>
         <v>320</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D59" s="14" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>375</v>
       </c>
-      <c r="B59" s="14" t="str">
+      <c r="B60" s="14" t="str">
         <f>"321"</f>
         <v>321</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D60" s="14" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>375</v>
       </c>
-      <c r="B60" s="14" t="str">
+      <c r="B61" s="14" t="str">
         <f>"322"</f>
         <v>322</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D61" s="14" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>375</v>
       </c>
-      <c r="B61" s="14" t="str">
+      <c r="B62" s="14" t="str">
         <f>"323"</f>
         <v>323</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D62" s="14" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>375</v>
       </c>
-      <c r="B62" s="14" t="str">
+      <c r="B63" s="14" t="str">
         <f>"324"</f>
         <v>324</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D63" s="14" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>375</v>
       </c>
-      <c r="B63" s="14" t="str">
+      <c r="B64" s="14" t="str">
         <f>"325"</f>
         <v>325</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D64" s="14" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="7"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="7"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="7"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B76" s="7"/>
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="7"/>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95" s="7"/>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="7"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="7"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="7"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B99" s="7"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="7"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="7"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="7"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102" s="7"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B120" s="7"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B121" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -10269,13 +10287,13 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
@@ -10283,7 +10301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>595</v>
       </c>
@@ -10291,7 +10309,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>596</v>
       </c>
@@ -10299,7 +10317,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>600</v>
       </c>
@@ -10322,15 +10340,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
@@ -10344,7 +10362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -10373,15 +10391,15 @@
       <selection pane="bottomLeft" activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -10395,7 +10413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>576</v>
       </c>
@@ -10409,7 +10427,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>577</v>
       </c>
@@ -10420,7 +10438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>578</v>
       </c>
@@ -10431,7 +10449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>579</v>
       </c>
@@ -10442,7 +10460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>580</v>
       </c>
@@ -10453,7 +10471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>581</v>
       </c>
@@ -10464,7 +10482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>582</v>
       </c>
@@ -10475,7 +10493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>585</v>
       </c>
@@ -10489,7 +10507,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>586</v>
       </c>
@@ -10503,7 +10521,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>587</v>
       </c>
@@ -10517,7 +10535,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>588</v>
       </c>
@@ -10531,7 +10549,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>589</v>
       </c>
@@ -10545,7 +10563,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>592</v>
       </c>
@@ -10559,7 +10577,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>590</v>
       </c>
@@ -10573,7 +10591,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>670</v>
       </c>
@@ -10587,7 +10605,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>591</v>
       </c>
@@ -10601,7 +10619,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>593</v>
       </c>
@@ -10615,7 +10633,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>642</v>
       </c>
@@ -10629,7 +10647,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>644</v>
       </c>
@@ -10643,9 +10661,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B21" t="s">
         <v>318</v>
@@ -10654,15 +10672,15 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="18"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
@@ -10675,7 +10693,7 @@
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>693</v>
       </c>
@@ -10686,7 +10704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>646</v>
       </c>
@@ -10697,7 +10715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>682</v>
       </c>
@@ -10708,7 +10726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -10719,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -10730,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>557</v>
       </c>
@@ -10741,7 +10759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>570</v>
       </c>
@@ -10752,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>567</v>
       </c>
@@ -10763,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>568</v>
       </c>
@@ -10774,7 +10792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>569</v>
       </c>
@@ -10785,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>564</v>
       </c>
@@ -10796,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>565</v>
       </c>
@@ -10807,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>566</v>
       </c>
@@ -10818,7 +10836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>583</v>
       </c>
@@ -10829,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>571</v>
       </c>
@@ -10840,7 +10858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>584</v>
       </c>
@@ -10851,7 +10869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>572</v>
       </c>
@@ -10862,7 +10880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>667</v>
       </c>
@@ -10873,7 +10891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>679</v>
       </c>
@@ -10887,7 +10905,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -10898,7 +10916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -10909,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -10920,7 +10938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -10931,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -10942,7 +10960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -10953,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -10964,7 +10982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>105</v>
       </c>
@@ -10975,7 +10993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>107</v>
       </c>
@@ -10986,7 +11004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -10997,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -11008,7 +11026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -11019,7 +11037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -11030,7 +11048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -11041,7 +11059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -11052,7 +11070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -11063,7 +11081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -11074,7 +11092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -11085,7 +11103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -11096,7 +11114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -11107,7 +11125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>140</v>
       </c>
@@ -11118,7 +11136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -11129,7 +11147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -11140,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -11151,7 +11169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>151</v>
       </c>
@@ -11162,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>153</v>
       </c>
@@ -11173,7 +11191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>155</v>
       </c>
@@ -11184,7 +11202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>157</v>
       </c>
@@ -11195,7 +11213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>159</v>
       </c>
@@ -11206,7 +11224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>161</v>
       </c>
@@ -11217,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -11228,7 +11246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>168</v>
       </c>
@@ -11239,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>170</v>
       </c>
@@ -11250,7 +11268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>172</v>
       </c>
@@ -11261,7 +11279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>174</v>
       </c>
@@ -11272,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>176</v>
       </c>
@@ -11283,7 +11301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -11294,7 +11312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>183</v>
       </c>
@@ -11305,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>185</v>
       </c>
@@ -11316,7 +11334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>187</v>
       </c>
@@ -11327,7 +11345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>189</v>
       </c>
@@ -11338,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>191</v>
       </c>
@@ -11349,7 +11367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>196</v>
       </c>
@@ -11360,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>198</v>
       </c>
@@ -11371,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>200</v>
       </c>
@@ -11382,7 +11400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>202</v>
       </c>
@@ -11393,7 +11411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>204</v>
       </c>
@@ -11404,7 +11422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>206</v>
       </c>
@@ -11415,7 +11433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>211</v>
       </c>
@@ -11426,7 +11444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>213</v>
       </c>
@@ -11437,7 +11455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>215</v>
       </c>
@@ -11448,7 +11466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>217</v>
       </c>
@@ -11459,7 +11477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>219</v>
       </c>
@@ -11470,7 +11488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>221</v>
       </c>
@@ -11481,7 +11499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>230</v>
       </c>
@@ -11492,7 +11510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>232</v>
       </c>
@@ -11503,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>234</v>
       </c>
@@ -11514,7 +11532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>236</v>
       </c>
@@ -11525,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>238</v>
       </c>
@@ -11536,7 +11554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>240</v>
       </c>
@@ -11547,7 +11565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>245</v>
       </c>
@@ -11558,7 +11576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>247</v>
       </c>
@@ -11569,7 +11587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>249</v>
       </c>
@@ -11580,7 +11598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>251</v>
       </c>
@@ -11591,7 +11609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>253</v>
       </c>
@@ -11602,7 +11620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>255</v>
       </c>
@@ -11613,7 +11631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>260</v>
       </c>
@@ -11624,7 +11642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>262</v>
       </c>
@@ -11635,7 +11653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>264</v>
       </c>
@@ -11646,7 +11664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>266</v>
       </c>
@@ -11657,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>268</v>
       </c>
@@ -11668,7 +11686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>270</v>
       </c>
@@ -11679,7 +11697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>276</v>
       </c>
@@ -11690,7 +11708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>279</v>
       </c>
@@ -11701,7 +11719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>282</v>
       </c>
@@ -11712,7 +11730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>284</v>
       </c>
@@ -11723,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>286</v>
       </c>
@@ -11734,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>288</v>
       </c>
@@ -11745,7 +11763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>290</v>
       </c>
@@ -11756,7 +11774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>294</v>
       </c>
@@ -11767,7 +11785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>295</v>
       </c>
@@ -11778,7 +11796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>296</v>
       </c>
@@ -11789,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>298</v>
       </c>
@@ -11800,7 +11818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>300</v>
       </c>
@@ -11811,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>302</v>
       </c>
@@ -11822,7 +11840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>304</v>
       </c>
@@ -11833,7 +11851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>309</v>
       </c>
@@ -11844,7 +11862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>314</v>
       </c>
@@ -11855,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>400</v>
       </c>
@@ -11866,7 +11884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>402</v>
       </c>
@@ -11877,7 +11895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>408</v>
       </c>
@@ -11888,7 +11906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>403</v>
       </c>
@@ -11899,7 +11917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>405</v>
       </c>
@@ -11910,7 +11928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>406</v>
       </c>
@@ -11921,7 +11939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>407</v>
       </c>
@@ -11932,7 +11950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>404</v>
       </c>
@@ -11943,7 +11961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>414</v>
       </c>
@@ -11954,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>423</v>
       </c>
@@ -11965,7 +11983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>415</v>
       </c>
@@ -11976,7 +11994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>416</v>
       </c>
@@ -11987,7 +12005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>417</v>
       </c>
@@ -11998,7 +12016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>419</v>
       </c>
@@ -12009,7 +12027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>420</v>
       </c>
@@ -12020,7 +12038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>434</v>
       </c>
@@ -12031,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>435</v>
       </c>
@@ -12042,7 +12060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>436</v>
       </c>
@@ -12053,7 +12071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>438</v>
       </c>
@@ -12064,7 +12082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>439</v>
       </c>
@@ -12075,7 +12093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>440</v>
       </c>
@@ -12086,7 +12104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>442</v>
       </c>
@@ -12097,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>446</v>
       </c>
@@ -12108,7 +12126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>455</v>
       </c>
@@ -12119,7 +12137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>447</v>
       </c>
@@ -12130,7 +12148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>448</v>
       </c>
@@ -12141,7 +12159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>449</v>
       </c>
@@ -12152,7 +12170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>451</v>
       </c>
@@ -12163,7 +12181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>452</v>
       </c>
@@ -12174,7 +12192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>458</v>
       </c>
@@ -12185,7 +12203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>467</v>
       </c>
@@ -12196,7 +12214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>459</v>
       </c>
@@ -12207,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>460</v>
       </c>
@@ -12218,7 +12236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>461</v>
       </c>
@@ -12230,7 +12248,7 @@
       </c>
       <c r="J165" s="11"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>463</v>
       </c>
@@ -12241,7 +12259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>464</v>
       </c>
@@ -12252,7 +12270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>321</v>
       </c>
@@ -12263,7 +12281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>472</v>
       </c>
@@ -12274,7 +12292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>476</v>
       </c>
@@ -12285,7 +12303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>520</v>
       </c>
@@ -12296,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>477</v>
       </c>
@@ -12307,9 +12325,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B173" t="s">
         <v>37</v>
@@ -12318,9 +12336,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B174" t="s">
         <v>318</v>
@@ -12329,7 +12347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>478</v>
       </c>
@@ -12340,7 +12358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>479</v>
       </c>
@@ -12351,7 +12369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>481</v>
       </c>
@@ -12362,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>482</v>
       </c>
@@ -12373,7 +12391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>484</v>
       </c>
@@ -12384,7 +12402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>523</v>
       </c>
@@ -12395,7 +12413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>485</v>
       </c>
@@ -12406,9 +12424,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B182" t="s">
         <v>37</v>
@@ -12417,9 +12435,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B183" t="s">
         <v>318</v>
@@ -12428,7 +12446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>486</v>
       </c>
@@ -12439,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>487</v>
       </c>
@@ -12450,7 +12468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>489</v>
       </c>
@@ -12461,7 +12479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>490</v>
       </c>
@@ -12472,7 +12490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>492</v>
       </c>
@@ -12483,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>526</v>
       </c>
@@ -12494,7 +12512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>493</v>
       </c>
@@ -12505,9 +12523,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B191" t="s">
         <v>37</v>
@@ -12516,9 +12534,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B192" t="s">
         <v>318</v>
@@ -12527,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>494</v>
       </c>
@@ -12538,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>495</v>
       </c>
@@ -12549,7 +12567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>497</v>
       </c>
@@ -12560,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>498</v>
       </c>
@@ -12571,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>500</v>
       </c>
@@ -12582,7 +12600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>529</v>
       </c>
@@ -12593,7 +12611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>501</v>
       </c>
@@ -12604,9 +12622,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B200" t="s">
         <v>37</v>
@@ -12615,9 +12633,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B201" t="s">
         <v>318</v>
@@ -12626,7 +12644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>502</v>
       </c>
@@ -12637,7 +12655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>503</v>
       </c>
@@ -12648,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>505</v>
       </c>
@@ -12659,7 +12677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>506</v>
       </c>
@@ -12670,7 +12688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>508</v>
       </c>
@@ -12681,7 +12699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>532</v>
       </c>
@@ -12692,7 +12710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>509</v>
       </c>
@@ -12703,9 +12721,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B209" t="s">
         <v>37</v>
@@ -12714,9 +12732,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B210" t="s">
         <v>318</v>
@@ -12725,7 +12743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>510</v>
       </c>
@@ -12736,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>511</v>
       </c>
@@ -12747,7 +12765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>513</v>
       </c>
@@ -12758,7 +12776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>514</v>
       </c>
@@ -12769,7 +12787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>324</v>
       </c>
@@ -12780,7 +12798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>326</v>
       </c>
@@ -12791,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>327</v>
       </c>
@@ -12802,7 +12820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>328</v>
       </c>
@@ -12813,7 +12831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>330</v>
       </c>
@@ -12824,7 +12842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>331</v>
       </c>
@@ -12835,7 +12853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>333</v>
       </c>

--- a/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
+++ b/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36407F75-A86D-4897-8C6F-EE0AFB65B3EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBA095D-B8CE-4DC9-98DA-B6512B2B7760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="742">
   <si>
     <t>setting_name</t>
   </si>
@@ -2257,6 +2257,9 @@
   </si>
   <si>
     <t>Tchico</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -2359,7 +2362,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2387,6 +2390,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2677,16 +2681,16 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2706,7 +2710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2714,7 +2718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2722,7 +2726,7 @@
         <v>60120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2730,7 +2734,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2742,7 +2746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2753,7 +2757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -2764,7 +2768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -2772,7 +2776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2794,29 +2798,29 @@
   <dimension ref="A1:O110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.1796875" customWidth="1"/>
+    <col min="8" max="8" width="53.140625" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="33.453125" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2857,7 +2861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>553</v>
       </c>
@@ -2865,7 +2869,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="11" t="s">
         <v>317</v>
       </c>
@@ -2876,7 +2880,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
@@ -2884,7 +2888,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="11" t="s">
         <v>317</v>
       </c>
@@ -2895,12 +2899,12 @@
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="11" t="s">
         <v>62</v>
       </c>
@@ -2917,7 +2921,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>30</v>
       </c>
@@ -2935,12 +2939,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>52</v>
       </c>
@@ -2951,7 +2955,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>40</v>
       </c>
@@ -2962,7 +2966,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -2970,7 +2974,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>40</v>
       </c>
@@ -2981,12 +2985,12 @@
         <v>639</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>40</v>
       </c>
@@ -2997,12 +3001,12 @@
         <v>641</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>40</v>
       </c>
@@ -3013,7 +3017,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>40</v>
       </c>
@@ -3024,7 +3028,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>40</v>
       </c>
@@ -3035,7 +3039,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>40</v>
       </c>
@@ -3046,7 +3050,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>40</v>
       </c>
@@ -3057,7 +3061,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>40</v>
       </c>
@@ -3068,7 +3072,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>37</v>
       </c>
@@ -3085,7 +3089,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>37</v>
       </c>
@@ -3102,7 +3106,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>37</v>
       </c>
@@ -3119,7 +3123,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>37</v>
       </c>
@@ -3136,7 +3140,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>37</v>
       </c>
@@ -3153,7 +3157,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>37</v>
       </c>
@@ -3170,7 +3174,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>37</v>
       </c>
@@ -3187,7 +3191,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>37</v>
       </c>
@@ -3204,7 +3208,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>37</v>
       </c>
@@ -3221,12 +3225,12 @@
         <v>627</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>678</v>
       </c>
@@ -3234,7 +3238,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>278</v>
       </c>
@@ -3251,7 +3255,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>278</v>
       </c>
@@ -3268,12 +3272,12 @@
         <v>673</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>38</v>
       </c>
@@ -3281,12 +3285,12 @@
         <v>573</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>37</v>
       </c>
@@ -3303,7 +3307,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>38</v>
       </c>
@@ -3311,7 +3315,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>62</v>
       </c>
@@ -3328,12 +3332,12 @@
         <v>604</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>38</v>
       </c>
@@ -3341,7 +3345,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>317</v>
       </c>
@@ -3352,12 +3356,12 @@
         <v>649</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>38</v>
       </c>
@@ -3365,7 +3369,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>317</v>
       </c>
@@ -3376,12 +3380,12 @@
         <v>660</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>38</v>
       </c>
@@ -3389,7 +3393,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>317</v>
       </c>
@@ -3400,12 +3404,12 @@
         <v>661</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>38</v>
       </c>
@@ -3413,7 +3417,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>317</v>
       </c>
@@ -3424,12 +3428,12 @@
         <v>662</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>38</v>
       </c>
@@ -3437,7 +3441,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>317</v>
       </c>
@@ -3448,12 +3452,12 @@
         <v>663</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>38</v>
       </c>
@@ -3461,7 +3465,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>317</v>
       </c>
@@ -3472,12 +3476,12 @@
         <v>664</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>38</v>
       </c>
@@ -3485,7 +3489,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>317</v>
       </c>
@@ -3496,12 +3500,12 @@
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>38</v>
       </c>
@@ -3509,7 +3513,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>317</v>
       </c>
@@ -3520,12 +3524,12 @@
         <v>666</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>38</v>
       </c>
@@ -3533,7 +3537,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>317</v>
       </c>
@@ -3544,17 +3548,17 @@
         <v>659</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>682</v>
       </c>
@@ -3562,7 +3566,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>40</v>
       </c>
@@ -3573,7 +3577,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>37</v>
       </c>
@@ -3584,7 +3588,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>38</v>
       </c>
@@ -3592,7 +3596,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>317</v>
       </c>
@@ -3610,12 +3614,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>38</v>
       </c>
@@ -3623,7 +3627,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>30</v>
       </c>
@@ -3637,27 +3641,27 @@
         <v>695</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I110" s="10"/>
     </row>
   </sheetData>
@@ -3671,30 +3675,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E034F7AB-A88F-4084-9C1D-FD9CFEAF70F4}">
   <dimension ref="A1:O484"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A443" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C461" sqref="C461"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -3741,7 +3745,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -3749,18 +3753,18 @@
         <v>713</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>714</v>
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -3768,7 +3772,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>40</v>
       </c>
@@ -3779,7 +3783,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>37</v>
       </c>
@@ -3802,7 +3806,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -3810,7 +3814,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>40</v>
       </c>
@@ -3821,7 +3825,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>37</v>
       </c>
@@ -3841,7 +3845,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>37</v>
       </c>
@@ -3861,7 +3865,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>37</v>
       </c>
@@ -3881,7 +3885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>37</v>
       </c>
@@ -3901,7 +3905,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>37</v>
       </c>
@@ -3921,17 +3925,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>40</v>
       </c>
@@ -3950,7 +3954,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>37</v>
       </c>
@@ -3967,7 +3971,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -3975,7 +3979,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>40</v>
       </c>
@@ -3986,7 +3990,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>37</v>
       </c>
@@ -4006,7 +4010,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>37</v>
       </c>
@@ -4026,7 +4030,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>37</v>
       </c>
@@ -4046,7 +4050,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>37</v>
       </c>
@@ -4066,7 +4070,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>37</v>
       </c>
@@ -4086,17 +4090,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>133</v>
       </c>
@@ -4104,7 +4108,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>40</v>
       </c>
@@ -4115,7 +4119,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>37</v>
       </c>
@@ -4132,7 +4136,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>38</v>
       </c>
@@ -4140,7 +4144,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>40</v>
       </c>
@@ -4151,7 +4155,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>37</v>
       </c>
@@ -4171,7 +4175,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>37</v>
       </c>
@@ -4191,7 +4195,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>37</v>
       </c>
@@ -4211,7 +4215,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>37</v>
       </c>
@@ -4231,7 +4235,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>37</v>
       </c>
@@ -4251,17 +4255,17 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -4269,7 +4273,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>40</v>
       </c>
@@ -4280,7 +4284,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>37</v>
       </c>
@@ -4303,7 +4307,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>38</v>
       </c>
@@ -4311,7 +4315,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>40</v>
       </c>
@@ -4322,7 +4326,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>37</v>
       </c>
@@ -4342,7 +4346,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>37</v>
       </c>
@@ -4362,7 +4366,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>37</v>
       </c>
@@ -4382,7 +4386,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>37</v>
       </c>
@@ -4402,7 +4406,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>37</v>
       </c>
@@ -4422,17 +4426,17 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -4440,7 +4444,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>40</v>
       </c>
@@ -4451,7 +4455,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>37</v>
       </c>
@@ -4468,7 +4472,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>38</v>
       </c>
@@ -4476,7 +4480,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>40</v>
       </c>
@@ -4487,7 +4491,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>37</v>
       </c>
@@ -4507,7 +4511,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>37</v>
       </c>
@@ -4527,7 +4531,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>37</v>
       </c>
@@ -4547,7 +4551,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>37</v>
       </c>
@@ -4567,7 +4571,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>37</v>
       </c>
@@ -4587,17 +4591,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>178</v>
       </c>
@@ -4605,7 +4609,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>40</v>
       </c>
@@ -4616,7 +4620,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>37</v>
       </c>
@@ -4633,7 +4637,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>38</v>
       </c>
@@ -4641,7 +4645,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>40</v>
       </c>
@@ -4652,7 +4656,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>37</v>
       </c>
@@ -4672,7 +4676,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>37</v>
       </c>
@@ -4692,7 +4696,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>37</v>
       </c>
@@ -4712,7 +4716,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>37</v>
       </c>
@@ -4732,7 +4736,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>37</v>
       </c>
@@ -4752,17 +4756,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>193</v>
       </c>
@@ -4770,7 +4774,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>40</v>
       </c>
@@ -4781,7 +4785,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>37</v>
       </c>
@@ -4804,7 +4808,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>38</v>
       </c>
@@ -4812,7 +4816,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>40</v>
       </c>
@@ -4823,7 +4827,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>37</v>
       </c>
@@ -4843,7 +4847,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>37</v>
       </c>
@@ -4863,7 +4867,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>37</v>
       </c>
@@ -4883,7 +4887,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>37</v>
       </c>
@@ -4903,7 +4907,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>37</v>
       </c>
@@ -4923,17 +4927,17 @@
         <v>192</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>208</v>
       </c>
@@ -4941,7 +4945,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>40</v>
       </c>
@@ -4952,7 +4956,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>37</v>
       </c>
@@ -4975,7 +4979,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>38</v>
       </c>
@@ -4983,7 +4987,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>40</v>
       </c>
@@ -4994,7 +4998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>37</v>
       </c>
@@ -5014,7 +5018,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>37</v>
       </c>
@@ -5034,7 +5038,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>37</v>
       </c>
@@ -5054,7 +5058,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>37</v>
       </c>
@@ -5074,7 +5078,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>37</v>
       </c>
@@ -5094,17 +5098,17 @@
         <v>207</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>228</v>
       </c>
@@ -5112,7 +5116,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>40</v>
       </c>
@@ -5123,7 +5127,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>37</v>
       </c>
@@ -5140,7 +5144,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>38</v>
       </c>
@@ -5148,7 +5152,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>40</v>
       </c>
@@ -5159,7 +5163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>37</v>
       </c>
@@ -5179,7 +5183,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>37</v>
       </c>
@@ -5199,7 +5203,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>37</v>
       </c>
@@ -5219,7 +5223,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
         <v>37</v>
       </c>
@@ -5239,7 +5243,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>37</v>
       </c>
@@ -5259,17 +5263,17 @@
         <v>222</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>242</v>
       </c>
@@ -5277,7 +5281,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
         <v>40</v>
       </c>
@@ -5288,7 +5292,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
         <v>37</v>
       </c>
@@ -5305,7 +5309,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>38</v>
       </c>
@@ -5313,7 +5317,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
         <v>40</v>
       </c>
@@ -5324,7 +5328,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
         <v>37</v>
       </c>
@@ -5344,7 +5348,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
         <v>37</v>
       </c>
@@ -5364,7 +5368,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
         <v>37</v>
       </c>
@@ -5384,7 +5388,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
         <v>37</v>
       </c>
@@ -5404,7 +5408,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
         <v>37</v>
       </c>
@@ -5424,17 +5428,17 @@
         <v>241</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>259</v>
       </c>
@@ -5442,7 +5446,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
         <v>40</v>
       </c>
@@ -5453,7 +5457,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
         <v>37</v>
       </c>
@@ -5470,7 +5474,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>38</v>
       </c>
@@ -5478,7 +5482,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
         <v>40</v>
       </c>
@@ -5489,7 +5493,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
         <v>37</v>
       </c>
@@ -5509,7 +5513,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
         <v>37</v>
       </c>
@@ -5529,7 +5533,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>37</v>
       </c>
@@ -5549,7 +5553,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>37</v>
       </c>
@@ -5569,7 +5573,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
         <v>37</v>
       </c>
@@ -5589,17 +5593,17 @@
         <v>256</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -5607,7 +5611,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
         <v>40</v>
       </c>
@@ -5618,7 +5622,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
         <v>37</v>
       </c>
@@ -5635,7 +5639,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>38</v>
       </c>
@@ -5643,7 +5647,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
         <v>40</v>
       </c>
@@ -5654,7 +5658,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
         <v>37</v>
       </c>
@@ -5674,7 +5678,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
         <v>37</v>
       </c>
@@ -5694,7 +5698,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
         <v>37</v>
       </c>
@@ -5714,7 +5718,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
         <v>37</v>
       </c>
@@ -5734,7 +5738,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
         <v>37</v>
       </c>
@@ -5754,17 +5758,17 @@
         <v>271</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>277</v>
       </c>
@@ -5772,7 +5776,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
         <v>40</v>
       </c>
@@ -5783,7 +5787,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
         <v>37</v>
       </c>
@@ -5800,7 +5804,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>38</v>
       </c>
@@ -5808,7 +5812,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
         <v>278</v>
       </c>
@@ -5825,7 +5829,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
         <v>40</v>
       </c>
@@ -5836,7 +5840,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
         <v>37</v>
       </c>
@@ -5856,7 +5860,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
         <v>37</v>
       </c>
@@ -5876,7 +5880,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
         <v>37</v>
       </c>
@@ -5896,7 +5900,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
         <v>37</v>
       </c>
@@ -5916,7 +5920,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
         <v>37</v>
       </c>
@@ -5936,17 +5940,17 @@
         <v>291</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>38</v>
       </c>
@@ -5954,7 +5958,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>292</v>
       </c>
@@ -5962,7 +5966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
         <v>40</v>
       </c>
@@ -5973,7 +5977,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
         <v>37</v>
       </c>
@@ -5990,7 +5994,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>38</v>
       </c>
@@ -5998,7 +6002,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
         <v>278</v>
       </c>
@@ -6015,7 +6019,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
         <v>40</v>
       </c>
@@ -6026,7 +6030,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
         <v>37</v>
       </c>
@@ -6046,7 +6050,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
         <v>37</v>
       </c>
@@ -6066,7 +6070,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
         <v>37</v>
       </c>
@@ -6086,7 +6090,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
         <v>37</v>
       </c>
@@ -6106,7 +6110,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
         <v>37</v>
       </c>
@@ -6126,22 +6130,22 @@
         <v>305</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>308</v>
       </c>
@@ -6149,7 +6153,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
         <v>40</v>
       </c>
@@ -6160,7 +6164,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
         <v>37</v>
       </c>
@@ -6177,12 +6181,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>312</v>
       </c>
@@ -6190,7 +6194,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
         <v>40</v>
       </c>
@@ -6201,7 +6205,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D183" t="s">
         <v>37</v>
       </c>
@@ -6218,7 +6222,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>38</v>
       </c>
@@ -6226,7 +6230,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D185" t="s">
         <v>37</v>
       </c>
@@ -6243,17 +6247,17 @@
         <v>411</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>425</v>
       </c>
@@ -6264,12 +6268,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
         <v>40</v>
       </c>
@@ -6280,7 +6284,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D191" t="s">
         <v>40</v>
       </c>
@@ -6291,7 +6295,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
         <v>30</v>
       </c>
@@ -6305,7 +6309,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D193" t="s">
         <v>316</v>
       </c>
@@ -6316,7 +6320,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>38</v>
       </c>
@@ -6324,7 +6328,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D195" t="s">
         <v>317</v>
       </c>
@@ -6335,7 +6339,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D196" t="s">
         <v>318</v>
       </c>
@@ -6349,12 +6353,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
         <v>278</v>
       </c>
@@ -6368,7 +6372,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
         <v>37</v>
       </c>
@@ -6385,7 +6389,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>319</v>
       </c>
@@ -6393,7 +6397,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D201" t="s">
         <v>278</v>
       </c>
@@ -6407,22 +6411,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
         <v>40</v>
       </c>
@@ -6433,7 +6437,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
         <v>40</v>
       </c>
@@ -6444,7 +6448,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
         <v>62</v>
       </c>
@@ -6461,17 +6465,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>426</v>
       </c>
@@ -6482,12 +6486,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D212" t="s">
         <v>40</v>
       </c>
@@ -6498,7 +6502,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D213" t="s">
         <v>40</v>
       </c>
@@ -6509,7 +6513,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
         <v>30</v>
       </c>
@@ -6523,7 +6527,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D215" t="s">
         <v>316</v>
       </c>
@@ -6534,7 +6538,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>38</v>
       </c>
@@ -6542,7 +6546,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
         <v>317</v>
       </c>
@@ -6553,7 +6557,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D218" t="s">
         <v>318</v>
       </c>
@@ -6567,12 +6571,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D220" t="s">
         <v>278</v>
       </c>
@@ -6586,7 +6590,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
         <v>37</v>
       </c>
@@ -6603,7 +6607,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>319</v>
       </c>
@@ -6611,7 +6615,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D223" t="s">
         <v>278</v>
       </c>
@@ -6625,22 +6629,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D227" t="s">
         <v>40</v>
       </c>
@@ -6651,7 +6655,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D228" t="s">
         <v>40</v>
       </c>
@@ -6662,7 +6666,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D229" t="s">
         <v>62</v>
       </c>
@@ -6679,17 +6683,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>431</v>
       </c>
@@ -6700,12 +6704,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
         <v>40</v>
       </c>
@@ -6716,7 +6720,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D235" t="s">
         <v>40</v>
       </c>
@@ -6727,7 +6731,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D236" t="s">
         <v>30</v>
       </c>
@@ -6741,7 +6745,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D237" t="s">
         <v>316</v>
       </c>
@@ -6752,7 +6756,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>38</v>
       </c>
@@ -6760,7 +6764,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D239" t="s">
         <v>317</v>
       </c>
@@ -6771,7 +6775,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
         <v>318</v>
       </c>
@@ -6785,12 +6789,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
         <v>278</v>
       </c>
@@ -6804,7 +6808,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
         <v>37</v>
       </c>
@@ -6821,7 +6825,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>319</v>
       </c>
@@ -6829,7 +6833,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
         <v>278</v>
       </c>
@@ -6843,22 +6847,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
         <v>40</v>
       </c>
@@ -6869,7 +6873,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
         <v>40</v>
       </c>
@@ -6880,7 +6884,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
         <v>62</v>
       </c>
@@ -6897,17 +6901,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>445</v>
       </c>
@@ -6918,12 +6922,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
         <v>40</v>
       </c>
@@ -6934,7 +6938,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
         <v>40</v>
       </c>
@@ -6945,7 +6949,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
         <v>30</v>
       </c>
@@ -6959,7 +6963,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
         <v>316</v>
       </c>
@@ -6970,7 +6974,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>38</v>
       </c>
@@ -6978,7 +6982,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
         <v>317</v>
       </c>
@@ -6989,7 +6993,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
         <v>318</v>
       </c>
@@ -7003,12 +7007,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
         <v>278</v>
       </c>
@@ -7022,7 +7026,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
         <v>37</v>
       </c>
@@ -7039,7 +7043,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>319</v>
       </c>
@@ -7047,7 +7051,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
         <v>278</v>
       </c>
@@ -7061,22 +7065,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
         <v>40</v>
       </c>
@@ -7087,7 +7091,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D272" t="s">
         <v>40</v>
       </c>
@@ -7098,7 +7102,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
         <v>62</v>
       </c>
@@ -7115,17 +7119,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>465</v>
       </c>
@@ -7136,12 +7140,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
         <v>40</v>
       </c>
@@ -7152,7 +7156,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
         <v>40</v>
       </c>
@@ -7163,7 +7167,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D280" t="s">
         <v>30</v>
       </c>
@@ -7177,7 +7181,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
         <v>316</v>
       </c>
@@ -7188,7 +7192,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>38</v>
       </c>
@@ -7196,7 +7200,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
         <v>317</v>
       </c>
@@ -7207,7 +7211,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
         <v>318</v>
       </c>
@@ -7221,12 +7225,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
         <v>278</v>
       </c>
@@ -7240,7 +7244,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
         <v>37</v>
       </c>
@@ -7257,7 +7261,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>319</v>
       </c>
@@ -7265,7 +7269,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
         <v>278</v>
       </c>
@@ -7279,22 +7283,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D293" t="s">
         <v>40</v>
       </c>
@@ -7305,7 +7309,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D294" t="s">
         <v>40</v>
       </c>
@@ -7316,7 +7320,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D295" t="s">
         <v>62</v>
       </c>
@@ -7333,17 +7337,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>320</v>
       </c>
@@ -7351,7 +7355,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
         <v>40</v>
       </c>
@@ -7362,7 +7366,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D300" t="s">
         <v>37</v>
       </c>
@@ -7379,7 +7383,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>38</v>
       </c>
@@ -7387,7 +7391,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D302" t="s">
         <v>37</v>
       </c>
@@ -7404,17 +7408,17 @@
         <v>474</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>518</v>
       </c>
@@ -7425,12 +7429,12 @@
         <v>475</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D307" t="s">
         <v>40</v>
       </c>
@@ -7441,7 +7445,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D308" t="s">
         <v>40</v>
       </c>
@@ -7452,7 +7456,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D309" t="s">
         <v>30</v>
       </c>
@@ -7466,7 +7470,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D310" t="s">
         <v>316</v>
       </c>
@@ -7477,7 +7481,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>38</v>
       </c>
@@ -7485,7 +7489,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D312" t="s">
         <v>317</v>
       </c>
@@ -7496,7 +7500,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
         <v>318</v>
       </c>
@@ -7510,12 +7514,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D315" t="s">
         <v>37</v>
       </c>
@@ -7532,7 +7536,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>38</v>
       </c>
@@ -7540,7 +7544,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D317" t="s">
         <v>318</v>
       </c>
@@ -7554,22 +7558,22 @@
         <v>719</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D321" t="s">
         <v>40</v>
       </c>
@@ -7580,7 +7584,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D322" t="s">
         <v>40</v>
       </c>
@@ -7591,7 +7595,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
         <v>278</v>
       </c>
@@ -7605,7 +7609,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D324" t="s">
         <v>37</v>
       </c>
@@ -7622,7 +7626,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>319</v>
       </c>
@@ -7630,7 +7634,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D326" t="s">
         <v>278</v>
       </c>
@@ -7644,22 +7648,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D330" t="s">
         <v>40</v>
       </c>
@@ -7670,7 +7674,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D331" t="s">
         <v>40</v>
       </c>
@@ -7681,7 +7685,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D332" t="s">
         <v>62</v>
       </c>
@@ -7698,17 +7702,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>515</v>
       </c>
@@ -7719,12 +7723,12 @@
         <v>483</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="337" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D337" t="s">
         <v>40</v>
       </c>
@@ -7735,7 +7739,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="338" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D338" t="s">
         <v>40</v>
       </c>
@@ -7746,7 +7750,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="339" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D339" t="s">
         <v>30</v>
       </c>
@@ -7760,7 +7764,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="340" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D340" t="s">
         <v>316</v>
       </c>
@@ -7771,7 +7775,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="341" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>38</v>
       </c>
@@ -7779,7 +7783,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="342" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
         <v>317</v>
       </c>
@@ -7790,7 +7794,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="343" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
         <v>318</v>
       </c>
@@ -7804,12 +7808,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="345" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D345" t="s">
         <v>37</v>
       </c>
@@ -7826,7 +7830,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="346" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>38</v>
       </c>
@@ -7834,7 +7838,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="347" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
         <v>318</v>
       </c>
@@ -7848,22 +7852,22 @@
         <v>719</v>
       </c>
     </row>
-    <row r="348" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="349" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="350" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="351" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D351" t="s">
         <v>40</v>
       </c>
@@ -7874,7 +7878,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="352" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D352" t="s">
         <v>40</v>
       </c>
@@ -7885,7 +7889,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D353" t="s">
         <v>278</v>
       </c>
@@ -7899,7 +7903,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D354" t="s">
         <v>37</v>
       </c>
@@ -7916,7 +7920,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>319</v>
       </c>
@@ -7924,7 +7928,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D356" t="s">
         <v>278</v>
       </c>
@@ -7938,22 +7942,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D360" t="s">
         <v>40</v>
       </c>
@@ -7964,7 +7968,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D361" t="s">
         <v>40</v>
       </c>
@@ -7975,7 +7979,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D362" t="s">
         <v>62</v>
       </c>
@@ -7992,17 +7996,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>519</v>
       </c>
@@ -8013,12 +8017,12 @@
         <v>491</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D367" t="s">
         <v>40</v>
       </c>
@@ -8029,7 +8033,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D368" t="s">
         <v>40</v>
       </c>
@@ -8040,7 +8044,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="369" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D369" t="s">
         <v>30</v>
       </c>
@@ -8054,7 +8058,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="370" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D370" t="s">
         <v>316</v>
       </c>
@@ -8065,7 +8069,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="371" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
         <v>38</v>
       </c>
@@ -8073,7 +8077,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="372" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D372" t="s">
         <v>317</v>
       </c>
@@ -8084,7 +8088,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="373" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D373" t="s">
         <v>318</v>
       </c>
@@ -8098,12 +8102,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="374" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="375" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D375" t="s">
         <v>37</v>
       </c>
@@ -8120,7 +8124,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="376" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
         <v>38</v>
       </c>
@@ -8128,7 +8132,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="377" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D377" t="s">
         <v>318</v>
       </c>
@@ -8142,22 +8146,22 @@
         <v>719</v>
       </c>
     </row>
-    <row r="378" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="379" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="380" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="381" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D381" t="s">
         <v>40</v>
       </c>
@@ -8168,7 +8172,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="382" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D382" t="s">
         <v>40</v>
       </c>
@@ -8179,7 +8183,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="383" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D383" t="s">
         <v>278</v>
       </c>
@@ -8193,7 +8197,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="384" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D384" t="s">
         <v>37</v>
       </c>
@@ -8210,7 +8214,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
         <v>319</v>
       </c>
@@ -8218,7 +8222,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D386" t="s">
         <v>278</v>
       </c>
@@ -8232,22 +8236,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D390" t="s">
         <v>40</v>
       </c>
@@ -8258,7 +8262,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D391" t="s">
         <v>40</v>
       </c>
@@ -8269,7 +8273,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D392" t="s">
         <v>62</v>
       </c>
@@ -8286,17 +8290,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>516</v>
       </c>
@@ -8307,12 +8311,12 @@
         <v>499</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D397" t="s">
         <v>40</v>
       </c>
@@ -8323,7 +8327,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D398" t="s">
         <v>40</v>
       </c>
@@ -8334,7 +8338,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D399" t="s">
         <v>30</v>
       </c>
@@ -8348,7 +8352,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D400" t="s">
         <v>316</v>
       </c>
@@ -8359,7 +8363,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="401" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
         <v>38</v>
       </c>
@@ -8367,7 +8371,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="402" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D402" t="s">
         <v>317</v>
       </c>
@@ -8378,7 +8382,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="403" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D403" t="s">
         <v>318</v>
       </c>
@@ -8392,12 +8396,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="404" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="405" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D405" t="s">
         <v>37</v>
       </c>
@@ -8414,7 +8418,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="406" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
         <v>38</v>
       </c>
@@ -8422,7 +8426,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="407" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D407" t="s">
         <v>318</v>
       </c>
@@ -8436,22 +8440,22 @@
         <v>719</v>
       </c>
     </row>
-    <row r="408" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="409" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="410" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="411" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D411" t="s">
         <v>40</v>
       </c>
@@ -8462,7 +8466,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="412" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D412" t="s">
         <v>40</v>
       </c>
@@ -8473,7 +8477,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="413" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D413" t="s">
         <v>278</v>
       </c>
@@ -8487,7 +8491,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="414" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D414" t="s">
         <v>37</v>
       </c>
@@ -8504,7 +8508,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="415" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
         <v>319</v>
       </c>
@@ -8512,7 +8516,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="416" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D416" t="s">
         <v>278</v>
       </c>
@@ -8526,22 +8530,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D420" t="s">
         <v>40</v>
       </c>
@@ -8552,7 +8556,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D421" t="s">
         <v>40</v>
       </c>
@@ -8563,7 +8567,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D422" t="s">
         <v>62</v>
       </c>
@@ -8580,17 +8584,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>517</v>
       </c>
@@ -8601,12 +8605,12 @@
         <v>507</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D427" t="s">
         <v>40</v>
       </c>
@@ -8617,7 +8621,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D428" t="s">
         <v>40</v>
       </c>
@@ -8628,7 +8632,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D429" t="s">
         <v>30</v>
       </c>
@@ -8642,7 +8646,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D430" t="s">
         <v>316</v>
       </c>
@@ -8653,7 +8657,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
         <v>38</v>
       </c>
@@ -8661,7 +8665,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D432" t="s">
         <v>317</v>
       </c>
@@ -8672,7 +8676,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="433" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D433" t="s">
         <v>318</v>
       </c>
@@ -8686,12 +8690,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="434" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="435" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D435" t="s">
         <v>37</v>
       </c>
@@ -8708,7 +8712,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="436" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
         <v>38</v>
       </c>
@@ -8716,7 +8720,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="437" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D437" t="s">
         <v>318</v>
       </c>
@@ -8730,22 +8734,22 @@
         <v>719</v>
       </c>
     </row>
-    <row r="438" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="439" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="440" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="441" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D441" t="s">
         <v>40</v>
       </c>
@@ -8756,7 +8760,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="442" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D442" t="s">
         <v>40</v>
       </c>
@@ -8767,7 +8771,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="443" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D443" t="s">
         <v>278</v>
       </c>
@@ -8781,7 +8785,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="444" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D444" t="s">
         <v>37</v>
       </c>
@@ -8798,7 +8802,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="445" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
         <v>319</v>
       </c>
@@ -8806,7 +8810,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="446" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D446" t="s">
         <v>278</v>
       </c>
@@ -8820,22 +8824,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="447" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B447" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="448" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D450" t="s">
         <v>40</v>
       </c>
@@ -8846,7 +8850,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D451" t="s">
         <v>40</v>
       </c>
@@ -8857,7 +8861,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D452" t="s">
         <v>62</v>
       </c>
@@ -8874,17 +8878,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B453" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B454" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>323</v>
       </c>
@@ -8892,7 +8896,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D456" t="s">
         <v>40</v>
       </c>
@@ -8903,7 +8907,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D457" t="s">
         <v>37</v>
       </c>
@@ -8920,7 +8924,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B458" t="s">
         <v>38</v>
       </c>
@@ -8928,7 +8932,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D459" t="s">
         <v>278</v>
       </c>
@@ -8942,17 +8946,17 @@
         <v>362</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B461" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>327</v>
       </c>
@@ -8960,7 +8964,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D463" t="s">
         <v>40</v>
       </c>
@@ -8971,7 +8975,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D464" t="s">
         <v>37</v>
       </c>
@@ -8988,7 +8992,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D465" t="s">
         <v>37</v>
       </c>
@@ -9005,7 +9009,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B466" t="s">
         <v>38</v>
       </c>
@@ -9013,7 +9017,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D467" t="s">
         <v>37</v>
       </c>
@@ -9030,7 +9034,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B468" t="s">
         <v>38</v>
       </c>
@@ -9038,7 +9042,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D469" t="s">
         <v>278</v>
       </c>
@@ -9052,12 +9056,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D471" t="s">
         <v>37</v>
       </c>
@@ -9074,17 +9078,17 @@
         <v>372</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B472" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B473" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>678</v>
       </c>
@@ -9092,7 +9096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D475" t="s">
         <v>40</v>
       </c>
@@ -9103,7 +9107,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D476" t="s">
         <v>278</v>
       </c>
@@ -9120,7 +9124,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D477" t="s">
         <v>278</v>
       </c>
@@ -9137,12 +9141,12 @@
         <v>673</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B478" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B479" t="s">
         <v>38</v>
       </c>
@@ -9150,7 +9154,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>671</v>
       </c>
@@ -9158,7 +9162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="481" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D481" t="s">
         <v>40</v>
       </c>
@@ -9169,7 +9173,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="482" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D482" t="s">
         <v>37</v>
       </c>
@@ -9186,12 +9190,12 @@
         <v>681</v>
       </c>
     </row>
-    <row r="483" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B483" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="484" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B484" t="s">
         <v>39</v>
       </c>
@@ -9207,20 +9211,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32:B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -9234,7 +9238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>707</v>
       </c>
@@ -9249,7 +9253,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>707</v>
       </c>
@@ -9264,7 +9268,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>707</v>
       </c>
@@ -9279,7 +9283,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>707</v>
       </c>
@@ -9294,18 +9298,17 @@
         <v>740</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="B7" t="str">
-        <f>"1"</f>
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -9315,12 +9318,11 @@
         <v>630</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="B8" t="str">
-        <f>"2"</f>
+      <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -9330,12 +9332,11 @@
         <v>631</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="B9" t="str">
-        <f>"3"</f>
+      <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -9345,12 +9346,11 @@
         <v>556</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="B10" s="13" t="str">
-        <f>"4"</f>
+      <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -9360,18 +9360,17 @@
         <v>635</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" t="str">
-        <f>"1"</f>
+      <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
@@ -9381,12 +9380,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>63</v>
       </c>
-      <c r="B13" t="str">
-        <f>"2"</f>
+      <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
@@ -9396,8 +9394,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -9412,7 +9410,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -9427,7 +9425,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -9442,7 +9440,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -9457,18 +9455,17 @@
         <v>705</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="B20" t="str">
-        <f>"1"</f>
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
@@ -9478,12 +9475,11 @@
         <v>685</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="B21" t="str">
-        <f>"4"</f>
+      <c r="B21">
         <v>4</v>
       </c>
       <c r="C21" t="s">
@@ -9493,12 +9489,11 @@
         <v>687</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="B22" t="str">
-        <f>"5"</f>
+      <c r="B22">
         <v>5</v>
       </c>
       <c r="C22" t="s">
@@ -9508,12 +9503,11 @@
         <v>689</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="B23" t="str">
-        <f>"2"</f>
+      <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
@@ -9523,12 +9517,11 @@
         <v>704</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="B24" t="str">
-        <f>"3"</f>
+      <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
@@ -9538,18 +9531,17 @@
         <v>691</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
+      <c r="B25"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>69</v>
       </c>
-      <c r="B26" t="str">
-        <f>"1"</f>
+      <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -9559,12 +9551,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
-      <c r="B27" t="str">
-        <f>"2"</f>
+      <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
@@ -9574,12 +9565,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
-      <c r="B28" t="str">
-        <f>"3"</f>
+      <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
@@ -9589,10 +9579,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -9607,12 +9597,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>332</v>
       </c>
-      <c r="B32" t="str">
-        <f>"1"</f>
+      <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
@@ -9622,12 +9611,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>332</v>
       </c>
-      <c r="B33" t="str">
-        <f>"2"</f>
+      <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
@@ -9637,12 +9625,11 @@
         <v>338</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>332</v>
       </c>
-      <c r="B34" t="str">
-        <f>"3"</f>
+      <c r="B34">
         <v>3</v>
       </c>
       <c r="C34" t="s">
@@ -9652,15 +9639,14 @@
         <v>339</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="19"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>397</v>
       </c>
-      <c r="B36" t="str">
-        <f>"1"</f>
+      <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" s="15">
@@ -9670,12 +9656,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>397</v>
       </c>
-      <c r="B37" t="str">
-        <f>"2"</f>
+      <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" s="15">
@@ -9685,12 +9670,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>397</v>
       </c>
-      <c r="B38" t="str">
-        <f>"3"</f>
+      <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" s="15">
@@ -9700,12 +9684,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>397</v>
       </c>
-      <c r="B39" s="13" t="str">
-        <f>"4"</f>
+      <c r="B39">
         <v>4</v>
       </c>
       <c r="C39" s="15">
@@ -9715,12 +9698,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>397</v>
       </c>
-      <c r="B40" s="7" t="str">
-        <f>"5"</f>
+      <c r="B40" s="19">
         <v>5</v>
       </c>
       <c r="C40" t="s">
@@ -9730,10 +9712,10 @@
         <v>398</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>375</v>
       </c>
@@ -9748,7 +9730,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>375</v>
       </c>
@@ -9763,7 +9745,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>375</v>
       </c>
@@ -9778,7 +9760,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>375</v>
       </c>
@@ -9793,7 +9775,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>375</v>
       </c>
@@ -9808,7 +9790,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>375</v>
       </c>
@@ -9823,7 +9805,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>375</v>
       </c>
@@ -9838,7 +9820,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>375</v>
       </c>
@@ -9853,7 +9835,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>375</v>
       </c>
@@ -9868,7 +9850,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>375</v>
       </c>
@@ -9883,7 +9865,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>375</v>
       </c>
@@ -9898,7 +9880,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>375</v>
       </c>
@@ -9913,7 +9895,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>375</v>
       </c>
@@ -9928,7 +9910,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>375</v>
       </c>
@@ -9943,7 +9925,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>375</v>
       </c>
@@ -9958,7 +9940,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>375</v>
       </c>
@@ -9973,7 +9955,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>375</v>
       </c>
@@ -9988,7 +9970,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>375</v>
       </c>
@@ -10003,7 +9985,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>375</v>
       </c>
@@ -10018,7 +10000,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>375</v>
       </c>
@@ -10033,7 +10015,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>375</v>
       </c>
@@ -10048,7 +10030,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>375</v>
       </c>
@@ -10063,7 +10045,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>375</v>
       </c>
@@ -10078,197 +10060,197 @@
         <v>396</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="7"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="7"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
     </row>
   </sheetData>
@@ -10287,13 +10269,13 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
@@ -10301,7 +10283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>595</v>
       </c>
@@ -10309,7 +10291,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>596</v>
       </c>
@@ -10317,7 +10299,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>600</v>
       </c>
@@ -10340,15 +10322,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
@@ -10362,7 +10344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -10387,19 +10369,19 @@
   <dimension ref="A1:J221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A173" sqref="A173"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -10413,7 +10395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>576</v>
       </c>
@@ -10427,7 +10409,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>577</v>
       </c>
@@ -10438,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>578</v>
       </c>
@@ -10449,7 +10431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>579</v>
       </c>
@@ -10460,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>580</v>
       </c>
@@ -10471,7 +10453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>581</v>
       </c>
@@ -10482,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>582</v>
       </c>
@@ -10493,7 +10475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>585</v>
       </c>
@@ -10507,7 +10489,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>586</v>
       </c>
@@ -10521,7 +10503,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>587</v>
       </c>
@@ -10535,7 +10517,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>588</v>
       </c>
@@ -10549,7 +10531,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>589</v>
       </c>
@@ -10563,12 +10545,12 @@
         <v>549</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>592</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>741</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -10577,7 +10559,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>590</v>
       </c>
@@ -10591,7 +10573,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>670</v>
       </c>
@@ -10605,7 +10587,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>591</v>
       </c>
@@ -10619,7 +10601,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>593</v>
       </c>
@@ -10633,7 +10615,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>642</v>
       </c>
@@ -10647,7 +10629,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>644</v>
       </c>
@@ -10661,7 +10643,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>712</v>
       </c>
@@ -10675,11 +10657,11 @@
         <v>711</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>708</v>
       </c>
       <c r="B23" t="s">
@@ -10693,7 +10675,7 @@
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>693</v>
       </c>
@@ -10704,7 +10686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>646</v>
       </c>
@@ -10715,29 +10697,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>682</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -10748,95 +10730,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>557</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>317</v>
+      <c r="B29" t="s">
+        <v>278</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>570</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>567</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>568</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>569</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>564</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>565</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>566</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>583</v>
       </c>
@@ -10847,18 +10829,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>571</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>584</v>
       </c>
@@ -10869,18 +10851,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>572</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>667</v>
       </c>
@@ -10891,12 +10873,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>679</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -10905,810 +10887,810 @@
         <v>574</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>117</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>119</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>121</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>127</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>136</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>138</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>140</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>142</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>144</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>146</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>151</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>153</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>155</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>157</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>159</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>161</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>166</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>168</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>170</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>174</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>176</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>181</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>183</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>185</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>187</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>189</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>191</v>
       </c>
       <c r="B85" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>196</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>198</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>200</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>202</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>204</v>
       </c>
       <c r="B90" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>206</v>
       </c>
       <c r="B91" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>211</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>213</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>215</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>217</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>219</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>221</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>230</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>232</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>234</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>236</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>238</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>240</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>245</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>247</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>249</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>251</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>253</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>255</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>260</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>262</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>264</v>
       </c>
       <c r="B112" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>266</v>
       </c>
       <c r="B113" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>268</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>270</v>
       </c>
       <c r="B115" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>276</v>
       </c>
       <c r="B116" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>279</v>
       </c>
@@ -11719,73 +11701,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>282</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>284</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>286</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>288</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>290</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>294</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>295</v>
       </c>
@@ -11796,95 +11778,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>296</v>
       </c>
       <c r="B125" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>298</v>
       </c>
       <c r="B126" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>300</v>
       </c>
       <c r="B127" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C127" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>302</v>
       </c>
       <c r="B128" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>304</v>
       </c>
       <c r="B129" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C129" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>309</v>
       </c>
       <c r="B130" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>314</v>
       </c>
       <c r="B131" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>400</v>
       </c>
       <c r="B132" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>402</v>
       </c>
@@ -11895,7 +11877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>408</v>
       </c>
@@ -11906,7 +11888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>403</v>
       </c>
@@ -11917,7 +11899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>405</v>
       </c>
@@ -11928,18 +11910,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>406</v>
       </c>
       <c r="B137" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>407</v>
       </c>
@@ -11950,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>404</v>
       </c>
@@ -11961,7 +11943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>414</v>
       </c>
@@ -11972,7 +11954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>423</v>
       </c>
@@ -11983,7 +11965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>415</v>
       </c>
@@ -11994,7 +11976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>416</v>
       </c>
@@ -12005,18 +11987,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>417</v>
       </c>
       <c r="B144" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>419</v>
       </c>
@@ -12027,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>420</v>
       </c>
@@ -12038,7 +12020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>434</v>
       </c>
@@ -12049,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>435</v>
       </c>
@@ -12060,7 +12042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>436</v>
       </c>
@@ -12071,7 +12053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>438</v>
       </c>
@@ -12082,18 +12064,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>439</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>440</v>
       </c>
@@ -12104,7 +12086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>442</v>
       </c>
@@ -12115,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>446</v>
       </c>
@@ -12126,7 +12108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>455</v>
       </c>
@@ -12137,7 +12119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>447</v>
       </c>
@@ -12148,7 +12130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>448</v>
       </c>
@@ -12159,18 +12141,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>449</v>
       </c>
       <c r="B158" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C158" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>451</v>
       </c>
@@ -12181,7 +12163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>452</v>
       </c>
@@ -12192,7 +12174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>458</v>
       </c>
@@ -12203,7 +12185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>467</v>
       </c>
@@ -12214,7 +12196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>459</v>
       </c>
@@ -12225,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>460</v>
       </c>
@@ -12236,19 +12218,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>461</v>
       </c>
       <c r="B165" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C165" t="b">
         <v>0</v>
       </c>
       <c r="J165" s="11"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>463</v>
       </c>
@@ -12259,7 +12241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>464</v>
       </c>
@@ -12270,29 +12252,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>321</v>
       </c>
       <c r="B168" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C168" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>472</v>
       </c>
       <c r="B169" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C169" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>476</v>
       </c>
@@ -12303,7 +12285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>520</v>
       </c>
@@ -12314,7 +12296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>477</v>
       </c>
@@ -12325,18 +12307,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>720</v>
       </c>
       <c r="B173" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C173" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>721</v>
       </c>
@@ -12347,7 +12329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>478</v>
       </c>
@@ -12358,18 +12340,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>479</v>
       </c>
       <c r="B176" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C176" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>481</v>
       </c>
@@ -12380,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>482</v>
       </c>
@@ -12391,7 +12373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>484</v>
       </c>
@@ -12402,7 +12384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>523</v>
       </c>
@@ -12413,7 +12395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>485</v>
       </c>
@@ -12424,18 +12406,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>722</v>
       </c>
       <c r="B182" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>723</v>
       </c>
@@ -12446,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>486</v>
       </c>
@@ -12457,18 +12439,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>487</v>
       </c>
       <c r="B185" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>489</v>
       </c>
@@ -12479,7 +12461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>490</v>
       </c>
@@ -12490,7 +12472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>492</v>
       </c>
@@ -12501,7 +12483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>526</v>
       </c>
@@ -12512,7 +12494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>493</v>
       </c>
@@ -12523,18 +12505,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>724</v>
       </c>
       <c r="B191" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C191" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>725</v>
       </c>
@@ -12545,7 +12527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>494</v>
       </c>
@@ -12556,18 +12538,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>495</v>
       </c>
       <c r="B194" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C194" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>497</v>
       </c>
@@ -12578,7 +12560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>498</v>
       </c>
@@ -12589,7 +12571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>500</v>
       </c>
@@ -12600,7 +12582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>529</v>
       </c>
@@ -12611,7 +12593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>501</v>
       </c>
@@ -12622,18 +12604,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>726</v>
       </c>
       <c r="B200" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C200" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>727</v>
       </c>
@@ -12644,7 +12626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>502</v>
       </c>
@@ -12655,18 +12637,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>503</v>
       </c>
       <c r="B203" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>505</v>
       </c>
@@ -12677,7 +12659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>506</v>
       </c>
@@ -12688,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>508</v>
       </c>
@@ -12699,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>532</v>
       </c>
@@ -12710,7 +12692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>509</v>
       </c>
@@ -12721,18 +12703,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>728</v>
       </c>
       <c r="B209" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C209" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>729</v>
       </c>
@@ -12743,7 +12725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>510</v>
       </c>
@@ -12754,18 +12736,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>511</v>
       </c>
       <c r="B212" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C212" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>513</v>
       </c>
@@ -12776,7 +12758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>514</v>
       </c>
@@ -12787,18 +12769,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>324</v>
       </c>
       <c r="B215" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C215" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>326</v>
       </c>
@@ -12809,40 +12791,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>327</v>
       </c>
       <c r="B217" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C217" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>328</v>
       </c>
       <c r="B218" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C218" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>330</v>
       </c>
       <c r="B219" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C219" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>331</v>
       </c>
@@ -12853,12 +12835,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>333</v>
       </c>
       <c r="B221" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C221" t="b">
         <v>0</v>

--- a/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
+++ b/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBA095D-B8CE-4DC9-98DA-B6512B2B7760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED488322-9D56-422F-872A-C6116FEB9E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-6285" windowWidth="38640" windowHeight="21240" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="744">
   <si>
     <t>setting_name</t>
   </si>
@@ -2260,6 +2260,12 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>HOUSEGRP</t>
+  </si>
+  <si>
+    <t>House group for list</t>
   </si>
 </sst>
 </file>
@@ -3675,7 +3681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E034F7AB-A88F-4084-9C1D-FD9CFEAF70F4}">
   <dimension ref="A1:O484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
@@ -10366,11 +10372,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J221"/>
+  <dimension ref="A1:J222"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10631,64 +10637,67 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>644</v>
+        <v>742</v>
       </c>
       <c r="B20" t="s">
-        <v>647</v>
+        <v>278</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>645</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>644</v>
+      </c>
+      <c r="B21" t="s">
+        <v>647</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>712</v>
       </c>
-      <c r="B21" t="s">
-        <v>318</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B22" t="s">
+        <v>318</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-    </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>708</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>603</v>
-      </c>
-      <c r="E23" s="11"/>
+      <c r="A23" s="18"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
+      <c r="D24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>646</v>
+        <v>693</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -10699,10 +10708,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>682</v>
+        <v>646</v>
       </c>
       <c r="B26" t="s">
-        <v>318</v>
+        <v>30</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -10710,7 +10719,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>682</v>
       </c>
       <c r="B27" t="s">
         <v>318</v>
@@ -10721,10 +10730,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -10732,10 +10741,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>557</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>62</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -10743,10 +10752,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="B30" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -10754,7 +10763,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B31" t="s">
         <v>318</v>
@@ -10765,7 +10774,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B32" t="s">
         <v>318</v>
@@ -10776,7 +10785,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B33" t="s">
         <v>318</v>
@@ -10787,7 +10796,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B34" t="s">
         <v>318</v>
@@ -10798,7 +10807,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B35" t="s">
         <v>318</v>
@@ -10809,7 +10818,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B36" t="s">
         <v>318</v>
@@ -10820,10 +10829,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -10831,10 +10840,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="B38" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -10842,10 +10851,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="B39" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -10853,10 +10862,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="B40" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -10864,43 +10873,43 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>572</v>
+      </c>
+      <c r="B41" t="s">
+        <v>318</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>667</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>278</v>
       </c>
-      <c r="C41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>679</v>
-      </c>
-      <c r="B43" t="s">
-        <v>318</v>
-      </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>574</v>
+      <c r="C42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>679</v>
       </c>
       <c r="B44" t="s">
         <v>318</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
         <v>318</v>
@@ -10911,7 +10920,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
         <v>318</v>
@@ -10922,7 +10931,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
         <v>318</v>
@@ -10933,7 +10942,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
         <v>318</v>
@@ -10944,7 +10953,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
         <v>318</v>
@@ -10955,7 +10964,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
         <v>318</v>
@@ -10966,7 +10975,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
         <v>318</v>
@@ -10977,7 +10986,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
         <v>318</v>
@@ -10988,7 +10997,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
         <v>318</v>
@@ -10999,7 +11008,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
         <v>318</v>
@@ -11010,7 +11019,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
         <v>318</v>
@@ -11021,7 +11030,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B56" t="s">
         <v>318</v>
@@ -11032,7 +11041,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
         <v>318</v>
@@ -11043,7 +11052,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
         <v>318</v>
@@ -11054,7 +11063,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
         <v>318</v>
@@ -11065,7 +11074,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
         <v>318</v>
@@ -11076,7 +11085,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
         <v>318</v>
@@ -11087,7 +11096,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
         <v>318</v>
@@ -11098,7 +11107,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B63" t="s">
         <v>318</v>
@@ -11109,7 +11118,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B64" t="s">
         <v>318</v>
@@ -11120,7 +11129,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B65" t="s">
         <v>318</v>
@@ -11131,7 +11140,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B66" t="s">
         <v>318</v>
@@ -11142,7 +11151,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
         <v>318</v>
@@ -11153,7 +11162,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B68" t="s">
         <v>318</v>
@@ -11164,7 +11173,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B69" t="s">
         <v>318</v>
@@ -11175,7 +11184,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B70" t="s">
         <v>318</v>
@@ -11186,7 +11195,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B71" t="s">
         <v>318</v>
@@ -11197,7 +11206,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B72" t="s">
         <v>318</v>
@@ -11208,7 +11217,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B73" t="s">
         <v>318</v>
@@ -11219,7 +11228,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B74" t="s">
         <v>318</v>
@@ -11230,7 +11239,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B75" t="s">
         <v>318</v>
@@ -11241,7 +11250,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B76" t="s">
         <v>318</v>
@@ -11252,7 +11261,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B77" t="s">
         <v>318</v>
@@ -11263,7 +11272,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B78" t="s">
         <v>318</v>
@@ -11274,7 +11283,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B79" t="s">
         <v>318</v>
@@ -11285,7 +11294,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B80" t="s">
         <v>318</v>
@@ -11296,7 +11305,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B81" t="s">
         <v>318</v>
@@ -11307,7 +11316,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B82" t="s">
         <v>318</v>
@@ -11318,7 +11327,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B83" t="s">
         <v>318</v>
@@ -11329,7 +11338,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B84" t="s">
         <v>318</v>
@@ -11340,7 +11349,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B85" t="s">
         <v>318</v>
@@ -11351,7 +11360,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B86" t="s">
         <v>318</v>
@@ -11362,7 +11371,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B87" t="s">
         <v>318</v>
@@ -11373,7 +11382,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B88" t="s">
         <v>318</v>
@@ -11384,7 +11393,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B89" t="s">
         <v>318</v>
@@ -11395,7 +11404,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B90" t="s">
         <v>318</v>
@@ -11406,7 +11415,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B91" t="s">
         <v>318</v>
@@ -11417,7 +11426,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B92" t="s">
         <v>318</v>
@@ -11428,7 +11437,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B93" t="s">
         <v>318</v>
@@ -11439,7 +11448,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B94" t="s">
         <v>318</v>
@@ -11450,7 +11459,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B95" t="s">
         <v>318</v>
@@ -11461,7 +11470,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B96" t="s">
         <v>318</v>
@@ -11472,7 +11481,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B97" t="s">
         <v>318</v>
@@ -11483,7 +11492,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B98" t="s">
         <v>318</v>
@@ -11494,7 +11503,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B99" t="s">
         <v>318</v>
@@ -11505,7 +11514,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B100" t="s">
         <v>318</v>
@@ -11516,7 +11525,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B101" t="s">
         <v>318</v>
@@ -11527,7 +11536,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B102" t="s">
         <v>318</v>
@@ -11538,7 +11547,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B103" t="s">
         <v>318</v>
@@ -11549,7 +11558,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B104" t="s">
         <v>318</v>
@@ -11560,7 +11569,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B105" t="s">
         <v>318</v>
@@ -11571,7 +11580,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B106" t="s">
         <v>318</v>
@@ -11582,7 +11591,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B107" t="s">
         <v>318</v>
@@ -11593,7 +11602,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B108" t="s">
         <v>318</v>
@@ -11604,7 +11613,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B109" t="s">
         <v>318</v>
@@ -11615,7 +11624,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B110" t="s">
         <v>318</v>
@@ -11626,7 +11635,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B111" t="s">
         <v>318</v>
@@ -11637,7 +11646,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B112" t="s">
         <v>318</v>
@@ -11648,7 +11657,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B113" t="s">
         <v>318</v>
@@ -11659,7 +11668,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B114" t="s">
         <v>318</v>
@@ -11670,7 +11679,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B115" t="s">
         <v>318</v>
@@ -11681,7 +11690,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B116" t="s">
         <v>318</v>
@@ -11692,10 +11701,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B117" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
@@ -11703,10 +11712,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B118" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="C118" t="b">
         <v>0</v>
@@ -11714,7 +11723,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B119" t="s">
         <v>318</v>
@@ -11725,7 +11734,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B120" t="s">
         <v>318</v>
@@ -11736,7 +11745,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B121" t="s">
         <v>318</v>
@@ -11747,7 +11756,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B122" t="s">
         <v>318</v>
@@ -11758,7 +11767,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B123" t="s">
         <v>318</v>
@@ -11769,10 +11778,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B124" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C124" t="b">
         <v>0</v>
@@ -11780,10 +11789,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B125" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="C125" t="b">
         <v>0</v>
@@ -11791,7 +11800,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B126" t="s">
         <v>318</v>
@@ -11802,7 +11811,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B127" t="s">
         <v>318</v>
@@ -11813,7 +11822,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B128" t="s">
         <v>318</v>
@@ -11824,7 +11833,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B129" t="s">
         <v>318</v>
@@ -11835,7 +11844,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B130" t="s">
         <v>318</v>
@@ -11846,7 +11855,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B131" t="s">
         <v>318</v>
@@ -11857,7 +11866,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>400</v>
+        <v>314</v>
       </c>
       <c r="B132" t="s">
         <v>318</v>
@@ -11868,10 +11877,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B133" t="s">
-        <v>30</v>
+        <v>318</v>
       </c>
       <c r="C133" t="b">
         <v>0</v>
@@ -11879,32 +11888,32 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B134" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="C134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B135" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B136" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
@@ -11912,10 +11921,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B137" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="C137" t="b">
         <v>0</v>
@@ -11923,10 +11932,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B138" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C138" t="b">
         <v>0</v>
@@ -11934,10 +11943,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B139" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="C139" t="b">
         <v>0</v>
@@ -11945,10 +11954,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B140" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C140" t="b">
         <v>0</v>
@@ -11956,32 +11965,32 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B141" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="C141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B142" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B143" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C143" t="b">
         <v>0</v>
@@ -11989,10 +11998,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B144" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="C144" t="b">
         <v>0</v>
@@ -12000,10 +12009,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B145" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C145" t="b">
         <v>0</v>
@@ -12011,10 +12020,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B146" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="C146" t="b">
         <v>0</v>
@@ -12022,10 +12031,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B147" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C147" t="b">
         <v>0</v>
@@ -12033,32 +12042,32 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B148" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="C148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B149" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B150" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C150" t="b">
         <v>0</v>
@@ -12066,10 +12075,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B151" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="C151" t="b">
         <v>0</v>
@@ -12077,10 +12086,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B152" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C152" t="b">
         <v>0</v>
@@ -12088,10 +12097,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B153" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="C153" t="b">
         <v>0</v>
@@ -12099,10 +12108,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B154" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C154" t="b">
         <v>0</v>
@@ -12110,32 +12119,32 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B155" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="C155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B156" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B157" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C157" t="b">
         <v>0</v>
@@ -12143,10 +12152,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B158" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="C158" t="b">
         <v>0</v>
@@ -12154,10 +12163,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B159" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C159" t="b">
         <v>0</v>
@@ -12165,10 +12174,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B160" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="C160" t="b">
         <v>0</v>
@@ -12176,10 +12185,10 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B161" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C161" t="b">
         <v>0</v>
@@ -12187,32 +12196,32 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B162" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="C162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B163" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B164" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C164" t="b">
         <v>0</v>
@@ -12220,33 +12229,33 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B165" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="C165" t="b">
         <v>0</v>
       </c>
-      <c r="J165" s="11"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B166" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C166" t="b">
         <v>0</v>
       </c>
+      <c r="J166" s="11"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B167" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="C167" t="b">
         <v>0</v>
@@ -12254,10 +12263,10 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>321</v>
+        <v>464</v>
       </c>
       <c r="B168" t="s">
-        <v>318</v>
+        <v>62</v>
       </c>
       <c r="C168" t="b">
         <v>0</v>
@@ -12265,7 +12274,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>472</v>
+        <v>321</v>
       </c>
       <c r="B169" t="s">
         <v>318</v>
@@ -12276,10 +12285,10 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B170" t="s">
-        <v>30</v>
+        <v>318</v>
       </c>
       <c r="C170" t="b">
         <v>0</v>
@@ -12287,29 +12296,29 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>520</v>
+        <v>476</v>
       </c>
       <c r="B171" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="C171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="B172" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>720</v>
+        <v>477</v>
       </c>
       <c r="B173" t="s">
         <v>318</v>
@@ -12320,7 +12329,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B174" t="s">
         <v>318</v>
@@ -12331,10 +12340,10 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>478</v>
+        <v>721</v>
       </c>
       <c r="B175" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C175" t="b">
         <v>0</v>
@@ -12342,10 +12351,10 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B176" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="C176" t="b">
         <v>0</v>
@@ -12353,10 +12362,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B177" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C177" t="b">
         <v>0</v>
@@ -12364,10 +12373,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B178" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="C178" t="b">
         <v>0</v>
@@ -12375,10 +12384,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B179" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C179" t="b">
         <v>0</v>
@@ -12386,29 +12395,29 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="B180" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="C180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>485</v>
+        <v>523</v>
       </c>
       <c r="B181" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>722</v>
+        <v>485</v>
       </c>
       <c r="B182" t="s">
         <v>318</v>
@@ -12419,7 +12428,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B183" t="s">
         <v>318</v>
@@ -12430,10 +12439,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>486</v>
+        <v>723</v>
       </c>
       <c r="B184" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C184" t="b">
         <v>0</v>
@@ -12441,10 +12450,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B185" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="C185" t="b">
         <v>0</v>
@@ -12452,10 +12461,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B186" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C186" t="b">
         <v>0</v>
@@ -12463,10 +12472,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B187" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="C187" t="b">
         <v>0</v>
@@ -12474,10 +12483,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B188" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C188" t="b">
         <v>0</v>
@@ -12485,29 +12494,29 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="B189" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="C189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="B190" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>724</v>
+        <v>493</v>
       </c>
       <c r="B191" t="s">
         <v>318</v>
@@ -12518,7 +12527,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B192" t="s">
         <v>318</v>
@@ -12529,10 +12538,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>494</v>
+        <v>725</v>
       </c>
       <c r="B193" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C193" t="b">
         <v>0</v>
@@ -12540,10 +12549,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B194" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="C194" t="b">
         <v>0</v>
@@ -12551,10 +12560,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B195" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C195" t="b">
         <v>0</v>
@@ -12562,10 +12571,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B196" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="C196" t="b">
         <v>0</v>
@@ -12573,10 +12582,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B197" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C197" t="b">
         <v>0</v>
@@ -12584,29 +12593,29 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="B198" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="C198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="B199" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>726</v>
+        <v>501</v>
       </c>
       <c r="B200" t="s">
         <v>318</v>
@@ -12617,7 +12626,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B201" t="s">
         <v>318</v>
@@ -12628,10 +12637,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>502</v>
+        <v>727</v>
       </c>
       <c r="B202" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C202" t="b">
         <v>0</v>
@@ -12639,10 +12648,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B203" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
@@ -12650,10 +12659,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B204" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C204" t="b">
         <v>0</v>
@@ -12661,10 +12670,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B205" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="C205" t="b">
         <v>0</v>
@@ -12672,10 +12681,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B206" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C206" t="b">
         <v>0</v>
@@ -12683,29 +12692,29 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="B207" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="C207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="B208" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>728</v>
+        <v>509</v>
       </c>
       <c r="B209" t="s">
         <v>318</v>
@@ -12716,7 +12725,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B210" t="s">
         <v>318</v>
@@ -12727,10 +12736,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>510</v>
+        <v>729</v>
       </c>
       <c r="B211" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C211" t="b">
         <v>0</v>
@@ -12738,10 +12747,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B212" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="C212" t="b">
         <v>0</v>
@@ -12749,10 +12758,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B213" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C213" t="b">
         <v>0</v>
@@ -12760,10 +12769,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B214" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="C214" t="b">
         <v>0</v>
@@ -12771,10 +12780,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>324</v>
+        <v>514</v>
       </c>
       <c r="B215" t="s">
-        <v>318</v>
+        <v>62</v>
       </c>
       <c r="C215" t="b">
         <v>0</v>
@@ -12782,10 +12791,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B216" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C216" t="b">
         <v>0</v>
@@ -12793,10 +12802,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B217" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="C217" t="b">
         <v>0</v>
@@ -12804,7 +12813,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B218" t="s">
         <v>318</v>
@@ -12815,7 +12824,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B219" t="s">
         <v>318</v>
@@ -12826,10 +12835,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B220" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="C220" t="b">
         <v>0</v>
@@ -12837,18 +12846,29 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>331</v>
+      </c>
+      <c r="B221" t="s">
+        <v>278</v>
+      </c>
+      <c r="C221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>333</v>
       </c>
-      <c r="B221" t="s">
-        <v>318</v>
-      </c>
-      <c r="C221" t="b">
+      <c r="B222" t="s">
+        <v>318</v>
+      </c>
+      <c r="C222" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:C41">
-    <sortCondition ref="A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:C42">
+    <sortCondition ref="A26"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
+++ b/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36407F75-A86D-4897-8C6F-EE0AFB65B3EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D092A90-C90C-4B9B-A049-43287918E3F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="743">
   <si>
     <t>setting_name</t>
   </si>
@@ -2257,6 +2257,12 @@
   </si>
   <si>
     <t>Tchico</t>
+  </si>
+  <si>
+    <t>Djoni</t>
+  </si>
+  <si>
+    <t>Idrissa</t>
   </si>
 </sst>
 </file>
@@ -9205,11 +9211,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9295,217 +9301,217 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>554</v>
+      <c r="A6" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="B6" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>707</v>
       </c>
       <c r="B7" t="str">
-        <f>"1"</f>
-        <v>1</v>
+        <f>"6"</f>
+        <v>6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>632</v>
+        <v>742</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>554</v>
-      </c>
-      <c r="B8" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>631</v>
-      </c>
+        <v>742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>554</v>
       </c>
       <c r="B9" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>555</v>
+        <v>632</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="B10" s="13" t="str">
+      <c r="B10" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="B11" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="B12" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>63</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B14" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>63</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B15" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>699</v>
-      </c>
-      <c r="D15" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>562</v>
-      </c>
-    </row>
+    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>70</v>
       </c>
       <c r="B17" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>563</v>
+        <v>699</v>
+      </c>
+      <c r="D17" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="13" t="str">
+      <c r="B18" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="B20" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>684</v>
-      </c>
-      <c r="D20" t="s">
-        <v>685</v>
-      </c>
-    </row>
     <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="B21" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>686</v>
-      </c>
-      <c r="D21" t="s">
-        <v>687</v>
-      </c>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>683</v>
       </c>
       <c r="B22" t="str">
-        <f>"5"</f>
-        <v>5</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D22" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9513,14 +9519,14 @@
         <v>683</v>
       </c>
       <c r="B23" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"4"</f>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="D23" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9528,113 +9534,113 @@
         <v>683</v>
       </c>
       <c r="B24" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>688</v>
+      </c>
+      <c r="D24" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="B25" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>703</v>
+      </c>
+      <c r="D25" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="B26" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>690</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>43</v>
-      </c>
+    <row r="27" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>69</v>
       </c>
       <c r="B28" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>41</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B32" t="str">
         <f>"D:NS,M:NS,Y:NS"</f>
         <v>D:NS,M:NS,Y:NS</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>50</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>332</v>
-      </c>
-      <c r="B32" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>334</v>
-      </c>
-      <c r="D32" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>332</v>
-      </c>
-      <c r="B33" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>335</v>
-      </c>
-      <c r="D33" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -9642,140 +9648,140 @@
         <v>332</v>
       </c>
       <c r="B34" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>334</v>
+      </c>
+      <c r="D34" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>332</v>
+      </c>
+      <c r="B35" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>335</v>
+      </c>
+      <c r="D35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>332</v>
+      </c>
+      <c r="B36" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>336</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>397</v>
-      </c>
-      <c r="B36" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C36" s="15">
-        <v>1</v>
-      </c>
-      <c r="D36" s="15">
-        <v>1</v>
-      </c>
-    </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>397</v>
-      </c>
-      <c r="B37" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C37" s="15">
-        <v>2</v>
-      </c>
-      <c r="D37" s="15">
-        <v>2</v>
-      </c>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>397</v>
       </c>
       <c r="B38" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C38" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>397</v>
       </c>
-      <c r="B39" s="13" t="str">
-        <f>"4"</f>
-        <v>4</v>
+      <c r="B39" t="str">
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C39" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>397</v>
       </c>
-      <c r="B40" s="7" t="str">
+      <c r="B40" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C40" s="15">
+        <v>3</v>
+      </c>
+      <c r="D40" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>397</v>
+      </c>
+      <c r="B41" s="13" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C41" s="15">
+        <v>4</v>
+      </c>
+      <c r="D41" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>397</v>
+      </c>
+      <c r="B42" s="7" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>399</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D42" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>375</v>
-      </c>
-      <c r="B42" s="7" t="str">
-        <f>"301"</f>
-        <v>301</v>
-      </c>
-      <c r="C42" t="s">
-        <v>735</v>
-      </c>
-      <c r="D42" t="s">
-        <v>735</v>
-      </c>
-    </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>375</v>
-      </c>
-      <c r="B43" s="14" t="str">
-        <f>"304"</f>
-        <v>304</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>376</v>
-      </c>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>375</v>
       </c>
-      <c r="B44" s="14" t="str">
-        <f>"305"</f>
-        <v>305</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>377</v>
+      <c r="B44" s="7" t="str">
+        <f>"301"</f>
+        <v>301</v>
+      </c>
+      <c r="C44" t="s">
+        <v>735</v>
+      </c>
+      <c r="D44" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -9783,14 +9789,14 @@
         <v>375</v>
       </c>
       <c r="B45" s="14" t="str">
-        <f>"306"</f>
-        <v>306</v>
+        <f>"304"</f>
+        <v>304</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -9798,14 +9804,14 @@
         <v>375</v>
       </c>
       <c r="B46" s="14" t="str">
-        <f>"307"</f>
-        <v>307</v>
+        <f>"305"</f>
+        <v>305</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -9813,14 +9819,14 @@
         <v>375</v>
       </c>
       <c r="B47" s="14" t="str">
-        <f>"308"</f>
-        <v>308</v>
+        <f>"306"</f>
+        <v>306</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -9828,14 +9834,14 @@
         <v>375</v>
       </c>
       <c r="B48" s="14" t="str">
-        <f>"309"</f>
-        <v>309</v>
+        <f>"307"</f>
+        <v>307</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -9843,14 +9849,14 @@
         <v>375</v>
       </c>
       <c r="B49" s="14" t="str">
-        <f>"310"</f>
-        <v>310</v>
+        <f>"308"</f>
+        <v>308</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>737</v>
+        <v>380</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>737</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -9858,14 +9864,14 @@
         <v>375</v>
       </c>
       <c r="B50" s="14" t="str">
-        <f>"311"</f>
-        <v>311</v>
+        <f>"309"</f>
+        <v>309</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -9873,14 +9879,14 @@
         <v>375</v>
       </c>
       <c r="B51" s="14" t="str">
-        <f>"312"</f>
-        <v>312</v>
+        <f>"310"</f>
+        <v>310</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>383</v>
+        <v>737</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>383</v>
+        <v>737</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -9888,14 +9894,14 @@
         <v>375</v>
       </c>
       <c r="B52" s="14" t="str">
-        <f>"313"</f>
-        <v>313</v>
+        <f>"311"</f>
+        <v>311</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -9903,14 +9909,14 @@
         <v>375</v>
       </c>
       <c r="B53" s="14" t="str">
-        <f>"314"</f>
-        <v>314</v>
+        <f>"312"</f>
+        <v>312</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -9918,14 +9924,14 @@
         <v>375</v>
       </c>
       <c r="B54" s="14" t="str">
-        <f>"315"</f>
-        <v>315</v>
+        <f>"313"</f>
+        <v>313</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -9933,14 +9939,14 @@
         <v>375</v>
       </c>
       <c r="B55" s="14" t="str">
-        <f>"316"</f>
-        <v>316</v>
+        <f>"314"</f>
+        <v>314</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -9948,14 +9954,14 @@
         <v>375</v>
       </c>
       <c r="B56" s="14" t="str">
-        <f>"317"</f>
-        <v>317</v>
+        <f>"315"</f>
+        <v>315</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -9963,14 +9969,14 @@
         <v>375</v>
       </c>
       <c r="B57" s="14" t="str">
-        <f>"318"</f>
-        <v>318</v>
+        <f>"316"</f>
+        <v>316</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -9978,14 +9984,14 @@
         <v>375</v>
       </c>
       <c r="B58" s="14" t="str">
-        <f>"319"</f>
-        <v>319</v>
+        <f>"317"</f>
+        <v>317</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -9993,14 +9999,14 @@
         <v>375</v>
       </c>
       <c r="B59" s="14" t="str">
-        <f>"320"</f>
-        <v>320</v>
+        <f>"318"</f>
+        <v>318</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -10008,14 +10014,14 @@
         <v>375</v>
       </c>
       <c r="B60" s="14" t="str">
-        <f>"321"</f>
-        <v>321</v>
+        <f>"319"</f>
+        <v>319</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -10023,14 +10029,14 @@
         <v>375</v>
       </c>
       <c r="B61" s="14" t="str">
-        <f>"322"</f>
-        <v>322</v>
+        <f>"320"</f>
+        <v>320</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -10038,14 +10044,14 @@
         <v>375</v>
       </c>
       <c r="B62" s="14" t="str">
-        <f>"323"</f>
-        <v>323</v>
+        <f>"321"</f>
+        <v>321</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -10053,14 +10059,14 @@
         <v>375</v>
       </c>
       <c r="B63" s="14" t="str">
-        <f>"324"</f>
-        <v>324</v>
+        <f>"322"</f>
+        <v>322</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -10068,71 +10074,93 @@
         <v>375</v>
       </c>
       <c r="B64" s="14" t="str">
+        <f>"323"</f>
+        <v>323</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>375</v>
+      </c>
+      <c r="B65" s="14" t="str">
+        <f>"324"</f>
+        <v>324</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>375</v>
+      </c>
+      <c r="B66" s="14" t="str">
         <f>"325"</f>
         <v>325</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C66" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D66" s="14" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B65" s="7"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B66" s="7"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B67" s="7"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B77" s="7"/>
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B79" s="7"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
     </row>
@@ -10198,50 +10226,52 @@
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96" s="7"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C96" s="7"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" s="7"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C97" s="7"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98" s="7"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99" s="7"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B100" s="7"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102" s="7"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B103" s="7"/>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" s="7"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B112" s="7"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
@@ -10270,6 +10300,12 @@
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B121" s="7"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B122" s="7"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B123" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
+++ b/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D092A90-C90C-4B9B-A049-43287918E3F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710ED8D3-8F4B-4D3C-BBFF-0D27B9A30C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="744">
   <si>
     <t>setting_name</t>
   </si>
@@ -2263,6 +2263,9 @@
   </si>
   <si>
     <t>Idrissa</t>
+  </si>
+  <si>
+    <t>Sona</t>
   </si>
 </sst>
 </file>
@@ -2365,7 +2368,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2388,7 +2391,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2800,9 +2802,9 @@
   <dimension ref="A1:O110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9211,11 +9213,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9240,7 +9242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>707</v>
       </c>
@@ -9255,7 +9257,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>707</v>
       </c>
@@ -9270,7 +9272,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>707</v>
       </c>
@@ -9285,7 +9287,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>707</v>
       </c>
@@ -9300,7 +9302,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>707</v>
       </c>
@@ -9315,7 +9317,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>707</v>
       </c>
@@ -9330,40 +9332,40 @@
         <v>742</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>554</v>
-      </c>
-      <c r="B9" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>632</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>630</v>
-      </c>
+    <row r="8" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="B8" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>554</v>
       </c>
       <c r="B10" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9371,96 +9373,96 @@
         <v>554</v>
       </c>
       <c r="B11" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>555</v>
+        <v>633</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>556</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="B12" s="13" t="str">
+      <c r="B12" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="B13" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-    </row>
     <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>63</v>
       </c>
       <c r="B15" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>699</v>
-      </c>
-      <c r="D17" t="s">
-        <v>698</v>
-      </c>
-    </row>
+    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>70</v>
       </c>
       <c r="B18" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>562</v>
+        <v>699</v>
+      </c>
+      <c r="D18" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9468,65 +9470,65 @@
         <v>70</v>
       </c>
       <c r="B19" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="13" t="str">
+      <c r="B20" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-    </row>
     <row r="22" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="B22" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>684</v>
-      </c>
-      <c r="D22" t="s">
-        <v>685</v>
-      </c>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>683</v>
       </c>
       <c r="B23" t="str">
-        <f>"4"</f>
-        <v>4</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D23" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9534,14 +9536,14 @@
         <v>683</v>
       </c>
       <c r="B24" t="str">
-        <f>"5"</f>
-        <v>5</v>
+        <f>"4"</f>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D24" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9549,14 +9551,14 @@
         <v>683</v>
       </c>
       <c r="B25" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"5"</f>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="D25" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9564,50 +9566,50 @@
         <v>683</v>
       </c>
       <c r="B26" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>703</v>
+      </c>
+      <c r="D26" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="B27" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>690</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
+    <row r="28" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>69</v>
       </c>
       <c r="B29" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -9615,47 +9617,47 @@
         <v>69</v>
       </c>
       <c r="B30" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>41</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-    </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>48</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B33" t="str">
         <f>"D:NS,M:NS,Y:NS"</f>
         <v>D:NS,M:NS,Y:NS</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>50</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>332</v>
-      </c>
-      <c r="B34" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>334</v>
-      </c>
-      <c r="D34" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -9663,14 +9665,14 @@
         <v>332</v>
       </c>
       <c r="B35" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -9678,47 +9680,47 @@
         <v>332</v>
       </c>
       <c r="B36" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>335</v>
+      </c>
+      <c r="D36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>332</v>
+      </c>
+      <c r="B37" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>336</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="7"/>
-    </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>397</v>
-      </c>
-      <c r="B38" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C38" s="15">
-        <v>1</v>
-      </c>
-      <c r="D38" s="15">
-        <v>1</v>
-      </c>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>397</v>
       </c>
       <c r="B39" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C39" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -9726,77 +9728,77 @@
         <v>397</v>
       </c>
       <c r="B40" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C40" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>397</v>
       </c>
-      <c r="B41" s="13" t="str">
-        <f>"4"</f>
-        <v>4</v>
+      <c r="B41" t="str">
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C41" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>397</v>
       </c>
-      <c r="B42" s="7" t="str">
+      <c r="B42" s="13" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C42" s="15">
+        <v>4</v>
+      </c>
+      <c r="D42" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>397</v>
+      </c>
+      <c r="B43" s="7" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>399</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="7"/>
-    </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>375</v>
-      </c>
-      <c r="B44" s="7" t="str">
-        <f>"301"</f>
-        <v>301</v>
-      </c>
-      <c r="C44" t="s">
-        <v>735</v>
-      </c>
-      <c r="D44" t="s">
-        <v>735</v>
-      </c>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>375</v>
       </c>
-      <c r="B45" s="14" t="str">
-        <f>"304"</f>
-        <v>304</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>376</v>
+      <c r="B45" s="7" t="str">
+        <f>"301"</f>
+        <v>301</v>
+      </c>
+      <c r="C45" t="s">
+        <v>735</v>
+      </c>
+      <c r="D45" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -9804,14 +9806,14 @@
         <v>375</v>
       </c>
       <c r="B46" s="14" t="str">
-        <f>"305"</f>
-        <v>305</v>
+        <f>"304"</f>
+        <v>304</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -9819,14 +9821,14 @@
         <v>375</v>
       </c>
       <c r="B47" s="14" t="str">
-        <f>"306"</f>
-        <v>306</v>
+        <f>"305"</f>
+        <v>305</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -9834,14 +9836,14 @@
         <v>375</v>
       </c>
       <c r="B48" s="14" t="str">
-        <f>"307"</f>
-        <v>307</v>
+        <f>"306"</f>
+        <v>306</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -9849,14 +9851,14 @@
         <v>375</v>
       </c>
       <c r="B49" s="14" t="str">
-        <f>"308"</f>
-        <v>308</v>
+        <f>"307"</f>
+        <v>307</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -9864,14 +9866,14 @@
         <v>375</v>
       </c>
       <c r="B50" s="14" t="str">
-        <f>"309"</f>
-        <v>309</v>
+        <f>"308"</f>
+        <v>308</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -9879,14 +9881,14 @@
         <v>375</v>
       </c>
       <c r="B51" s="14" t="str">
-        <f>"310"</f>
-        <v>310</v>
+        <f>"309"</f>
+        <v>309</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>737</v>
+        <v>381</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>737</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -9894,14 +9896,14 @@
         <v>375</v>
       </c>
       <c r="B52" s="14" t="str">
-        <f>"311"</f>
-        <v>311</v>
+        <f>"310"</f>
+        <v>310</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>382</v>
+        <v>737</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>382</v>
+        <v>737</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -9909,14 +9911,14 @@
         <v>375</v>
       </c>
       <c r="B53" s="14" t="str">
-        <f>"312"</f>
-        <v>312</v>
+        <f>"311"</f>
+        <v>311</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -9924,14 +9926,14 @@
         <v>375</v>
       </c>
       <c r="B54" s="14" t="str">
-        <f>"313"</f>
-        <v>313</v>
+        <f>"312"</f>
+        <v>312</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -9939,14 +9941,14 @@
         <v>375</v>
       </c>
       <c r="B55" s="14" t="str">
-        <f>"314"</f>
-        <v>314</v>
+        <f>"313"</f>
+        <v>313</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -9954,14 +9956,14 @@
         <v>375</v>
       </c>
       <c r="B56" s="14" t="str">
-        <f>"315"</f>
-        <v>315</v>
+        <f>"314"</f>
+        <v>314</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -9969,14 +9971,14 @@
         <v>375</v>
       </c>
       <c r="B57" s="14" t="str">
-        <f>"316"</f>
-        <v>316</v>
+        <f>"315"</f>
+        <v>315</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -9984,14 +9986,14 @@
         <v>375</v>
       </c>
       <c r="B58" s="14" t="str">
-        <f>"317"</f>
-        <v>317</v>
+        <f>"316"</f>
+        <v>316</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -9999,14 +10001,14 @@
         <v>375</v>
       </c>
       <c r="B59" s="14" t="str">
-        <f>"318"</f>
-        <v>318</v>
+        <f>"317"</f>
+        <v>317</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -10014,14 +10016,14 @@
         <v>375</v>
       </c>
       <c r="B60" s="14" t="str">
-        <f>"319"</f>
-        <v>319</v>
+        <f>"318"</f>
+        <v>318</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -10029,14 +10031,14 @@
         <v>375</v>
       </c>
       <c r="B61" s="14" t="str">
-        <f>"320"</f>
-        <v>320</v>
+        <f>"319"</f>
+        <v>319</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -10044,14 +10046,14 @@
         <v>375</v>
       </c>
       <c r="B62" s="14" t="str">
-        <f>"321"</f>
-        <v>321</v>
+        <f>"320"</f>
+        <v>320</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -10059,14 +10061,14 @@
         <v>375</v>
       </c>
       <c r="B63" s="14" t="str">
-        <f>"322"</f>
-        <v>322</v>
+        <f>"321"</f>
+        <v>321</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -10074,14 +10076,14 @@
         <v>375</v>
       </c>
       <c r="B64" s="14" t="str">
-        <f>"323"</f>
-        <v>323</v>
+        <f>"322"</f>
+        <v>322</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -10089,14 +10091,14 @@
         <v>375</v>
       </c>
       <c r="B65" s="14" t="str">
-        <f>"324"</f>
-        <v>324</v>
+        <f>"323"</f>
+        <v>323</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -10104,18 +10106,30 @@
         <v>375</v>
       </c>
       <c r="B66" s="14" t="str">
+        <f>"324"</f>
+        <v>324</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>375</v>
+      </c>
+      <c r="B67" s="14" t="str">
         <f>"325"</f>
         <v>325</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D67" s="14" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B68" s="7"/>
@@ -10131,7 +10145,6 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B73" s="7"/>
@@ -10158,10 +10171,10 @@
       <c r="C78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B79" s="7"/>
       <c r="C79" s="7"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B80" s="7"/>
       <c r="C80" s="7"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.35">
@@ -10234,6 +10247,7 @@
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99" s="7"/>
@@ -10253,8 +10267,8 @@
     <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104" s="7"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B106" s="7"/>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B105" s="7"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107" s="7"/>
@@ -10306,6 +10320,9 @@
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B123" s="7"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B124" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -10712,7 +10729,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">

--- a/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
+++ b/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710ED8D3-8F4B-4D3C-BBFF-0D27B9A30C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA021D5-F676-422A-862A-2EB8E6D8E1A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="745">
   <si>
     <t>setting_name</t>
   </si>
@@ -2266,6 +2266,9 @@
   </si>
   <si>
     <t>Sona</t>
+  </si>
+  <si>
+    <t>Leo</t>
   </si>
 </sst>
 </file>
@@ -2801,10 +2804,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787AB6FC-E5B2-448F-8A60-6571052C1548}">
   <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9213,11 +9216,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9348,39 +9351,39 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>554</v>
-      </c>
-      <c r="B10" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>632</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>630</v>
-      </c>
+      <c r="A9" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="B9" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>554</v>
       </c>
       <c r="B11" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9388,96 +9391,96 @@
         <v>554</v>
       </c>
       <c r="B12" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>555</v>
+        <v>633</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>556</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="B13" s="13" t="str">
+      <c r="B13" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="B14" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-    </row>
     <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>63</v>
       </c>
       <c r="B16" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>699</v>
-      </c>
-      <c r="D18" t="s">
-        <v>698</v>
-      </c>
-    </row>
+    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>70</v>
       </c>
       <c r="B19" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>562</v>
+        <v>699</v>
+      </c>
+      <c r="D19" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9485,65 +9488,65 @@
         <v>70</v>
       </c>
       <c r="B20" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="13" t="str">
+      <c r="B21" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-    </row>
     <row r="23" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="B23" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>684</v>
-      </c>
-      <c r="D23" t="s">
-        <v>685</v>
-      </c>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>683</v>
       </c>
       <c r="B24" t="str">
-        <f>"4"</f>
-        <v>4</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D24" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9551,14 +9554,14 @@
         <v>683</v>
       </c>
       <c r="B25" t="str">
-        <f>"5"</f>
-        <v>5</v>
+        <f>"4"</f>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D25" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9566,14 +9569,14 @@
         <v>683</v>
       </c>
       <c r="B26" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"5"</f>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="D26" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -9581,50 +9584,50 @@
         <v>683</v>
       </c>
       <c r="B27" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>703</v>
+      </c>
+      <c r="D27" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="B28" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>690</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
+    <row r="29" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>69</v>
       </c>
       <c r="B30" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -9632,47 +9635,47 @@
         <v>69</v>
       </c>
       <c r="B31" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>41</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-    </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>48</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B34" t="str">
         <f>"D:NS,M:NS,Y:NS"</f>
         <v>D:NS,M:NS,Y:NS</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>50</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>332</v>
-      </c>
-      <c r="B35" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>334</v>
-      </c>
-      <c r="D35" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -9680,14 +9683,14 @@
         <v>332</v>
       </c>
       <c r="B36" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -9695,47 +9698,47 @@
         <v>332</v>
       </c>
       <c r="B37" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>335</v>
+      </c>
+      <c r="D37" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>332</v>
+      </c>
+      <c r="B38" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>336</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="7"/>
-    </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>397</v>
-      </c>
-      <c r="B39" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C39" s="15">
-        <v>1</v>
-      </c>
-      <c r="D39" s="15">
-        <v>1</v>
-      </c>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>397</v>
       </c>
       <c r="B40" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C40" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -9743,77 +9746,77 @@
         <v>397</v>
       </c>
       <c r="B41" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C41" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>397</v>
       </c>
-      <c r="B42" s="13" t="str">
-        <f>"4"</f>
-        <v>4</v>
+      <c r="B42" t="str">
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C42" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>397</v>
       </c>
-      <c r="B43" s="7" t="str">
+      <c r="B43" s="13" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C43" s="15">
+        <v>4</v>
+      </c>
+      <c r="D43" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>397</v>
+      </c>
+      <c r="B44" s="7" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>399</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="7"/>
-    </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>375</v>
-      </c>
-      <c r="B45" s="7" t="str">
-        <f>"301"</f>
-        <v>301</v>
-      </c>
-      <c r="C45" t="s">
-        <v>735</v>
-      </c>
-      <c r="D45" t="s">
-        <v>735</v>
-      </c>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>375</v>
       </c>
-      <c r="B46" s="14" t="str">
-        <f>"304"</f>
-        <v>304</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>376</v>
+      <c r="B46" s="7" t="str">
+        <f>"301"</f>
+        <v>301</v>
+      </c>
+      <c r="C46" t="s">
+        <v>735</v>
+      </c>
+      <c r="D46" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -9821,14 +9824,14 @@
         <v>375</v>
       </c>
       <c r="B47" s="14" t="str">
-        <f>"305"</f>
-        <v>305</v>
+        <f>"304"</f>
+        <v>304</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -9836,14 +9839,14 @@
         <v>375</v>
       </c>
       <c r="B48" s="14" t="str">
-        <f>"306"</f>
-        <v>306</v>
+        <f>"305"</f>
+        <v>305</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -9851,14 +9854,14 @@
         <v>375</v>
       </c>
       <c r="B49" s="14" t="str">
-        <f>"307"</f>
-        <v>307</v>
+        <f>"306"</f>
+        <v>306</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -9866,14 +9869,14 @@
         <v>375</v>
       </c>
       <c r="B50" s="14" t="str">
-        <f>"308"</f>
-        <v>308</v>
+        <f>"307"</f>
+        <v>307</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -9881,14 +9884,14 @@
         <v>375</v>
       </c>
       <c r="B51" s="14" t="str">
-        <f>"309"</f>
-        <v>309</v>
+        <f>"308"</f>
+        <v>308</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -9896,14 +9899,14 @@
         <v>375</v>
       </c>
       <c r="B52" s="14" t="str">
-        <f>"310"</f>
-        <v>310</v>
+        <f>"309"</f>
+        <v>309</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>737</v>
+        <v>381</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>737</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -9911,14 +9914,14 @@
         <v>375</v>
       </c>
       <c r="B53" s="14" t="str">
-        <f>"311"</f>
-        <v>311</v>
+        <f>"310"</f>
+        <v>310</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>382</v>
+        <v>737</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>382</v>
+        <v>737</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -9926,14 +9929,14 @@
         <v>375</v>
       </c>
       <c r="B54" s="14" t="str">
-        <f>"312"</f>
-        <v>312</v>
+        <f>"311"</f>
+        <v>311</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -9941,14 +9944,14 @@
         <v>375</v>
       </c>
       <c r="B55" s="14" t="str">
-        <f>"313"</f>
-        <v>313</v>
+        <f>"312"</f>
+        <v>312</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -9956,14 +9959,14 @@
         <v>375</v>
       </c>
       <c r="B56" s="14" t="str">
-        <f>"314"</f>
-        <v>314</v>
+        <f>"313"</f>
+        <v>313</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -9971,14 +9974,14 @@
         <v>375</v>
       </c>
       <c r="B57" s="14" t="str">
-        <f>"315"</f>
-        <v>315</v>
+        <f>"314"</f>
+        <v>314</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -9986,14 +9989,14 @@
         <v>375</v>
       </c>
       <c r="B58" s="14" t="str">
-        <f>"316"</f>
-        <v>316</v>
+        <f>"315"</f>
+        <v>315</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -10001,14 +10004,14 @@
         <v>375</v>
       </c>
       <c r="B59" s="14" t="str">
-        <f>"317"</f>
-        <v>317</v>
+        <f>"316"</f>
+        <v>316</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -10016,14 +10019,14 @@
         <v>375</v>
       </c>
       <c r="B60" s="14" t="str">
-        <f>"318"</f>
-        <v>318</v>
+        <f>"317"</f>
+        <v>317</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -10031,14 +10034,14 @@
         <v>375</v>
       </c>
       <c r="B61" s="14" t="str">
-        <f>"319"</f>
-        <v>319</v>
+        <f>"318"</f>
+        <v>318</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -10046,14 +10049,14 @@
         <v>375</v>
       </c>
       <c r="B62" s="14" t="str">
-        <f>"320"</f>
-        <v>320</v>
+        <f>"319"</f>
+        <v>319</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -10061,14 +10064,14 @@
         <v>375</v>
       </c>
       <c r="B63" s="14" t="str">
-        <f>"321"</f>
-        <v>321</v>
+        <f>"320"</f>
+        <v>320</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -10076,14 +10079,14 @@
         <v>375</v>
       </c>
       <c r="B64" s="14" t="str">
-        <f>"322"</f>
-        <v>322</v>
+        <f>"321"</f>
+        <v>321</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -10091,14 +10094,14 @@
         <v>375</v>
       </c>
       <c r="B65" s="14" t="str">
-        <f>"323"</f>
-        <v>323</v>
+        <f>"322"</f>
+        <v>322</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -10106,14 +10109,14 @@
         <v>375</v>
       </c>
       <c r="B66" s="14" t="str">
-        <f>"324"</f>
-        <v>324</v>
+        <f>"323"</f>
+        <v>323</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -10121,18 +10124,30 @@
         <v>375</v>
       </c>
       <c r="B67" s="14" t="str">
+        <f>"324"</f>
+        <v>324</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>375</v>
+      </c>
+      <c r="B68" s="14" t="str">
         <f>"325"</f>
         <v>325</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C68" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D68" s="14" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B68" s="7"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B69" s="7"/>
@@ -10148,7 +10163,6 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B74" s="7"/>
@@ -10175,10 +10189,10 @@
       <c r="C79" s="7"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B80" s="7"/>
       <c r="C80" s="7"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B81" s="7"/>
       <c r="C81" s="7"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.35">
@@ -10251,6 +10265,7 @@
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B100" s="7"/>
@@ -10270,8 +10285,8 @@
     <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105" s="7"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B107" s="7"/>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B106" s="7"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B108" s="7"/>
@@ -10323,6 +10338,9 @@
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124" s="7"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B125" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
+++ b/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA021D5-F676-422A-862A-2EB8E6D8E1A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F497760D-9D67-4300-B61C-C8020040A11E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -2688,16 +2688,16 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>60120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2804,30 +2804,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787AB6FC-E5B2-448F-8A60-6571052C1548}">
   <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.1796875" customWidth="1"/>
+    <col min="8" max="8" width="53.140625" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="33.453125" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>553</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="11" t="s">
         <v>317</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="11" t="s">
         <v>317</v>
       </c>
@@ -2906,12 +2906,12 @@
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="11" t="s">
         <v>62</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>30</v>
       </c>
@@ -2946,12 +2946,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>52</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>40</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>40</v>
       </c>
@@ -2992,12 +2992,12 @@
         <v>639</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>40</v>
       </c>
@@ -3008,12 +3008,12 @@
         <v>641</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>40</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>40</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>40</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>40</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>40</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>40</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>37</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>37</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>37</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>37</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>37</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>37</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>37</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>37</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>37</v>
       </c>
@@ -3232,12 +3232,12 @@
         <v>627</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>678</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>278</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>278</v>
       </c>
@@ -3279,12 +3279,12 @@
         <v>673</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>38</v>
       </c>
@@ -3292,12 +3292,12 @@
         <v>573</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>37</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>38</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>62</v>
       </c>
@@ -3339,12 +3339,12 @@
         <v>604</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>38</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>317</v>
       </c>
@@ -3363,12 +3363,12 @@
         <v>649</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>38</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>317</v>
       </c>
@@ -3387,12 +3387,12 @@
         <v>660</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>38</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>317</v>
       </c>
@@ -3411,12 +3411,12 @@
         <v>661</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>38</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>317</v>
       </c>
@@ -3435,12 +3435,12 @@
         <v>662</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>38</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>317</v>
       </c>
@@ -3459,12 +3459,12 @@
         <v>663</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>38</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>317</v>
       </c>
@@ -3483,12 +3483,12 @@
         <v>664</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>38</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>317</v>
       </c>
@@ -3507,12 +3507,12 @@
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>38</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>317</v>
       </c>
@@ -3531,12 +3531,12 @@
         <v>666</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>38</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>317</v>
       </c>
@@ -3555,17 +3555,17 @@
         <v>659</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>682</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>40</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>37</v>
       </c>
@@ -3594,8 +3594,14 @@
       <c r="F73" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G73" t="s">
+        <v>696</v>
+      </c>
+      <c r="H73" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>38</v>
       </c>
@@ -3603,30 +3609,24 @@
         <v>709</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>317</v>
       </c>
       <c r="F75" t="s">
         <v>682</v>
-      </c>
-      <c r="G75" t="s">
-        <v>696</v>
-      </c>
-      <c r="H75" t="s">
-        <v>697</v>
       </c>
       <c r="I75" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>38</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>30</v>
       </c>
@@ -3648,27 +3648,27 @@
         <v>695</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I110" s="10"/>
     </row>
   </sheetData>
@@ -3683,29 +3683,29 @@
   <dimension ref="A1:O484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A443" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C461" sqref="C461"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -3760,18 +3760,18 @@
         <v>713</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>714</v>
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>40</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>37</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>40</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>37</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>37</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>37</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>37</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>37</v>
       </c>
@@ -3932,17 +3932,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>40</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>37</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>40</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>37</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>37</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>37</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>37</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>37</v>
       </c>
@@ -4097,17 +4097,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>133</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>40</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>37</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>38</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>40</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>37</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>37</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>37</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>37</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>37</v>
       </c>
@@ -4262,17 +4262,17 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>40</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>37</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>38</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>40</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>37</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>37</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>37</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>37</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>37</v>
       </c>
@@ -4433,17 +4433,17 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>40</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>37</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>38</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>40</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>37</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>37</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>37</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>37</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>37</v>
       </c>
@@ -4598,17 +4598,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>178</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>40</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>37</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>38</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>40</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>37</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>37</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>37</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>37</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>37</v>
       </c>
@@ -4763,17 +4763,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>193</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>40</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>37</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>38</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>40</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>37</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>37</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>37</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>37</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>37</v>
       </c>
@@ -4934,17 +4934,17 @@
         <v>192</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>208</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>40</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>37</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>38</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>40</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>37</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>37</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>37</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>37</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>37</v>
       </c>
@@ -5105,17 +5105,17 @@
         <v>207</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>228</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>40</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>37</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>38</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>40</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>37</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>37</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>37</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
         <v>37</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>37</v>
       </c>
@@ -5270,17 +5270,17 @@
         <v>222</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>242</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
         <v>40</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
         <v>37</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>38</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
         <v>40</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
         <v>37</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
         <v>37</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
         <v>37</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
         <v>37</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
         <v>37</v>
       </c>
@@ -5435,17 +5435,17 @@
         <v>241</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>259</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
         <v>40</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
         <v>37</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>38</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
         <v>40</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
         <v>37</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
         <v>37</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>37</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>37</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
         <v>37</v>
       </c>
@@ -5600,17 +5600,17 @@
         <v>256</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
         <v>40</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
         <v>37</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>38</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
         <v>40</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
         <v>37</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
         <v>37</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
         <v>37</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
         <v>37</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
         <v>37</v>
       </c>
@@ -5765,17 +5765,17 @@
         <v>271</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>277</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
         <v>40</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
         <v>37</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>38</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
         <v>278</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
         <v>40</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
         <v>37</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
         <v>37</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
         <v>37</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
         <v>37</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
         <v>37</v>
       </c>
@@ -5947,17 +5947,17 @@
         <v>291</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>38</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>292</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
         <v>40</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
         <v>37</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>38</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
         <v>278</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
         <v>40</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
         <v>37</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
         <v>37</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
         <v>37</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
         <v>37</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
         <v>37</v>
       </c>
@@ -6137,22 +6137,22 @@
         <v>305</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>308</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
         <v>40</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
         <v>37</v>
       </c>
@@ -6188,12 +6188,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>312</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
         <v>40</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D183" t="s">
         <v>37</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>38</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D185" t="s">
         <v>37</v>
       </c>
@@ -6254,17 +6254,17 @@
         <v>411</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>425</v>
       </c>
@@ -6275,12 +6275,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
         <v>40</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D191" t="s">
         <v>40</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
         <v>30</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D193" t="s">
         <v>316</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>38</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D195" t="s">
         <v>317</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D196" t="s">
         <v>318</v>
       </c>
@@ -6360,12 +6360,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
         <v>278</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
         <v>37</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>319</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D201" t="s">
         <v>278</v>
       </c>
@@ -6418,22 +6418,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
         <v>40</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
         <v>40</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
         <v>62</v>
       </c>
@@ -6472,17 +6472,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>426</v>
       </c>
@@ -6493,12 +6493,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D212" t="s">
         <v>40</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D213" t="s">
         <v>40</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
         <v>30</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D215" t="s">
         <v>316</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>38</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
         <v>317</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D218" t="s">
         <v>318</v>
       </c>
@@ -6578,12 +6578,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D220" t="s">
         <v>278</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
         <v>37</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>319</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D223" t="s">
         <v>278</v>
       </c>
@@ -6636,22 +6636,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D227" t="s">
         <v>40</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D228" t="s">
         <v>40</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D229" t="s">
         <v>62</v>
       </c>
@@ -6690,17 +6690,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>431</v>
       </c>
@@ -6711,12 +6711,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
         <v>40</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D235" t="s">
         <v>40</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D236" t="s">
         <v>30</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D237" t="s">
         <v>316</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>38</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D239" t="s">
         <v>317</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
         <v>318</v>
       </c>
@@ -6796,12 +6796,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
         <v>278</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
         <v>37</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>319</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
         <v>278</v>
       </c>
@@ -6854,22 +6854,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
         <v>40</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
         <v>40</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
         <v>62</v>
       </c>
@@ -6908,17 +6908,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>445</v>
       </c>
@@ -6929,12 +6929,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
         <v>40</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
         <v>40</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
         <v>30</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
         <v>316</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>38</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
         <v>317</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
         <v>318</v>
       </c>
@@ -7014,12 +7014,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
         <v>278</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
         <v>37</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>319</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
         <v>278</v>
       </c>
@@ -7072,22 +7072,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
         <v>40</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D272" t="s">
         <v>40</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
         <v>62</v>
       </c>
@@ -7126,17 +7126,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>465</v>
       </c>
@@ -7147,12 +7147,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
         <v>40</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
         <v>40</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D280" t="s">
         <v>30</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
         <v>316</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>38</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
         <v>317</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
         <v>318</v>
       </c>
@@ -7232,12 +7232,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
         <v>278</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
         <v>37</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>319</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
         <v>278</v>
       </c>
@@ -7290,22 +7290,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D293" t="s">
         <v>40</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D294" t="s">
         <v>40</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D295" t="s">
         <v>62</v>
       </c>
@@ -7344,17 +7344,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>320</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
         <v>40</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D300" t="s">
         <v>37</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>38</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D302" t="s">
         <v>37</v>
       </c>
@@ -7415,17 +7415,17 @@
         <v>474</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>518</v>
       </c>
@@ -7436,12 +7436,12 @@
         <v>475</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D307" t="s">
         <v>40</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D308" t="s">
         <v>40</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D309" t="s">
         <v>30</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D310" t="s">
         <v>316</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>38</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D312" t="s">
         <v>317</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
         <v>318</v>
       </c>
@@ -7521,12 +7521,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D315" t="s">
         <v>37</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>38</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D317" t="s">
         <v>318</v>
       </c>
@@ -7565,22 +7565,22 @@
         <v>719</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D321" t="s">
         <v>40</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D322" t="s">
         <v>40</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
         <v>278</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D324" t="s">
         <v>37</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>319</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D326" t="s">
         <v>278</v>
       </c>
@@ -7655,22 +7655,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D330" t="s">
         <v>40</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D331" t="s">
         <v>40</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D332" t="s">
         <v>62</v>
       </c>
@@ -7709,17 +7709,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>515</v>
       </c>
@@ -7730,12 +7730,12 @@
         <v>483</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="337" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D337" t="s">
         <v>40</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="338" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D338" t="s">
         <v>40</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="339" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D339" t="s">
         <v>30</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="340" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D340" t="s">
         <v>316</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="341" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>38</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="342" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
         <v>317</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="343" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
         <v>318</v>
       </c>
@@ -7815,12 +7815,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="345" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D345" t="s">
         <v>37</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="346" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>38</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="347" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
         <v>318</v>
       </c>
@@ -7859,22 +7859,22 @@
         <v>719</v>
       </c>
     </row>
-    <row r="348" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="349" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="350" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="351" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D351" t="s">
         <v>40</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="352" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D352" t="s">
         <v>40</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D353" t="s">
         <v>278</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D354" t="s">
         <v>37</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>319</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D356" t="s">
         <v>278</v>
       </c>
@@ -7949,22 +7949,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D360" t="s">
         <v>40</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D361" t="s">
         <v>40</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D362" t="s">
         <v>62</v>
       </c>
@@ -8003,17 +8003,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>519</v>
       </c>
@@ -8024,12 +8024,12 @@
         <v>491</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D367" t="s">
         <v>40</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D368" t="s">
         <v>40</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="369" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D369" t="s">
         <v>30</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="370" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D370" t="s">
         <v>316</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="371" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
         <v>38</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="372" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D372" t="s">
         <v>317</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="373" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D373" t="s">
         <v>318</v>
       </c>
@@ -8109,12 +8109,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="374" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="375" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D375" t="s">
         <v>37</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="376" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
         <v>38</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="377" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D377" t="s">
         <v>318</v>
       </c>
@@ -8153,22 +8153,22 @@
         <v>719</v>
       </c>
     </row>
-    <row r="378" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="379" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="380" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="381" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D381" t="s">
         <v>40</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="382" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D382" t="s">
         <v>40</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="383" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D383" t="s">
         <v>278</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="384" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D384" t="s">
         <v>37</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
         <v>319</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D386" t="s">
         <v>278</v>
       </c>
@@ -8243,22 +8243,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D390" t="s">
         <v>40</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D391" t="s">
         <v>40</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D392" t="s">
         <v>62</v>
       </c>
@@ -8297,17 +8297,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>516</v>
       </c>
@@ -8318,12 +8318,12 @@
         <v>499</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D397" t="s">
         <v>40</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D398" t="s">
         <v>40</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D399" t="s">
         <v>30</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D400" t="s">
         <v>316</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="401" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
         <v>38</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="402" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D402" t="s">
         <v>317</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="403" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D403" t="s">
         <v>318</v>
       </c>
@@ -8403,12 +8403,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="404" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="405" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D405" t="s">
         <v>37</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="406" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
         <v>38</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="407" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D407" t="s">
         <v>318</v>
       </c>
@@ -8447,22 +8447,22 @@
         <v>719</v>
       </c>
     </row>
-    <row r="408" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="409" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="410" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="411" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D411" t="s">
         <v>40</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="412" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D412" t="s">
         <v>40</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="413" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D413" t="s">
         <v>278</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="414" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D414" t="s">
         <v>37</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="415" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
         <v>319</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="416" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D416" t="s">
         <v>278</v>
       </c>
@@ -8537,22 +8537,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D420" t="s">
         <v>40</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D421" t="s">
         <v>40</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D422" t="s">
         <v>62</v>
       </c>
@@ -8591,17 +8591,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>517</v>
       </c>
@@ -8612,12 +8612,12 @@
         <v>507</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D427" t="s">
         <v>40</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D428" t="s">
         <v>40</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D429" t="s">
         <v>30</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D430" t="s">
         <v>316</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
         <v>38</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D432" t="s">
         <v>317</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="433" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D433" t="s">
         <v>318</v>
       </c>
@@ -8697,12 +8697,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="434" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="435" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D435" t="s">
         <v>37</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="436" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
         <v>38</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="437" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D437" t="s">
         <v>318</v>
       </c>
@@ -8741,22 +8741,22 @@
         <v>719</v>
       </c>
     </row>
-    <row r="438" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="439" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="440" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="441" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D441" t="s">
         <v>40</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="442" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D442" t="s">
         <v>40</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="443" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D443" t="s">
         <v>278</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="444" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D444" t="s">
         <v>37</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="445" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
         <v>319</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="446" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D446" t="s">
         <v>278</v>
       </c>
@@ -8831,22 +8831,22 @@
         <v>350</v>
       </c>
     </row>
-    <row r="447" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B447" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="448" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D450" t="s">
         <v>40</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D451" t="s">
         <v>40</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D452" t="s">
         <v>62</v>
       </c>
@@ -8885,17 +8885,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B453" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B454" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>323</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D456" t="s">
         <v>40</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D457" t="s">
         <v>37</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B458" t="s">
         <v>38</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D459" t="s">
         <v>278</v>
       </c>
@@ -8953,17 +8953,17 @@
         <v>362</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B461" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>327</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D463" t="s">
         <v>40</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D464" t="s">
         <v>37</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D465" t="s">
         <v>37</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B466" t="s">
         <v>38</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D467" t="s">
         <v>37</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B468" t="s">
         <v>38</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D469" t="s">
         <v>278</v>
       </c>
@@ -9063,12 +9063,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D471" t="s">
         <v>37</v>
       </c>
@@ -9085,17 +9085,17 @@
         <v>372</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B472" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B473" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>678</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D475" t="s">
         <v>40</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D476" t="s">
         <v>278</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D477" t="s">
         <v>278</v>
       </c>
@@ -9148,12 +9148,12 @@
         <v>673</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B478" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B479" t="s">
         <v>38</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>671</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="481" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D481" t="s">
         <v>40</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="482" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D482" t="s">
         <v>37</v>
       </c>
@@ -9197,12 +9197,12 @@
         <v>681</v>
       </c>
     </row>
-    <row r="483" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B483" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="484" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B484" t="s">
         <v>39</v>
       </c>
@@ -9218,20 +9218,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>707</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>707</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>707</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>707</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>707</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>707</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>707</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>707</v>
       </c>
@@ -9365,13 +9365,13 @@
         <v>744</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>554</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>554</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>554</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>554</v>
       </c>
@@ -9431,13 +9431,13 @@
         <v>635</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -9467,8 +9467,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -9528,13 +9528,13 @@
         <v>705</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>683</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>683</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>683</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>683</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>683</v>
       </c>
@@ -9609,13 +9609,13 @@
         <v>691</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -9660,10 +9660,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>332</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>332</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>332</v>
       </c>
@@ -9723,10 +9723,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>397</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>397</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>397</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>397</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>397</v>
       </c>
@@ -9801,10 +9801,10 @@
         <v>398</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>375</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>375</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>375</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>375</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>375</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>375</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>375</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>375</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>375</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>375</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>375</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>375</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>375</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>375</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>375</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>375</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>375</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>375</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>375</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>375</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>375</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>375</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>375</v>
       </c>
@@ -10149,197 +10149,197 @@
         <v>396</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" s="7"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
     </row>
   </sheetData>
@@ -10358,13 +10358,13 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>595</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>596</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>600</v>
       </c>
@@ -10411,15 +10411,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -10462,15 +10462,15 @@
       <selection pane="bottomLeft" activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>576</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>577</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>578</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>579</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>580</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>581</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>582</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>585</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>586</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>587</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>588</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>589</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>592</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>590</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>670</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>591</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>593</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>642</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>644</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>712</v>
       </c>
@@ -10746,10 +10746,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>708</v>
       </c>
@@ -10764,7 +10764,7 @@
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>693</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>646</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>682</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>557</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>570</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>567</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>568</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>569</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>564</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>565</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>566</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>583</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>571</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>584</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>572</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>667</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>679</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>105</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>107</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>140</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>151</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>153</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>155</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>157</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>159</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>161</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>168</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>170</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>172</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>174</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>176</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>183</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>185</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>187</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>189</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>191</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>196</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>198</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>200</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>202</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>204</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>206</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>211</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>213</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>215</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>217</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>219</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>221</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>230</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>232</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>234</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>236</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>238</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>240</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>245</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>247</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>249</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>251</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>253</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>255</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>260</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>262</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>264</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>266</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>268</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>270</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>276</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>279</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>282</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>284</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>286</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>288</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>290</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>294</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>295</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>296</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>298</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>300</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>302</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>304</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>309</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>314</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>400</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>402</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>408</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>403</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>405</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>406</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>407</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>404</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>414</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>423</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>415</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>416</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>417</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>419</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>420</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>434</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>435</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>436</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>438</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>439</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>440</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>442</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>446</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>455</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>447</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>448</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>449</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>451</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>452</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>458</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>467</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>459</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>460</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>461</v>
       </c>
@@ -12319,7 +12319,7 @@
       </c>
       <c r="J165" s="11"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>463</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>464</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>321</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>472</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>476</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>520</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>477</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>720</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>721</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>478</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>479</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>481</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>482</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>484</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>523</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>485</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>722</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>723</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>486</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>487</v>
       </c>
@@ -12539,7 +12539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>489</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>490</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>492</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>526</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>493</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>724</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>725</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>494</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>495</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>497</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>498</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>500</v>
       </c>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>529</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>501</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>726</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>727</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>502</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>503</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>505</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>506</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>508</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>532</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>509</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>728</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>729</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>510</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>511</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>513</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>514</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>324</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>326</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>327</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>328</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>330</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>331</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>333</v>
       </c>

--- a/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
+++ b/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F497760D-9D67-4300-B61C-C8020040A11E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44C02C8-DA29-49F0-BF7F-E6C33760FF9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="834">
   <si>
     <t>setting_name</t>
   </si>
@@ -2269,6 +2269,273 @@
   </si>
   <si>
     <t>Leo</t>
+  </si>
+  <si>
+    <t>data("ASSISTENTE") != null</t>
+  </si>
+  <si>
+    <t>data("CONSTI") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("TOSSE") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("FEBRE") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("DISPNE") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("VOMITO") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("DIARRE") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("OLFATO") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("PALADA") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("CABECA") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("GARGAN") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("CORPO") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("CONSAC") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("OUSIN1") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("PESO") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("CONS") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("CONSNUM") != null || data("CONS") != '1'</t>
+  </si>
+  <si>
+    <t>data("CONS1DATA") != null || data("CONS") != '1'</t>
+  </si>
+  <si>
+    <t>data("CONS2DATA") != null || data("CONS") != '1' || data('CONSNUM')=='1'</t>
+  </si>
+  <si>
+    <t>data("CONS3DATA") != null || data("CONS") != '1' || data('CONSNUM')=='1' || data('CONSNUM')=='2'</t>
+  </si>
+  <si>
+    <t>data("CONS4DATA") != null || data("CONS") != '1' || data('CONSNUM')=='1' || data('CONSNUM')=='2' || data('CONSNUM')=='3'</t>
+  </si>
+  <si>
+    <t>data("CONS5DATA") != null || data("CONS") != '1' || data('CONSNUM')=='1' || data('CONSNUM')=='2' || data('CONSNUM')=='3' || data('CONSNUM')=='4'</t>
+  </si>
+  <si>
+    <t>data("HOSP") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("HOSPNUM") != null || data("HOSP") != '1'</t>
+  </si>
+  <si>
+    <t>data("HOSP1DATA") != null || data("HOSP") != '1'</t>
+  </si>
+  <si>
+    <t>data("HOSP2DATA") != null || data("HOSP") != '1' || data("HOSPNUM") == '1'</t>
+  </si>
+  <si>
+    <t>data("HOSP3DATA") != null || data("HOSP") != '1' || data("HOSPNUM") == '1' || data("HOSPNUM") == '2'</t>
+  </si>
+  <si>
+    <t>data("HOSP4DATA") != null || data("HOSP") != '1' || data("HOSPNUM") == '1' || data("HOSPNUM") == '2' || data("HOSPNUM") == '3'</t>
+  </si>
+  <si>
+    <t>data("MEDICA") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("COVID") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("COVIDTESTE") != null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("COVIDTESTE") != '1' || data("TESTEGANA") != null</t>
+  </si>
+  <si>
+    <t>data("ESTADO") != null || data("TELSUC") ==  null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("DATASAI") != null || data("ESTADO") == null ||  data("ESTADO") == '1' ||  data("ESTADO") == '4' ||  data("ESTADO") == '5' </t>
+  </si>
+  <si>
+    <t>data("HOSP1DIAG") != '1' || data("HOSP1DIAGQ") != null</t>
+  </si>
+  <si>
+    <t>data("HOSP2DIAG") != '1' || data("HOSP2DIAGQ") != null</t>
+  </si>
+  <si>
+    <t>data("HOSP3DIAG") != '1' || data("HOSP3DIAGQ") != null</t>
+  </si>
+  <si>
+    <t>data("HOSP4DIAG") != '1' || data("HOSP4DIAGQ") != null</t>
+  </si>
+  <si>
+    <t>data("HOSP5DATA") != null || data("HOSP") != '1' || data("HOSPNUM") == '1' || data("HOSPNUM") == '2' || data("HOSPNUM") == '3' || data("HOSPNUM") == '4'</t>
+  </si>
+  <si>
+    <t>data("HOSP5DIAG") != '1' || data("HOSP5DIAGQ") != null</t>
+  </si>
+  <si>
+    <t>data("INF") !=  '2' || data("INFOU")!= null</t>
+  </si>
+  <si>
+    <t>data("HOSP1NOITE") != null || data("HOSP1DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP1MOTIV") != null || data("HOSP1DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP1DIAG") != null || data("HOSP1DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP1ONDE") != null || data("HOSP1DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP2NOITE") != null || data("HOSP2DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP2MOTIV") != null || data("HOSP2DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP2DIAG") != null || data("HOSP2DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP3NOITE") != null || data("HOSP3DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP3MOTIV") != null || data("HOSP3DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP3DIAG") != null || data("HOSP3DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP4NOITE") != null || data("HOSP4DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP4MOTIV") != null || data("HOSP4DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP4DIAG") != null || data("HOSP4DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP5NOITE") != null || data("HOSP5DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP5MOTIV") != null || data("HOSP5DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP5DIAG") != null || data("HOSP5DATA") == null</t>
+  </si>
+  <si>
+    <t>data("CONS1MOTIV") != null || data("CONS1DATA") == null</t>
+  </si>
+  <si>
+    <t>data("CONS1DIAG") != null || data("CONS1DATA") == null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("CONS1ONDE") != null || data("CONS1DATA") == null </t>
+  </si>
+  <si>
+    <t>data("CONS1DIAGQ") != null || data("CONS1DATA") == null || data("CONS1DIAG") == '2'</t>
+  </si>
+  <si>
+    <t>data("CONS2MOTIV") != null || data("CONS2DATA") == null</t>
+  </si>
+  <si>
+    <t>data("CONS2DIAG") != null || data("CONS2DATA") == null</t>
+  </si>
+  <si>
+    <t>data("CONS2DIAGQ") != null || data("CONS2DATA") == null || data("CONS2DIAG") == '2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("CONS2ONDE") != null || data("CONS2DATA") == null </t>
+  </si>
+  <si>
+    <t>data("CONS3MOTIV") != null || data("CONS3DATA") == null</t>
+  </si>
+  <si>
+    <t>data("CONS3DIAG") != null || data("CONS3DATA") == null</t>
+  </si>
+  <si>
+    <t>data("CONS3DIAGQ") != null || data("CONS3DATA") == null || data("CONS3DIAG") == '2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("CONS3ONDE") != null || data("CONS3DATA") == null </t>
+  </si>
+  <si>
+    <t>data("CONS4MOTIV") != null || data("CONS4DATA") == null</t>
+  </si>
+  <si>
+    <t>data("CONS4DIAG") != null || data("CONS4DATA") == null</t>
+  </si>
+  <si>
+    <t>data("CONS4DIAGQ") != null || data("CONS4DATA") == null || data("CONS4DIAG") == '2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("CONS4ONDE") != null || data("CONS4DATA") == null </t>
+  </si>
+  <si>
+    <t>data("CONS5MOTIV") != null || data("CONS5DATA") == null</t>
+  </si>
+  <si>
+    <t>data("CONS5DIAG") != null || data("CONS5DATA") == null</t>
+  </si>
+  <si>
+    <t>data("CONS5DIAGQ") != null || data("CONS5DATA") == null || data("CONS5DIAG") == '2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("CONS5ONDE") != null || data("CONS5DATA") == null </t>
+  </si>
+  <si>
+    <t>data("HOSP2ONDE") != null || data("HOSP2DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP3ONDE") != null || data("HOSP3DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP4ONDE") != null || data("HOSP4DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP5ONDE") != null || data("HOSP5DATA") == null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("MEDICAQU") != null || data("ESTADO") == null || data("MEDICA") == '2' </t>
+  </si>
+  <si>
+    <t>data("OUSIN2") != null ||data("OUSIN1") == '2' || data("OUSIN1") == '3'|| data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("INF")!= null || data("ESTADO") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP1NODIA") != null || data("HOSP1NOITE")== '2'||data("HOSP1NOITE")== '3'|| data("HOSP1DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP2NODIA") != null || data("HOSP2NOITE")=='3'||  data("HOSP2NOITE")=='2' || data("HOSP2DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP3NODIA") != null  || data("HOSP3NOITE") =='2'||  data("HOSP3NOITE") =='3'||data("HOSP3DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP4NODIA") != null  || data("HOSP4NOITE")=='2' || data("HOSP4NOITE")=='3'|| data("HOSP4DATA") == null</t>
+  </si>
+  <si>
+    <t>data("HOSP5NODIA") != null  || data("HOSP5NOITE")=='3'|| data("HOSP5NOITE")=='2'|| data("HOSP5DATA") == null</t>
   </si>
 </sst>
 </file>
@@ -2278,7 +2545,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2338,13 +2605,32 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2371,7 +2657,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2398,6 +2684,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2688,16 +2979,16 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2717,7 +3008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2725,7 +3016,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2733,7 +3024,7 @@
         <v>60120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2741,7 +3032,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2753,7 +3044,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2764,7 +3055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -2775,7 +3066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -2783,7 +3074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2805,29 +3096,29 @@
   <dimension ref="A1:O110"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="H75" sqref="H75"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.140625" customWidth="1"/>
+    <col min="8" max="8" width="53.1796875" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" customWidth="1"/>
+    <col min="11" max="11" width="33.453125" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2868,7 +3159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>553</v>
       </c>
@@ -2876,7 +3167,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D3" s="11" t="s">
         <v>317</v>
       </c>
@@ -2887,7 +3178,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
@@ -2895,7 +3186,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D5" s="11" t="s">
         <v>317</v>
       </c>
@@ -2906,12 +3197,12 @@
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D7" s="11" t="s">
         <v>62</v>
       </c>
@@ -2928,7 +3219,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>30</v>
       </c>
@@ -2946,12 +3237,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J9" s="18" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>52</v>
       </c>
@@ -2962,7 +3256,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>40</v>
       </c>
@@ -2973,7 +3267,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -2981,7 +3275,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>40</v>
       </c>
@@ -2992,12 +3286,12 @@
         <v>639</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>40</v>
       </c>
@@ -3008,12 +3302,12 @@
         <v>641</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>40</v>
       </c>
@@ -3024,7 +3318,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>40</v>
       </c>
@@ -3035,7 +3329,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>40</v>
       </c>
@@ -3046,7 +3340,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>40</v>
       </c>
@@ -3057,7 +3351,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>40</v>
       </c>
@@ -3068,7 +3362,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>40</v>
       </c>
@@ -3079,7 +3373,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>37</v>
       </c>
@@ -3096,7 +3390,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>37</v>
       </c>
@@ -3113,7 +3407,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>37</v>
       </c>
@@ -3130,7 +3424,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>37</v>
       </c>
@@ -3147,7 +3441,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>37</v>
       </c>
@@ -3164,7 +3458,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
         <v>37</v>
       </c>
@@ -3181,7 +3475,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
         <v>37</v>
       </c>
@@ -3198,7 +3492,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
         <v>37</v>
       </c>
@@ -3215,7 +3509,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>37</v>
       </c>
@@ -3232,12 +3526,12 @@
         <v>627</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>678</v>
       </c>
@@ -3245,7 +3539,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>278</v>
       </c>
@@ -3262,7 +3556,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>278</v>
       </c>
@@ -3279,12 +3573,12 @@
         <v>673</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>38</v>
       </c>
@@ -3292,12 +3586,12 @@
         <v>573</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
         <v>37</v>
       </c>
@@ -3313,8 +3607,11 @@
       <c r="H39" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J39" s="18" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>38</v>
       </c>
@@ -3322,7 +3619,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
         <v>62</v>
       </c>
@@ -3338,13 +3635,16 @@
       <c r="H41" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J41" s="18" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>38</v>
       </c>
@@ -3352,7 +3652,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D44" t="s">
         <v>317</v>
       </c>
@@ -3363,12 +3663,12 @@
         <v>649</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>38</v>
       </c>
@@ -3376,7 +3676,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
         <v>317</v>
       </c>
@@ -3387,12 +3687,12 @@
         <v>660</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>38</v>
       </c>
@@ -3400,7 +3700,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
         <v>317</v>
       </c>
@@ -3411,12 +3711,12 @@
         <v>661</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>38</v>
       </c>
@@ -3424,7 +3724,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D53" t="s">
         <v>317</v>
       </c>
@@ -3435,12 +3735,12 @@
         <v>662</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>38</v>
       </c>
@@ -3448,7 +3748,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D56" t="s">
         <v>317</v>
       </c>
@@ -3459,12 +3759,12 @@
         <v>663</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>38</v>
       </c>
@@ -3472,7 +3772,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D59" t="s">
         <v>317</v>
       </c>
@@ -3483,12 +3783,12 @@
         <v>664</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>38</v>
       </c>
@@ -3496,7 +3796,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D62" t="s">
         <v>317</v>
       </c>
@@ -3507,12 +3807,12 @@
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>38</v>
       </c>
@@ -3520,7 +3820,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D65" t="s">
         <v>317</v>
       </c>
@@ -3531,12 +3831,12 @@
         <v>666</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>38</v>
       </c>
@@ -3544,7 +3844,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D68" t="s">
         <v>317</v>
       </c>
@@ -3555,17 +3855,17 @@
         <v>659</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>682</v>
       </c>
@@ -3573,7 +3873,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D72" t="s">
         <v>40</v>
       </c>
@@ -3584,7 +3884,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D73" t="s">
         <v>37</v>
       </c>
@@ -3600,8 +3900,11 @@
       <c r="H73" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="18" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>38</v>
       </c>
@@ -3609,7 +3912,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D75" t="s">
         <v>317</v>
       </c>
@@ -3621,12 +3924,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>38</v>
       </c>
@@ -3634,7 +3937,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D78" t="s">
         <v>30</v>
       </c>
@@ -3647,28 +3950,32 @@
       <c r="H78" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="18" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I110" s="10"/>
     </row>
   </sheetData>
@@ -3682,30 +3989,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E034F7AB-A88F-4084-9C1D-FD9CFEAF70F4}">
   <dimension ref="A1:O484"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C461" sqref="C461"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J458" sqref="J458"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -3752,7 +4059,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
@@ -3760,18 +4067,18 @@
         <v>713</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
         <v>714</v>
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -3779,7 +4086,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>40</v>
       </c>
@@ -3790,7 +4097,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>37</v>
       </c>
@@ -3806,6 +4113,9 @@
       <c r="H7" t="s">
         <v>84</v>
       </c>
+      <c r="J7" s="19" t="s">
+        <v>746</v>
+      </c>
       <c r="K7" t="s">
         <v>83</v>
       </c>
@@ -3813,7 +4123,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -3821,7 +4131,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>40</v>
       </c>
@@ -3832,7 +4142,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>37</v>
       </c>
@@ -3852,7 +4162,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>37</v>
       </c>
@@ -3872,7 +4182,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>37</v>
       </c>
@@ -3892,7 +4202,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>37</v>
       </c>
@@ -3912,7 +4222,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>37</v>
       </c>
@@ -3932,17 +4242,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -3950,7 +4260,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>40</v>
       </c>
@@ -3961,7 +4271,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>37</v>
       </c>
@@ -3977,8 +4287,11 @@
       <c r="H19" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="19" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -3986,7 +4299,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>40</v>
       </c>
@@ -3997,7 +4310,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>37</v>
       </c>
@@ -4017,7 +4330,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>37</v>
       </c>
@@ -4037,7 +4350,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>37</v>
       </c>
@@ -4057,7 +4370,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>37</v>
       </c>
@@ -4077,7 +4390,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>37</v>
       </c>
@@ -4097,17 +4410,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>133</v>
       </c>
@@ -4115,7 +4429,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
         <v>40</v>
       </c>
@@ -4126,7 +4440,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>37</v>
       </c>
@@ -4142,8 +4456,11 @@
       <c r="H31" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="19" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>38</v>
       </c>
@@ -4151,7 +4468,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>40</v>
       </c>
@@ -4162,7 +4479,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>37</v>
       </c>
@@ -4182,7 +4499,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>37</v>
       </c>
@@ -4202,7 +4519,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>37</v>
       </c>
@@ -4222,7 +4539,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>37</v>
       </c>
@@ -4242,7 +4559,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
         <v>37</v>
       </c>
@@ -4262,17 +4579,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -4280,7 +4598,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
         <v>40</v>
       </c>
@@ -4291,7 +4609,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
         <v>37</v>
       </c>
@@ -4307,6 +4625,9 @@
       <c r="H43" t="s">
         <v>134</v>
       </c>
+      <c r="J43" s="19" t="s">
+        <v>749</v>
+      </c>
       <c r="K43" t="s">
         <v>150</v>
       </c>
@@ -4314,7 +4635,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>38</v>
       </c>
@@ -4322,7 +4643,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
         <v>40</v>
       </c>
@@ -4333,7 +4654,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>37</v>
       </c>
@@ -4353,7 +4674,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
         <v>37</v>
       </c>
@@ -4373,7 +4694,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D48" t="s">
         <v>37</v>
       </c>
@@ -4393,7 +4714,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D49" t="s">
         <v>37</v>
       </c>
@@ -4413,7 +4734,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
         <v>37</v>
       </c>
@@ -4433,17 +4754,18 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -4451,7 +4773,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D54" t="s">
         <v>40</v>
       </c>
@@ -4462,7 +4784,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D55" t="s">
         <v>37</v>
       </c>
@@ -4478,8 +4800,11 @@
       <c r="H55" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J55" s="19" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>38</v>
       </c>
@@ -4487,7 +4812,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
         <v>40</v>
       </c>
@@ -4498,7 +4823,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D58" t="s">
         <v>37</v>
       </c>
@@ -4518,7 +4843,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D59" t="s">
         <v>37</v>
       </c>
@@ -4538,7 +4863,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D60" t="s">
         <v>37</v>
       </c>
@@ -4558,7 +4883,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D61" t="s">
         <v>37</v>
       </c>
@@ -4578,7 +4903,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D62" t="s">
         <v>37</v>
       </c>
@@ -4598,17 +4923,18 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J64" s="18"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>178</v>
       </c>
@@ -4616,7 +4942,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D66" t="s">
         <v>40</v>
       </c>
@@ -4627,7 +4953,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D67" t="s">
         <v>37</v>
       </c>
@@ -4643,8 +4969,11 @@
       <c r="H67" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J67" s="19" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>38</v>
       </c>
@@ -4652,7 +4981,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D69" t="s">
         <v>40</v>
       </c>
@@ -4663,7 +4992,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D70" t="s">
         <v>37</v>
       </c>
@@ -4683,7 +5012,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D71" t="s">
         <v>37</v>
       </c>
@@ -4703,7 +5032,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D72" t="s">
         <v>37</v>
       </c>
@@ -4723,7 +5052,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D73" t="s">
         <v>37</v>
       </c>
@@ -4743,7 +5072,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D74" t="s">
         <v>37</v>
       </c>
@@ -4763,17 +5092,18 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J76" s="18"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>193</v>
       </c>
@@ -4781,7 +5111,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D78" t="s">
         <v>40</v>
       </c>
@@ -4792,7 +5122,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D79" t="s">
         <v>37</v>
       </c>
@@ -4808,6 +5138,9 @@
       <c r="H79" t="s">
         <v>194</v>
       </c>
+      <c r="J79" s="19" t="s">
+        <v>752</v>
+      </c>
       <c r="K79" t="s">
         <v>225</v>
       </c>
@@ -4815,7 +5148,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>38</v>
       </c>
@@ -4823,7 +5156,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D81" t="s">
         <v>40</v>
       </c>
@@ -4834,7 +5167,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D82" t="s">
         <v>37</v>
       </c>
@@ -4854,7 +5187,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D83" t="s">
         <v>37</v>
       </c>
@@ -4874,7 +5207,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D84" t="s">
         <v>37</v>
       </c>
@@ -4894,7 +5227,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D85" t="s">
         <v>37</v>
       </c>
@@ -4914,7 +5247,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D86" t="s">
         <v>37</v>
       </c>
@@ -4934,17 +5267,18 @@
         <v>192</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J88" s="18"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>208</v>
       </c>
@@ -4952,7 +5286,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D90" t="s">
         <v>40</v>
       </c>
@@ -4963,7 +5297,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D91" t="s">
         <v>37</v>
       </c>
@@ -4979,6 +5313,9 @@
       <c r="H91" t="s">
         <v>210</v>
       </c>
+      <c r="J91" s="19" t="s">
+        <v>753</v>
+      </c>
       <c r="K91" t="s">
         <v>227</v>
       </c>
@@ -4986,7 +5323,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>38</v>
       </c>
@@ -4994,7 +5331,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D93" t="s">
         <v>40</v>
       </c>
@@ -5005,7 +5342,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D94" t="s">
         <v>37</v>
       </c>
@@ -5025,7 +5362,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D95" t="s">
         <v>37</v>
       </c>
@@ -5045,7 +5382,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D96" t="s">
         <v>37</v>
       </c>
@@ -5065,7 +5402,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D97" t="s">
         <v>37</v>
       </c>
@@ -5085,7 +5422,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D98" t="s">
         <v>37</v>
       </c>
@@ -5105,17 +5442,18 @@
         <v>207</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J100" s="18"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>228</v>
       </c>
@@ -5123,7 +5461,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D102" t="s">
         <v>40</v>
       </c>
@@ -5134,7 +5472,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D103" t="s">
         <v>37</v>
       </c>
@@ -5150,8 +5488,11 @@
       <c r="H103" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J103" s="19" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>38</v>
       </c>
@@ -5159,7 +5500,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D105" t="s">
         <v>40</v>
       </c>
@@ -5170,7 +5511,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D106" t="s">
         <v>37</v>
       </c>
@@ -5190,7 +5531,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D107" t="s">
         <v>37</v>
       </c>
@@ -5210,7 +5551,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D108" t="s">
         <v>37</v>
       </c>
@@ -5230,7 +5571,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D109" t="s">
         <v>37</v>
       </c>
@@ -5250,7 +5591,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D110" t="s">
         <v>37</v>
       </c>
@@ -5270,17 +5611,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J112" s="18"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>242</v>
       </c>
@@ -5288,7 +5630,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D114" t="s">
         <v>40</v>
       </c>
@@ -5299,7 +5641,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D115" t="s">
         <v>37</v>
       </c>
@@ -5315,8 +5657,11 @@
       <c r="H115" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J115" s="19" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>38</v>
       </c>
@@ -5324,7 +5669,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D117" t="s">
         <v>40</v>
       </c>
@@ -5335,7 +5680,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D118" t="s">
         <v>37</v>
       </c>
@@ -5355,7 +5700,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D119" t="s">
         <v>37</v>
       </c>
@@ -5375,7 +5720,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D120" t="s">
         <v>37</v>
       </c>
@@ -5395,7 +5740,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D121" t="s">
         <v>37</v>
       </c>
@@ -5415,7 +5760,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D122" t="s">
         <v>37</v>
       </c>
@@ -5435,17 +5780,18 @@
         <v>241</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J124" s="18"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>259</v>
       </c>
@@ -5453,7 +5799,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D126" t="s">
         <v>40</v>
       </c>
@@ -5464,7 +5810,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D127" t="s">
         <v>37</v>
       </c>
@@ -5480,8 +5826,11 @@
       <c r="H127" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J127" s="19" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>38</v>
       </c>
@@ -5489,7 +5838,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D129" t="s">
         <v>40</v>
       </c>
@@ -5500,7 +5849,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D130" t="s">
         <v>37</v>
       </c>
@@ -5520,7 +5869,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D131" t="s">
         <v>37</v>
       </c>
@@ -5540,7 +5889,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D132" t="s">
         <v>37</v>
       </c>
@@ -5560,7 +5909,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D133" t="s">
         <v>37</v>
       </c>
@@ -5580,7 +5929,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D134" t="s">
         <v>37</v>
       </c>
@@ -5600,17 +5949,18 @@
         <v>256</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J136" s="18"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -5618,7 +5968,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D138" t="s">
         <v>40</v>
       </c>
@@ -5629,7 +5979,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D139" t="s">
         <v>37</v>
       </c>
@@ -5645,8 +5995,11 @@
       <c r="H139" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J139" s="19" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>38</v>
       </c>
@@ -5654,7 +6007,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D141" t="s">
         <v>40</v>
       </c>
@@ -5665,7 +6018,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D142" t="s">
         <v>37</v>
       </c>
@@ -5685,7 +6038,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D143" t="s">
         <v>37</v>
       </c>
@@ -5705,7 +6058,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D144" t="s">
         <v>37</v>
       </c>
@@ -5725,7 +6078,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D145" t="s">
         <v>37</v>
       </c>
@@ -5745,7 +6098,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D146" t="s">
         <v>37</v>
       </c>
@@ -5765,17 +6118,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J148" s="18"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>277</v>
       </c>
@@ -5783,7 +6137,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D150" t="s">
         <v>40</v>
       </c>
@@ -5794,7 +6148,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D151" t="s">
         <v>37</v>
       </c>
@@ -5810,8 +6164,11 @@
       <c r="H151" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J151" s="19" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>38</v>
       </c>
@@ -5819,7 +6176,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D153" t="s">
         <v>278</v>
       </c>
@@ -5836,7 +6193,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D154" t="s">
         <v>40</v>
       </c>
@@ -5847,7 +6204,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D155" t="s">
         <v>37</v>
       </c>
@@ -5867,7 +6224,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D156" t="s">
         <v>37</v>
       </c>
@@ -5887,7 +6244,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D157" t="s">
         <v>37</v>
       </c>
@@ -5907,7 +6264,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D158" t="s">
         <v>37</v>
       </c>
@@ -5927,7 +6284,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D159" t="s">
         <v>37</v>
       </c>
@@ -5947,17 +6304,18 @@
         <v>291</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J161" s="18"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>38</v>
       </c>
@@ -5965,7 +6323,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>292</v>
       </c>
@@ -5973,7 +6331,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D164" t="s">
         <v>40</v>
       </c>
@@ -5984,7 +6342,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D165" t="s">
         <v>37</v>
       </c>
@@ -6000,8 +6358,11 @@
       <c r="H165" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J165" s="19" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>38</v>
       </c>
@@ -6009,7 +6370,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D167" t="s">
         <v>278</v>
       </c>
@@ -6026,7 +6387,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D168" t="s">
         <v>40</v>
       </c>
@@ -6037,7 +6398,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D169" t="s">
         <v>37</v>
       </c>
@@ -6057,7 +6418,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D170" t="s">
         <v>37</v>
       </c>
@@ -6077,7 +6438,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D171" t="s">
         <v>37</v>
       </c>
@@ -6097,7 +6458,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D172" t="s">
         <v>37</v>
       </c>
@@ -6117,7 +6478,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D173" t="s">
         <v>37</v>
       </c>
@@ -6137,22 +6498,22 @@
         <v>305</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>308</v>
       </c>
@@ -6160,7 +6521,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D178" t="s">
         <v>40</v>
       </c>
@@ -6171,7 +6532,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D179" t="s">
         <v>37</v>
       </c>
@@ -6187,21 +6548,25 @@
       <c r="H179" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J179" s="19" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>312</v>
       </c>
       <c r="B181" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J181" s="18"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D182" t="s">
         <v>40</v>
       </c>
@@ -6212,7 +6577,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D183" t="s">
         <v>37</v>
       </c>
@@ -6228,8 +6593,11 @@
       <c r="H183" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J183" s="19" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>38</v>
       </c>
@@ -6237,7 +6605,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D185" t="s">
         <v>37</v>
       </c>
@@ -6253,18 +6621,22 @@
       <c r="H185" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J185" s="19" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J187" s="18"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>425</v>
       </c>
@@ -6275,12 +6647,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D190" t="s">
         <v>40</v>
       </c>
@@ -6291,7 +6663,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D191" t="s">
         <v>40</v>
       </c>
@@ -6302,7 +6674,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D192" t="s">
         <v>30</v>
       </c>
@@ -6315,8 +6687,11 @@
       <c r="H192" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J192" s="19" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D193" t="s">
         <v>316</v>
       </c>
@@ -6327,7 +6702,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>38</v>
       </c>
@@ -6335,7 +6710,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D195" t="s">
         <v>317</v>
       </c>
@@ -6346,7 +6721,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D196" t="s">
         <v>318</v>
       </c>
@@ -6360,12 +6735,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D198" t="s">
         <v>278</v>
       </c>
@@ -6378,8 +6753,11 @@
       <c r="H198" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J198" s="21" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D199" t="s">
         <v>37</v>
       </c>
@@ -6395,8 +6773,11 @@
       <c r="H199" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J199" s="21" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>319</v>
       </c>
@@ -6404,7 +6785,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D201" t="s">
         <v>278</v>
       </c>
@@ -6417,23 +6798,26 @@
       <c r="H201" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J201" s="21" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D205" t="s">
         <v>40</v>
       </c>
@@ -6444,7 +6828,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D206" t="s">
         <v>40</v>
       </c>
@@ -6455,7 +6839,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D207" t="s">
         <v>62</v>
       </c>
@@ -6471,18 +6855,21 @@
       <c r="H207" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J207" s="21" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>426</v>
       </c>
@@ -6493,12 +6880,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D212" t="s">
         <v>40</v>
       </c>
@@ -6509,7 +6896,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D213" t="s">
         <v>40</v>
       </c>
@@ -6520,7 +6907,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D214" t="s">
         <v>30</v>
       </c>
@@ -6533,8 +6920,11 @@
       <c r="H214" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214" s="19" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D215" t="s">
         <v>316</v>
       </c>
@@ -6545,7 +6935,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>38</v>
       </c>
@@ -6553,7 +6943,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D217" t="s">
         <v>317</v>
       </c>
@@ -6564,7 +6954,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D218" t="s">
         <v>318</v>
       </c>
@@ -6578,12 +6968,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B219" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D220" t="s">
         <v>278</v>
       </c>
@@ -6596,8 +6986,11 @@
       <c r="H220" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J220" s="21" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D221" t="s">
         <v>37</v>
       </c>
@@ -6613,8 +7006,11 @@
       <c r="H221" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J221" s="21" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B222" t="s">
         <v>319</v>
       </c>
@@ -6622,7 +7018,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D223" t="s">
         <v>278</v>
       </c>
@@ -6635,23 +7031,26 @@
       <c r="H223" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J223" s="21" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D227" t="s">
         <v>40</v>
       </c>
@@ -6662,7 +7061,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D228" t="s">
         <v>40</v>
       </c>
@@ -6673,7 +7072,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D229" t="s">
         <v>62</v>
       </c>
@@ -6689,18 +7088,21 @@
       <c r="H229" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J229" s="21" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B230" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B231" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>431</v>
       </c>
@@ -6711,12 +7113,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B233" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D234" t="s">
         <v>40</v>
       </c>
@@ -6727,7 +7129,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D235" t="s">
         <v>40</v>
       </c>
@@ -6738,7 +7140,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D236" t="s">
         <v>30</v>
       </c>
@@ -6751,8 +7153,11 @@
       <c r="H236" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J236" s="19" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D237" t="s">
         <v>316</v>
       </c>
@@ -6763,7 +7168,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B238" t="s">
         <v>38</v>
       </c>
@@ -6771,7 +7176,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D239" t="s">
         <v>317</v>
       </c>
@@ -6782,7 +7187,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D240" t="s">
         <v>318</v>
       </c>
@@ -6796,12 +7201,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D242" t="s">
         <v>278</v>
       </c>
@@ -6814,8 +7219,11 @@
       <c r="H242" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J242" s="21" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D243" t="s">
         <v>37</v>
       </c>
@@ -6831,8 +7239,11 @@
       <c r="H243" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J243" s="21" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B244" t="s">
         <v>319</v>
       </c>
@@ -6840,7 +7251,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D245" t="s">
         <v>278</v>
       </c>
@@ -6853,23 +7264,26 @@
       <c r="H245" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J245" s="21" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B246" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B247" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B248" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D249" t="s">
         <v>40</v>
       </c>
@@ -6880,7 +7294,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D250" t="s">
         <v>40</v>
       </c>
@@ -6891,7 +7305,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D251" t="s">
         <v>62</v>
       </c>
@@ -6907,18 +7321,21 @@
       <c r="H251" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J251" s="21" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B252" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>445</v>
       </c>
@@ -6929,12 +7346,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B255" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D256" t="s">
         <v>40</v>
       </c>
@@ -6945,7 +7362,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D257" t="s">
         <v>40</v>
       </c>
@@ -6956,7 +7373,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D258" t="s">
         <v>30</v>
       </c>
@@ -6969,8 +7386,11 @@
       <c r="H258" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J258" s="19" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D259" t="s">
         <v>316</v>
       </c>
@@ -6981,7 +7401,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B260" t="s">
         <v>38</v>
       </c>
@@ -6989,7 +7409,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D261" t="s">
         <v>317</v>
       </c>
@@ -7000,7 +7420,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D262" t="s">
         <v>318</v>
       </c>
@@ -7014,12 +7434,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B263" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D264" t="s">
         <v>278</v>
       </c>
@@ -7032,8 +7452,11 @@
       <c r="H264" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J264" s="21" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="265" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D265" t="s">
         <v>37</v>
       </c>
@@ -7049,8 +7472,11 @@
       <c r="H265" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J265" s="21" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="266" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B266" t="s">
         <v>319</v>
       </c>
@@ -7058,7 +7484,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D267" t="s">
         <v>278</v>
       </c>
@@ -7071,23 +7497,26 @@
       <c r="H267" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J267" s="21" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B269" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B270" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D271" t="s">
         <v>40</v>
       </c>
@@ -7098,7 +7527,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D272" t="s">
         <v>40</v>
       </c>
@@ -7109,7 +7538,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D273" t="s">
         <v>62</v>
       </c>
@@ -7125,18 +7554,21 @@
       <c r="H273" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J273" s="21" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B274" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B275" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>465</v>
       </c>
@@ -7147,12 +7579,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B277" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D278" t="s">
         <v>40</v>
       </c>
@@ -7163,7 +7595,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D279" t="s">
         <v>40</v>
       </c>
@@ -7174,7 +7606,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D280" t="s">
         <v>30</v>
       </c>
@@ -7187,8 +7619,11 @@
       <c r="H280" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J280" s="19" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D281" t="s">
         <v>316</v>
       </c>
@@ -7199,7 +7634,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B282" t="s">
         <v>38</v>
       </c>
@@ -7207,7 +7642,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D283" t="s">
         <v>317</v>
       </c>
@@ -7218,7 +7653,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D284" t="s">
         <v>318</v>
       </c>
@@ -7232,12 +7667,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B285" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D286" t="s">
         <v>278</v>
       </c>
@@ -7250,8 +7685,11 @@
       <c r="H286" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J286" s="21" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D287" t="s">
         <v>37</v>
       </c>
@@ -7267,8 +7705,11 @@
       <c r="H287" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J287" s="21" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B288" t="s">
         <v>319</v>
       </c>
@@ -7276,7 +7717,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D289" t="s">
         <v>278</v>
       </c>
@@ -7289,23 +7730,26 @@
       <c r="H289" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J289" s="21" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B290" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B291" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B292" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D293" t="s">
         <v>40</v>
       </c>
@@ -7316,7 +7760,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D294" t="s">
         <v>40</v>
       </c>
@@ -7327,7 +7771,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D295" t="s">
         <v>62</v>
       </c>
@@ -7343,18 +7787,21 @@
       <c r="H295" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J295" s="21" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B296" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B297" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>320</v>
       </c>
@@ -7362,7 +7809,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D299" t="s">
         <v>40</v>
       </c>
@@ -7373,7 +7820,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D300" t="s">
         <v>37</v>
       </c>
@@ -7389,8 +7836,11 @@
       <c r="H300" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J300" s="19" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B301" t="s">
         <v>38</v>
       </c>
@@ -7398,7 +7848,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D302" t="s">
         <v>37</v>
       </c>
@@ -7414,18 +7864,21 @@
       <c r="H302" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J302" s="19" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B303" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B304" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>518</v>
       </c>
@@ -7436,12 +7889,12 @@
         <v>475</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B306" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D307" t="s">
         <v>40</v>
       </c>
@@ -7452,7 +7905,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D308" t="s">
         <v>40</v>
       </c>
@@ -7463,7 +7916,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D309" t="s">
         <v>30</v>
       </c>
@@ -7476,8 +7929,11 @@
       <c r="H309" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J309" s="19" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D310" t="s">
         <v>316</v>
       </c>
@@ -7488,7 +7944,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B311" t="s">
         <v>38</v>
       </c>
@@ -7496,7 +7952,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D312" t="s">
         <v>317</v>
       </c>
@@ -7507,7 +7963,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D313" t="s">
         <v>318</v>
       </c>
@@ -7521,12 +7977,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B314" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D315" t="s">
         <v>37</v>
       </c>
@@ -7542,8 +7998,11 @@
       <c r="H315" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J315" s="21" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B316" t="s">
         <v>38</v>
       </c>
@@ -7551,7 +8010,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D317" t="s">
         <v>318</v>
       </c>
@@ -7564,23 +8023,26 @@
       <c r="H317" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J317" s="21" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B318" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B319" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B320" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D321" t="s">
         <v>40</v>
       </c>
@@ -7591,7 +8053,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D322" t="s">
         <v>40</v>
       </c>
@@ -7602,7 +8064,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D323" t="s">
         <v>278</v>
       </c>
@@ -7615,8 +8077,11 @@
       <c r="H323" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J323" s="21" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D324" t="s">
         <v>37</v>
       </c>
@@ -7632,8 +8097,11 @@
       <c r="H324" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J324" s="21" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B325" t="s">
         <v>319</v>
       </c>
@@ -7641,7 +8109,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D326" t="s">
         <v>278</v>
       </c>
@@ -7654,23 +8122,26 @@
       <c r="H326" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J326" s="21" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B327" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B328" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B329" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D330" t="s">
         <v>40</v>
       </c>
@@ -7681,7 +8152,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D331" t="s">
         <v>40</v>
       </c>
@@ -7692,7 +8163,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D332" t="s">
         <v>62</v>
       </c>
@@ -7708,18 +8179,21 @@
       <c r="H332" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J332" s="21" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B333" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B334" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>515</v>
       </c>
@@ -7730,12 +8204,12 @@
         <v>483</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B336" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="337" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D337" t="s">
         <v>40</v>
       </c>
@@ -7746,7 +8220,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="338" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D338" t="s">
         <v>40</v>
       </c>
@@ -7757,7 +8231,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="339" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D339" t="s">
         <v>30</v>
       </c>
@@ -7770,8 +8244,11 @@
       <c r="H339" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="340" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J339" s="19" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="340" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D340" t="s">
         <v>316</v>
       </c>
@@ -7782,15 +8259,16 @@
         <v>523</v>
       </c>
     </row>
-    <row r="341" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B341" t="s">
         <v>38</v>
       </c>
       <c r="C341" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="342" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J341" s="20"/>
+    </row>
+    <row r="342" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D342" t="s">
         <v>317</v>
       </c>
@@ -7801,7 +8279,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="343" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D343" t="s">
         <v>318</v>
       </c>
@@ -7815,12 +8293,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B344" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="345" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D345" t="s">
         <v>37</v>
       </c>
@@ -7836,8 +8314,11 @@
       <c r="H345" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="346" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J345" s="21" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="346" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B346" t="s">
         <v>38</v>
       </c>
@@ -7845,7 +8326,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="347" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D347" t="s">
         <v>318</v>
       </c>
@@ -7858,23 +8339,26 @@
       <c r="H347" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="348" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J347" s="21" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="348" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B348" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="349" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B349" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="350" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B350" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="351" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D351" t="s">
         <v>40</v>
       </c>
@@ -7885,7 +8369,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="352" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D352" t="s">
         <v>40</v>
       </c>
@@ -7896,7 +8380,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D353" t="s">
         <v>278</v>
       </c>
@@ -7909,8 +8393,11 @@
       <c r="H353" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J353" s="21" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D354" t="s">
         <v>37</v>
       </c>
@@ -7926,8 +8413,11 @@
       <c r="H354" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J354" s="21" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B355" t="s">
         <v>319</v>
       </c>
@@ -7935,7 +8425,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D356" t="s">
         <v>278</v>
       </c>
@@ -7948,23 +8438,26 @@
       <c r="H356" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J356" s="21" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B357" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B358" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B359" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D360" t="s">
         <v>40</v>
       </c>
@@ -7975,7 +8468,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D361" t="s">
         <v>40</v>
       </c>
@@ -7986,7 +8479,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D362" t="s">
         <v>62</v>
       </c>
@@ -8002,18 +8495,21 @@
       <c r="H362" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J362" s="21" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B363" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B364" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>519</v>
       </c>
@@ -8024,12 +8520,12 @@
         <v>491</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B366" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D367" t="s">
         <v>40</v>
       </c>
@@ -8040,7 +8536,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D368" t="s">
         <v>40</v>
       </c>
@@ -8051,7 +8547,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="369" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D369" t="s">
         <v>30</v>
       </c>
@@ -8064,8 +8560,11 @@
       <c r="H369" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="370" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J369" s="19" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="370" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D370" t="s">
         <v>316</v>
       </c>
@@ -8076,7 +8575,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="371" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B371" t="s">
         <v>38</v>
       </c>
@@ -8084,7 +8583,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="372" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D372" t="s">
         <v>317</v>
       </c>
@@ -8095,7 +8594,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="373" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D373" t="s">
         <v>318</v>
       </c>
@@ -8109,12 +8608,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="374" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B374" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="375" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D375" t="s">
         <v>37</v>
       </c>
@@ -8130,8 +8629,11 @@
       <c r="H375" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="376" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J375" s="21" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="376" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B376" t="s">
         <v>38</v>
       </c>
@@ -8139,7 +8641,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="377" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D377" t="s">
         <v>318</v>
       </c>
@@ -8152,23 +8654,26 @@
       <c r="H377" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="378" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J377" s="21" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="378" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B378" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="379" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B379" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="380" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B380" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="381" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D381" t="s">
         <v>40</v>
       </c>
@@ -8179,7 +8684,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="382" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D382" t="s">
         <v>40</v>
       </c>
@@ -8190,7 +8695,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="383" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D383" t="s">
         <v>278</v>
       </c>
@@ -8203,8 +8708,11 @@
       <c r="H383" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="384" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J383" s="21" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="384" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D384" t="s">
         <v>37</v>
       </c>
@@ -8220,8 +8728,11 @@
       <c r="H384" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J384" s="21" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B385" t="s">
         <v>319</v>
       </c>
@@ -8229,7 +8740,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D386" t="s">
         <v>278</v>
       </c>
@@ -8242,23 +8753,26 @@
       <c r="H386" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J386" s="21" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B387" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B388" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B389" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D390" t="s">
         <v>40</v>
       </c>
@@ -8269,7 +8783,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D391" t="s">
         <v>40</v>
       </c>
@@ -8280,7 +8794,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D392" t="s">
         <v>62</v>
       </c>
@@ -8296,18 +8810,21 @@
       <c r="H392" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J392" s="21" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B393" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B394" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>516</v>
       </c>
@@ -8318,12 +8835,12 @@
         <v>499</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B396" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D397" t="s">
         <v>40</v>
       </c>
@@ -8334,7 +8851,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D398" t="s">
         <v>40</v>
       </c>
@@ -8345,7 +8862,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D399" t="s">
         <v>30</v>
       </c>
@@ -8358,8 +8875,11 @@
       <c r="H399" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J399" s="19" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D400" t="s">
         <v>316</v>
       </c>
@@ -8370,7 +8890,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="401" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B401" t="s">
         <v>38</v>
       </c>
@@ -8378,7 +8898,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="402" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D402" t="s">
         <v>317</v>
       </c>
@@ -8389,7 +8909,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="403" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D403" t="s">
         <v>318</v>
       </c>
@@ -8403,12 +8923,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="404" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B404" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="405" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D405" t="s">
         <v>37</v>
       </c>
@@ -8424,8 +8944,11 @@
       <c r="H405" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="406" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J405" s="21" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="406" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B406" t="s">
         <v>38</v>
       </c>
@@ -8433,7 +8956,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="407" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D407" t="s">
         <v>318</v>
       </c>
@@ -8446,23 +8969,26 @@
       <c r="H407" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="408" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J407" s="21" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="408" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B408" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="409" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B409" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="410" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B410" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="411" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D411" t="s">
         <v>40</v>
       </c>
@@ -8473,7 +8999,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="412" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D412" t="s">
         <v>40</v>
       </c>
@@ -8484,7 +9010,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="413" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D413" t="s">
         <v>278</v>
       </c>
@@ -8497,8 +9023,11 @@
       <c r="H413" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="414" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J413" s="21" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="414" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D414" t="s">
         <v>37</v>
       </c>
@@ -8514,8 +9043,11 @@
       <c r="H414" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="415" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J414" s="21" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="415" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B415" t="s">
         <v>319</v>
       </c>
@@ -8523,7 +9055,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="416" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D416" t="s">
         <v>278</v>
       </c>
@@ -8536,23 +9068,26 @@
       <c r="H416" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J416" s="21" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B417" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B418" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B419" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D420" t="s">
         <v>40</v>
       </c>
@@ -8563,7 +9098,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D421" t="s">
         <v>40</v>
       </c>
@@ -8574,7 +9109,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D422" t="s">
         <v>62</v>
       </c>
@@ -8590,18 +9125,21 @@
       <c r="H422" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J422" s="21" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B423" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B424" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>517</v>
       </c>
@@ -8612,12 +9150,12 @@
         <v>507</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B426" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D427" t="s">
         <v>40</v>
       </c>
@@ -8628,7 +9166,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D428" t="s">
         <v>40</v>
       </c>
@@ -8639,7 +9177,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D429" t="s">
         <v>30</v>
       </c>
@@ -8652,8 +9190,11 @@
       <c r="H429" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J429" s="19" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D430" t="s">
         <v>316</v>
       </c>
@@ -8664,7 +9205,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B431" t="s">
         <v>38</v>
       </c>
@@ -8672,7 +9213,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D432" t="s">
         <v>317</v>
       </c>
@@ -8683,7 +9224,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="433" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D433" t="s">
         <v>318</v>
       </c>
@@ -8697,12 +9238,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="434" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B434" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="435" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D435" t="s">
         <v>37</v>
       </c>
@@ -8718,8 +9259,11 @@
       <c r="H435" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="436" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J435" s="21" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="436" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B436" t="s">
         <v>38</v>
       </c>
@@ -8727,7 +9271,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="437" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D437" t="s">
         <v>318</v>
       </c>
@@ -8740,23 +9284,26 @@
       <c r="H437" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="438" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J437" s="21" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="438" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B438" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="439" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B439" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="440" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B440" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="441" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D441" t="s">
         <v>40</v>
       </c>
@@ -8767,7 +9314,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="442" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D442" t="s">
         <v>40</v>
       </c>
@@ -8778,7 +9325,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="443" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D443" t="s">
         <v>278</v>
       </c>
@@ -8791,8 +9338,11 @@
       <c r="H443" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="444" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J443" s="21" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="444" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D444" t="s">
         <v>37</v>
       </c>
@@ -8808,8 +9358,11 @@
       <c r="H444" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="445" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J444" s="21" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="445" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B445" t="s">
         <v>319</v>
       </c>
@@ -8817,7 +9370,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="446" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D446" t="s">
         <v>278</v>
       </c>
@@ -8830,23 +9383,26 @@
       <c r="H446" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="447" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J446" s="21" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="447" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B447" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="448" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B448" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B449" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D450" t="s">
         <v>40</v>
       </c>
@@ -8857,7 +9413,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D451" t="s">
         <v>40</v>
       </c>
@@ -8868,7 +9424,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D452" t="s">
         <v>62</v>
       </c>
@@ -8884,18 +9440,21 @@
       <c r="H452" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J452" s="21" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B453" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B454" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>323</v>
       </c>
@@ -8903,7 +9462,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D456" t="s">
         <v>40</v>
       </c>
@@ -8914,7 +9473,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D457" t="s">
         <v>37</v>
       </c>
@@ -8930,8 +9489,11 @@
       <c r="H457" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J457" s="19" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B458" t="s">
         <v>38</v>
       </c>
@@ -8939,7 +9501,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D459" t="s">
         <v>278</v>
       </c>
@@ -8952,18 +9514,21 @@
       <c r="H459" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J459" s="22" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B460" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B461" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>327</v>
       </c>
@@ -8971,7 +9536,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D463" t="s">
         <v>40</v>
       </c>
@@ -8982,7 +9547,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D464" t="s">
         <v>37</v>
       </c>
@@ -8998,8 +9563,11 @@
       <c r="H464" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J464" s="19" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="465" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D465" t="s">
         <v>37</v>
       </c>
@@ -9015,8 +9583,11 @@
       <c r="H465" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J465" s="19" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="466" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B466" t="s">
         <v>38</v>
       </c>
@@ -9024,7 +9595,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D467" t="s">
         <v>37</v>
       </c>
@@ -9040,8 +9611,11 @@
       <c r="H467" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J467" s="19" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="468" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B468" t="s">
         <v>38</v>
       </c>
@@ -9049,7 +9623,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D469" t="s">
         <v>278</v>
       </c>
@@ -9063,12 +9637,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B470" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D471" t="s">
         <v>37</v>
       </c>
@@ -9085,17 +9659,17 @@
         <v>372</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B472" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B473" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>678</v>
       </c>
@@ -9103,7 +9677,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D475" t="s">
         <v>40</v>
       </c>
@@ -9114,7 +9688,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D476" t="s">
         <v>278</v>
       </c>
@@ -9131,7 +9705,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D477" t="s">
         <v>278</v>
       </c>
@@ -9148,12 +9722,12 @@
         <v>673</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B478" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B479" t="s">
         <v>38</v>
       </c>
@@ -9161,7 +9735,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>671</v>
       </c>
@@ -9169,7 +9743,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="481" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D481" t="s">
         <v>40</v>
       </c>
@@ -9180,7 +9754,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="482" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D482" t="s">
         <v>37</v>
       </c>
@@ -9197,12 +9771,12 @@
         <v>681</v>
       </c>
     </row>
-    <row r="483" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B483" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="484" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B484" t="s">
         <v>39</v>
       </c>
@@ -9218,20 +9792,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -9245,7 +9819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>707</v>
       </c>
@@ -9260,7 +9834,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>707</v>
       </c>
@@ -9275,7 +9849,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>707</v>
       </c>
@@ -9290,7 +9864,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>707</v>
       </c>
@@ -9305,7 +9879,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>707</v>
       </c>
@@ -9320,7 +9894,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>707</v>
       </c>
@@ -9335,7 +9909,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>707</v>
       </c>
@@ -9350,7 +9924,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>707</v>
       </c>
@@ -9365,13 +9939,13 @@
         <v>744</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>554</v>
       </c>
@@ -9386,7 +9960,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>554</v>
       </c>
@@ -9401,7 +9975,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>554</v>
       </c>
@@ -9416,7 +9990,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>554</v>
       </c>
@@ -9431,13 +10005,13 @@
         <v>635</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -9452,7 +10026,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -9467,8 +10041,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -9483,7 +10057,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -9498,7 +10072,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -9513,7 +10087,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -9528,13 +10102,13 @@
         <v>705</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>683</v>
       </c>
@@ -9549,7 +10123,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>683</v>
       </c>
@@ -9564,7 +10138,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>683</v>
       </c>
@@ -9579,7 +10153,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>683</v>
       </c>
@@ -9594,7 +10168,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>683</v>
       </c>
@@ -9609,13 +10183,13 @@
         <v>691</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -9630,7 +10204,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -9645,7 +10219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -9660,10 +10234,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -9678,7 +10252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>332</v>
       </c>
@@ -9693,7 +10267,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>332</v>
       </c>
@@ -9708,7 +10282,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>332</v>
       </c>
@@ -9723,10 +10297,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>397</v>
       </c>
@@ -9741,7 +10315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>397</v>
       </c>
@@ -9756,7 +10330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>397</v>
       </c>
@@ -9771,7 +10345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>397</v>
       </c>
@@ -9786,7 +10360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>397</v>
       </c>
@@ -9801,10 +10375,10 @@
         <v>398</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B45" s="7"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>375</v>
       </c>
@@ -9819,7 +10393,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>375</v>
       </c>
@@ -9834,7 +10408,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>375</v>
       </c>
@@ -9849,7 +10423,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>375</v>
       </c>
@@ -9864,7 +10438,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>375</v>
       </c>
@@ -9879,7 +10453,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>375</v>
       </c>
@@ -9894,7 +10468,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>375</v>
       </c>
@@ -9909,7 +10483,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>375</v>
       </c>
@@ -9924,7 +10498,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>375</v>
       </c>
@@ -9939,7 +10513,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>375</v>
       </c>
@@ -9954,7 +10528,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>375</v>
       </c>
@@ -9969,7 +10543,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>375</v>
       </c>
@@ -9984,7 +10558,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>375</v>
       </c>
@@ -9999,7 +10573,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>375</v>
       </c>
@@ -10014,7 +10588,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>375</v>
       </c>
@@ -10029,7 +10603,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>375</v>
       </c>
@@ -10044,7 +10618,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>375</v>
       </c>
@@ -10059,7 +10633,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>375</v>
       </c>
@@ -10074,7 +10648,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>375</v>
       </c>
@@ -10089,7 +10663,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>375</v>
       </c>
@@ -10104,7 +10678,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>375</v>
       </c>
@@ -10119,7 +10693,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>375</v>
       </c>
@@ -10134,7 +10708,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>375</v>
       </c>
@@ -10149,197 +10723,197 @@
         <v>396</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B70" s="7"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B71" s="7"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B72" s="7"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B73" s="7"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B100" s="7"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106" s="7"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B125" s="7"/>
     </row>
   </sheetData>
@@ -10358,13 +10932,13 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
@@ -10372,7 +10946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>595</v>
       </c>
@@ -10380,7 +10954,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>596</v>
       </c>
@@ -10388,7 +10962,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>600</v>
       </c>
@@ -10411,15 +10985,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
@@ -10433,7 +11007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -10462,15 +11036,15 @@
       <selection pane="bottomLeft" activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -10484,7 +11058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>576</v>
       </c>
@@ -10498,7 +11072,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>577</v>
       </c>
@@ -10509,7 +11083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>578</v>
       </c>
@@ -10520,7 +11094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>579</v>
       </c>
@@ -10531,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>580</v>
       </c>
@@ -10542,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>581</v>
       </c>
@@ -10553,7 +11127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>582</v>
       </c>
@@ -10564,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>585</v>
       </c>
@@ -10578,7 +11152,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>586</v>
       </c>
@@ -10592,7 +11166,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>587</v>
       </c>
@@ -10606,7 +11180,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>588</v>
       </c>
@@ -10620,7 +11194,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>589</v>
       </c>
@@ -10634,7 +11208,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>592</v>
       </c>
@@ -10648,7 +11222,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>590</v>
       </c>
@@ -10662,7 +11236,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>670</v>
       </c>
@@ -10676,7 +11250,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>591</v>
       </c>
@@ -10690,7 +11264,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>593</v>
       </c>
@@ -10704,7 +11278,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>642</v>
       </c>
@@ -10718,7 +11292,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>644</v>
       </c>
@@ -10732,7 +11306,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>712</v>
       </c>
@@ -10746,10 +11320,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>708</v>
       </c>
@@ -10764,7 +11338,7 @@
       </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>693</v>
       </c>
@@ -10775,7 +11349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>646</v>
       </c>
@@ -10786,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>682</v>
       </c>
@@ -10797,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -10808,7 +11382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -10819,7 +11393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>557</v>
       </c>
@@ -10830,7 +11404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>570</v>
       </c>
@@ -10841,7 +11415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>567</v>
       </c>
@@ -10852,7 +11426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>568</v>
       </c>
@@ -10863,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>569</v>
       </c>
@@ -10874,7 +11448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>564</v>
       </c>
@@ -10885,7 +11459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>565</v>
       </c>
@@ -10896,7 +11470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>566</v>
       </c>
@@ -10907,7 +11481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>583</v>
       </c>
@@ -10918,7 +11492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>571</v>
       </c>
@@ -10929,7 +11503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>584</v>
       </c>
@@ -10940,7 +11514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>572</v>
       </c>
@@ -10951,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>667</v>
       </c>
@@ -10962,7 +11536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>679</v>
       </c>
@@ -10976,7 +11550,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -10987,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -10998,7 +11572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -11009,7 +11583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -11020,7 +11594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -11031,7 +11605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -11042,7 +11616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -11053,7 +11627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>105</v>
       </c>
@@ -11064,7 +11638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>107</v>
       </c>
@@ -11075,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -11086,7 +11660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -11097,7 +11671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -11108,7 +11682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -11119,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -11130,7 +11704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -11141,7 +11715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -11152,7 +11726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -11163,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -11174,7 +11748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -11185,7 +11759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -11196,7 +11770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>140</v>
       </c>
@@ -11207,7 +11781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -11218,7 +11792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -11229,7 +11803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -11240,7 +11814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>151</v>
       </c>
@@ -11251,7 +11825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>153</v>
       </c>
@@ -11262,7 +11836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>155</v>
       </c>
@@ -11273,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>157</v>
       </c>
@@ -11284,7 +11858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>159</v>
       </c>
@@ -11295,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>161</v>
       </c>
@@ -11306,7 +11880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -11317,7 +11891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>168</v>
       </c>
@@ -11328,7 +11902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>170</v>
       </c>
@@ -11339,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>172</v>
       </c>
@@ -11350,7 +11924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>174</v>
       </c>
@@ -11361,7 +11935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>176</v>
       </c>
@@ -11372,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -11383,7 +11957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>183</v>
       </c>
@@ -11394,7 +11968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>185</v>
       </c>
@@ -11405,7 +11979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>187</v>
       </c>
@@ -11416,7 +11990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>189</v>
       </c>
@@ -11427,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>191</v>
       </c>
@@ -11438,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>196</v>
       </c>
@@ -11449,7 +12023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>198</v>
       </c>
@@ -11460,7 +12034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>200</v>
       </c>
@@ -11471,7 +12045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>202</v>
       </c>
@@ -11482,7 +12056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>204</v>
       </c>
@@ -11493,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>206</v>
       </c>
@@ -11504,7 +12078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>211</v>
       </c>
@@ -11515,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>213</v>
       </c>
@@ -11526,7 +12100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>215</v>
       </c>
@@ -11537,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>217</v>
       </c>
@@ -11548,7 +12122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>219</v>
       </c>
@@ -11559,7 +12133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>221</v>
       </c>
@@ -11570,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>230</v>
       </c>
@@ -11581,7 +12155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>232</v>
       </c>
@@ -11592,7 +12166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>234</v>
       </c>
@@ -11603,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>236</v>
       </c>
@@ -11614,7 +12188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>238</v>
       </c>
@@ -11625,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>240</v>
       </c>
@@ -11636,7 +12210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>245</v>
       </c>
@@ -11647,7 +12221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>247</v>
       </c>
@@ -11658,7 +12232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>249</v>
       </c>
@@ -11669,7 +12243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>251</v>
       </c>
@@ -11680,7 +12254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>253</v>
       </c>
@@ -11691,7 +12265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>255</v>
       </c>
@@ -11702,7 +12276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>260</v>
       </c>
@@ -11713,7 +12287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>262</v>
       </c>
@@ -11724,7 +12298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>264</v>
       </c>
@@ -11735,7 +12309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>266</v>
       </c>
@@ -11746,7 +12320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>268</v>
       </c>
@@ -11757,7 +12331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>270</v>
       </c>
@@ -11768,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>276</v>
       </c>
@@ -11779,7 +12353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>279</v>
       </c>
@@ -11790,7 +12364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>282</v>
       </c>
@@ -11801,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>284</v>
       </c>
@@ -11812,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>286</v>
       </c>
@@ -11823,7 +12397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>288</v>
       </c>
@@ -11834,7 +12408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>290</v>
       </c>
@@ -11845,7 +12419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>294</v>
       </c>
@@ -11856,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>295</v>
       </c>
@@ -11867,7 +12441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>296</v>
       </c>
@@ -11878,7 +12452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>298</v>
       </c>
@@ -11889,7 +12463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>300</v>
       </c>
@@ -11900,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>302</v>
       </c>
@@ -11911,7 +12485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>304</v>
       </c>
@@ -11922,7 +12496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>309</v>
       </c>
@@ -11933,7 +12507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>314</v>
       </c>
@@ -11944,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>400</v>
       </c>
@@ -11955,7 +12529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>402</v>
       </c>
@@ -11966,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>408</v>
       </c>
@@ -11977,7 +12551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>403</v>
       </c>
@@ -11988,7 +12562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>405</v>
       </c>
@@ -11999,7 +12573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>406</v>
       </c>
@@ -12010,7 +12584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>407</v>
       </c>
@@ -12021,7 +12595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>404</v>
       </c>
@@ -12032,7 +12606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>414</v>
       </c>
@@ -12043,7 +12617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>423</v>
       </c>
@@ -12054,7 +12628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>415</v>
       </c>
@@ -12065,7 +12639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>416</v>
       </c>
@@ -12076,7 +12650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>417</v>
       </c>
@@ -12087,7 +12661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>419</v>
       </c>
@@ -12098,7 +12672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>420</v>
       </c>
@@ -12109,7 +12683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>434</v>
       </c>
@@ -12120,7 +12694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>435</v>
       </c>
@@ -12131,7 +12705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>436</v>
       </c>
@@ -12142,7 +12716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>438</v>
       </c>
@@ -12153,7 +12727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>439</v>
       </c>
@@ -12164,7 +12738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>440</v>
       </c>
@@ -12175,7 +12749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>442</v>
       </c>
@@ -12186,7 +12760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>446</v>
       </c>
@@ -12197,7 +12771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>455</v>
       </c>
@@ -12208,7 +12782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>447</v>
       </c>
@@ -12219,7 +12793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>448</v>
       </c>
@@ -12230,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>449</v>
       </c>
@@ -12241,7 +12815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>451</v>
       </c>
@@ -12252,7 +12826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>452</v>
       </c>
@@ -12263,7 +12837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>458</v>
       </c>
@@ -12274,7 +12848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>467</v>
       </c>
@@ -12285,7 +12859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>459</v>
       </c>
@@ -12296,7 +12870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>460</v>
       </c>
@@ -12307,7 +12881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>461</v>
       </c>
@@ -12319,7 +12893,7 @@
       </c>
       <c r="J165" s="11"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>463</v>
       </c>
@@ -12330,7 +12904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>464</v>
       </c>
@@ -12341,7 +12915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>321</v>
       </c>
@@ -12352,7 +12926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>472</v>
       </c>
@@ -12363,7 +12937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>476</v>
       </c>
@@ -12374,7 +12948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>520</v>
       </c>
@@ -12385,7 +12959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>477</v>
       </c>
@@ -12396,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>720</v>
       </c>
@@ -12407,7 +12981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>721</v>
       </c>
@@ -12418,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>478</v>
       </c>
@@ -12429,7 +13003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>479</v>
       </c>
@@ -12440,7 +13014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>481</v>
       </c>
@@ -12451,7 +13025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>482</v>
       </c>
@@ -12462,7 +13036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>484</v>
       </c>
@@ -12473,7 +13047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>523</v>
       </c>
@@ -12484,7 +13058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>485</v>
       </c>
@@ -12495,7 +13069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>722</v>
       </c>
@@ -12506,7 +13080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>723</v>
       </c>
@@ -12517,7 +13091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>486</v>
       </c>
@@ -12528,7 +13102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>487</v>
       </c>
@@ -12539,7 +13113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>489</v>
       </c>
@@ -12550,7 +13124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>490</v>
       </c>
@@ -12561,7 +13135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>492</v>
       </c>
@@ -12572,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>526</v>
       </c>
@@ -12583,7 +13157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>493</v>
       </c>
@@ -12594,7 +13168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>724</v>
       </c>
@@ -12605,7 +13179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>725</v>
       </c>
@@ -12616,7 +13190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>494</v>
       </c>
@@ -12627,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>495</v>
       </c>
@@ -12638,7 +13212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>497</v>
       </c>
@@ -12649,7 +13223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>498</v>
       </c>
@@ -12660,7 +13234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>500</v>
       </c>
@@ -12671,7 +13245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>529</v>
       </c>
@@ -12682,7 +13256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>501</v>
       </c>
@@ -12693,7 +13267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>726</v>
       </c>
@@ -12704,7 +13278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>727</v>
       </c>
@@ -12715,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>502</v>
       </c>
@@ -12726,7 +13300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>503</v>
       </c>
@@ -12737,7 +13311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>505</v>
       </c>
@@ -12748,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>506</v>
       </c>
@@ -12759,7 +13333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>508</v>
       </c>
@@ -12770,7 +13344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>532</v>
       </c>
@@ -12781,7 +13355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>509</v>
       </c>
@@ -12792,7 +13366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>728</v>
       </c>
@@ -12803,7 +13377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>729</v>
       </c>
@@ -12814,7 +13388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>510</v>
       </c>
@@ -12825,7 +13399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>511</v>
       </c>
@@ -12836,7 +13410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>513</v>
       </c>
@@ -12847,7 +13421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>514</v>
       </c>
@@ -12858,7 +13432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>324</v>
       </c>
@@ -12869,7 +13443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>326</v>
       </c>
@@ -12880,7 +13454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>327</v>
       </c>
@@ -12891,7 +13465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>328</v>
       </c>
@@ -12902,7 +13476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>330</v>
       </c>
@@ -12913,7 +13487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>331</v>
       </c>
@@ -12924,7 +13498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>333</v>
       </c>

--- a/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
+++ b/app/config/tables/OPVCOVID/Forms/OPVCOVID/OPVCOVID.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44C02C8-DA29-49F0-BF7F-E6C33760FF9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29082F3D-D82C-46ED-A1CB-7125A1AD6EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -2274,51 +2274,6 @@
     <t>data("ASSISTENTE") != null</t>
   </si>
   <si>
-    <t>data("CONSTI") != null || data("ESTADO") == null</t>
-  </si>
-  <si>
-    <t>data("TOSSE") != null || data("ESTADO") == null</t>
-  </si>
-  <si>
-    <t>data("FEBRE") != null || data("ESTADO") == null</t>
-  </si>
-  <si>
-    <t>data("DISPNE") != null || data("ESTADO") == null</t>
-  </si>
-  <si>
-    <t>data("VOMITO") != null || data("ESTADO") == null</t>
-  </si>
-  <si>
-    <t>data("DIARRE") != null || data("ESTADO") == null</t>
-  </si>
-  <si>
-    <t>data("OLFATO") != null || data("ESTADO") == null</t>
-  </si>
-  <si>
-    <t>data("PALADA") != null || data("ESTADO") == null</t>
-  </si>
-  <si>
-    <t>data("CABECA") != null || data("ESTADO") == null</t>
-  </si>
-  <si>
-    <t>data("GARGAN") != null || data("ESTADO") == null</t>
-  </si>
-  <si>
-    <t>data("CORPO") != null || data("ESTADO") == null</t>
-  </si>
-  <si>
-    <t>data("CONSAC") != null || data("ESTADO") == null</t>
-  </si>
-  <si>
-    <t>data("OUSIN1") != null || data("ESTADO") == null</t>
-  </si>
-  <si>
-    <t>data("PESO") != null || data("ESTADO") == null</t>
-  </si>
-  <si>
-    <t>data("CONS") != null || data("ESTADO") == null</t>
-  </si>
-  <si>
     <t>data("CONSNUM") != null || data("CONS") != '1'</t>
   </si>
   <si>
@@ -2337,9 +2292,6 @@
     <t>data("CONS5DATA") != null || data("CONS") != '1' || data('CONSNUM')=='1' || data('CONSNUM')=='2' || data('CONSNUM')=='3' || data('CONSNUM')=='4'</t>
   </si>
   <si>
-    <t>data("HOSP") != null || data("ESTADO") == null</t>
-  </si>
-  <si>
     <t>data("HOSPNUM") != null || data("HOSP") != '1'</t>
   </si>
   <si>
@@ -2355,9 +2307,6 @@
     <t>data("HOSP4DATA") != null || data("HOSP") != '1' || data("HOSPNUM") == '1' || data("HOSPNUM") == '2' || data("HOSPNUM") == '3'</t>
   </si>
   <si>
-    <t>data("MEDICA") != null || data("ESTADO") == null</t>
-  </si>
-  <si>
     <t>data("COVID") != null || data("ESTADO") == null</t>
   </si>
   <si>
@@ -2514,12 +2463,6 @@
     <t>data("HOSP5ONDE") != null || data("HOSP5DATA") == null</t>
   </si>
   <si>
-    <t xml:space="preserve">data("MEDICAQU") != null || data("ESTADO") == null || data("MEDICA") == '2' </t>
-  </si>
-  <si>
-    <t>data("OUSIN2") != null ||data("OUSIN1") == '2' || data("OUSIN1") == '3'|| data("ESTADO") == null</t>
-  </si>
-  <si>
     <t>data("INF")!= null || data("ESTADO") == null</t>
   </si>
   <si>
@@ -2536,6 +2479,63 @@
   </si>
   <si>
     <t>data("HOSP5NODIA") != null  || data("HOSP5NOITE")=='3'|| data("HOSP5NOITE")=='2'|| data("HOSP5DATA") == null</t>
+  </si>
+  <si>
+    <t>data("CONSTI") != null || data("ESTADO") == null || data("GETRESULTS")=='1'</t>
+  </si>
+  <si>
+    <t>data("TOSSE") != null || data("ESTADO") == null|| data("GETRESULTS")=='1'</t>
+  </si>
+  <si>
+    <t>data("FEBRE") != null || data("ESTADO") == null|| data("GETRESULTS")=='1'</t>
+  </si>
+  <si>
+    <t>data("DISPNE") != null || data("ESTADO") == null|| data("GETRESULTS")=='1'</t>
+  </si>
+  <si>
+    <t>data("VOMITO") != null || data("ESTADO") == null|| data("GETRESULTS")=='1'</t>
+  </si>
+  <si>
+    <t>data("DIARRE") != null || data("ESTADO") == null || data("GETRESULTS")=='1'</t>
+  </si>
+  <si>
+    <t>data("OLFATO") != null || data("ESTADO") == null || data("GETRESULTS")=='1'</t>
+  </si>
+  <si>
+    <t>data("PALADA") != null || data("ESTADO") == null || data("GETRESULTS")=='1'</t>
+  </si>
+  <si>
+    <t>data("CABECA") != null || data("ESTADO") == null || data("GETRESULTS")=='1'</t>
+  </si>
+  <si>
+    <t>data("GARGAN") != null || data("ESTADO") == null || data("GETRESULTS")=='1'</t>
+  </si>
+  <si>
+    <t>data("CORPO") != null || data("ESTADO") == null || data("GETRESULTS")=='1'</t>
+  </si>
+  <si>
+    <t>data("CONSAC") != null || data("ESTADO") == null || data("GETRESULTS")=='1'</t>
+  </si>
+  <si>
+    <t>data("OUSIN1") != null || data("ESTADO") == null || data("GETRESULTS")=='1'</t>
+  </si>
+  <si>
+    <t>data("OUSIN2") != null ||data("OUSIN1") == '2' || data("OUSIN1") == '3'|| data("ESTADO") == null || data("GETRESULTS")=='1'</t>
+  </si>
+  <si>
+    <t>data("PESO") != null || data("ESTADO") == null || data("GETRESULTS")=='1'</t>
+  </si>
+  <si>
+    <t>data("CONS") != null || data("ESTADO") == null || data("GETRESULTS")=='1'</t>
+  </si>
+  <si>
+    <t>data("HOSP") != null || data("ESTADO") == null || data("GETRESULTS")=='1'</t>
+  </si>
+  <si>
+    <t>data("MEDICA") != null || data("ESTADO") == null || data("GETRESULTS") == '1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("MEDICAQU") != null || data("ESTADO") == null || data("MEDICA") != '1' </t>
   </si>
 </sst>
 </file>
@@ -3608,7 +3608,7 @@
         <v>629</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -3636,7 +3636,7 @@
         <v>604</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -3901,7 +3901,7 @@
         <v>697</v>
       </c>
       <c r="J73" s="18" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
@@ -3951,7 +3951,7 @@
         <v>695</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
@@ -3989,9 +3989,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E034F7AB-A88F-4084-9C1D-FD9CFEAF70F4}">
   <dimension ref="A1:O484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J458" sqref="J458"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J460" sqref="J460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4114,7 +4114,7 @@
         <v>84</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>746</v>
+        <v>815</v>
       </c>
       <c r="K7" t="s">
         <v>83</v>
@@ -4288,7 +4288,7 @@
         <v>115</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>747</v>
+        <v>816</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -4457,7 +4457,7 @@
         <v>130</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>748</v>
+        <v>817</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -4626,7 +4626,7 @@
         <v>134</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>749</v>
+        <v>818</v>
       </c>
       <c r="K43" t="s">
         <v>150</v>
@@ -4801,7 +4801,7 @@
         <v>165</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>750</v>
+        <v>819</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
@@ -4970,7 +4970,7 @@
         <v>179</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>751</v>
+        <v>820</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -5139,7 +5139,7 @@
         <v>194</v>
       </c>
       <c r="J79" s="19" t="s">
-        <v>752</v>
+        <v>821</v>
       </c>
       <c r="K79" t="s">
         <v>225</v>
@@ -5314,7 +5314,7 @@
         <v>210</v>
       </c>
       <c r="J91" s="19" t="s">
-        <v>753</v>
+        <v>822</v>
       </c>
       <c r="K91" t="s">
         <v>227</v>
@@ -5489,7 +5489,7 @@
         <v>229</v>
       </c>
       <c r="J103" s="19" t="s">
-        <v>754</v>
+        <v>823</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
@@ -5658,7 +5658,7 @@
         <v>244</v>
       </c>
       <c r="J115" s="19" t="s">
-        <v>755</v>
+        <v>824</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
@@ -5827,7 +5827,7 @@
         <v>258</v>
       </c>
       <c r="J127" s="19" t="s">
-        <v>756</v>
+        <v>825</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
@@ -5996,7 +5996,7 @@
         <v>702</v>
       </c>
       <c r="J139" s="19" t="s">
-        <v>757</v>
+        <v>826</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
@@ -6165,7 +6165,7 @@
         <v>275</v>
       </c>
       <c r="J151" s="19" t="s">
-        <v>758</v>
+        <v>827</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
@@ -6359,7 +6359,7 @@
         <v>307</v>
       </c>
       <c r="J165" s="19" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
@@ -6549,7 +6549,7 @@
         <v>310</v>
       </c>
       <c r="J179" s="19" t="s">
-        <v>759</v>
+        <v>829</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
@@ -6594,7 +6594,7 @@
         <v>352</v>
       </c>
       <c r="J183" s="19" t="s">
-        <v>760</v>
+        <v>830</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.35">
@@ -6622,7 +6622,7 @@
         <v>411</v>
       </c>
       <c r="J185" s="19" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.35">
@@ -6688,7 +6688,7 @@
         <v>341</v>
       </c>
       <c r="J192" s="19" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.35">
@@ -6754,7 +6754,7 @@
         <v>346</v>
       </c>
       <c r="J198" s="21" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.35">
@@ -6774,7 +6774,7 @@
         <v>347</v>
       </c>
       <c r="J199" s="21" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.35">
@@ -6799,7 +6799,7 @@
         <v>350</v>
       </c>
       <c r="J201" s="21" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.35">
@@ -6856,7 +6856,7 @@
         <v>344</v>
       </c>
       <c r="J207" s="21" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.35">
@@ -6921,7 +6921,7 @@
         <v>341</v>
       </c>
       <c r="J214" s="19" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.35">
@@ -6987,7 +6987,7 @@
         <v>346</v>
       </c>
       <c r="J220" s="21" t="s">
-        <v>806</v>
+        <v>789</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.35">
@@ -7007,7 +7007,7 @@
         <v>347</v>
       </c>
       <c r="J221" s="21" t="s">
-        <v>807</v>
+        <v>790</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.35">
@@ -7032,7 +7032,7 @@
         <v>350</v>
       </c>
       <c r="J223" s="21" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.35">
@@ -7089,7 +7089,7 @@
         <v>344</v>
       </c>
       <c r="J229" s="21" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.35">
@@ -7154,7 +7154,7 @@
         <v>341</v>
       </c>
       <c r="J236" s="19" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.35">
@@ -7220,7 +7220,7 @@
         <v>346</v>
       </c>
       <c r="J242" s="21" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.35">
@@ -7240,7 +7240,7 @@
         <v>347</v>
       </c>
       <c r="J243" s="21" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.35">
@@ -7265,7 +7265,7 @@
         <v>350</v>
       </c>
       <c r="J245" s="21" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.35">
@@ -7322,7 +7322,7 @@
         <v>344</v>
       </c>
       <c r="J251" s="21" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.35">
@@ -7387,7 +7387,7 @@
         <v>341</v>
       </c>
       <c r="J258" s="19" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
     </row>
     <row r="259" spans="2:10" x14ac:dyDescent="0.35">
@@ -7453,7 +7453,7 @@
         <v>346</v>
       </c>
       <c r="J264" s="21" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
     </row>
     <row r="265" spans="2:10" x14ac:dyDescent="0.35">
@@ -7473,7 +7473,7 @@
         <v>347</v>
       </c>
       <c r="J265" s="21" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
     </row>
     <row r="266" spans="2:10" x14ac:dyDescent="0.35">
@@ -7498,7 +7498,7 @@
         <v>350</v>
       </c>
       <c r="J267" s="21" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
     </row>
     <row r="268" spans="2:10" x14ac:dyDescent="0.35">
@@ -7555,7 +7555,7 @@
         <v>344</v>
       </c>
       <c r="J273" s="21" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.35">
@@ -7620,7 +7620,7 @@
         <v>341</v>
       </c>
       <c r="J280" s="19" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.35">
@@ -7686,7 +7686,7 @@
         <v>346</v>
       </c>
       <c r="J286" s="21" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.35">
@@ -7706,7 +7706,7 @@
         <v>347</v>
       </c>
       <c r="J287" s="21" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.35">
@@ -7731,7 +7731,7 @@
         <v>350</v>
       </c>
       <c r="J289" s="21" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.35">
@@ -7788,7 +7788,7 @@
         <v>344</v>
       </c>
       <c r="J295" s="21" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.35">
@@ -7837,7 +7837,7 @@
         <v>353</v>
       </c>
       <c r="J300" s="19" t="s">
-        <v>767</v>
+        <v>831</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.35">
@@ -7865,7 +7865,7 @@
         <v>474</v>
       </c>
       <c r="J302" s="19" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.35">
@@ -7930,7 +7930,7 @@
         <v>355</v>
       </c>
       <c r="J309" s="19" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.35">
@@ -7999,7 +7999,7 @@
         <v>717</v>
       </c>
       <c r="J315" s="21" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.35">
@@ -8024,7 +8024,7 @@
         <v>719</v>
       </c>
       <c r="J317" s="21" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.35">
@@ -8078,7 +8078,7 @@
         <v>356</v>
       </c>
       <c r="J323" s="21" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.35">
@@ -8098,7 +8098,7 @@
         <v>347</v>
       </c>
       <c r="J324" s="21" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.35">
@@ -8123,7 +8123,7 @@
         <v>350</v>
       </c>
       <c r="J326" s="21" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.35">
@@ -8180,7 +8180,7 @@
         <v>344</v>
       </c>
       <c r="J332" s="21" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.35">
@@ -8245,7 +8245,7 @@
         <v>355</v>
       </c>
       <c r="J339" s="19" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
     </row>
     <row r="340" spans="2:10" x14ac:dyDescent="0.35">
@@ -8315,7 +8315,7 @@
         <v>717</v>
       </c>
       <c r="J345" s="21" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
     </row>
     <row r="346" spans="2:10" x14ac:dyDescent="0.35">
@@ -8340,7 +8340,7 @@
         <v>719</v>
       </c>
       <c r="J347" s="21" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
     </row>
     <row r="348" spans="2:10" x14ac:dyDescent="0.35">
@@ -8394,7 +8394,7 @@
         <v>356</v>
       </c>
       <c r="J353" s="21" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.35">
@@ -8414,7 +8414,7 @@
         <v>347</v>
       </c>
       <c r="J354" s="21" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.35">
@@ -8439,7 +8439,7 @@
         <v>350</v>
       </c>
       <c r="J356" s="21" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.35">
@@ -8496,7 +8496,7 @@
         <v>344</v>
       </c>
       <c r="J362" s="21" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.35">
@@ -8561,7 +8561,7 @@
         <v>355</v>
       </c>
       <c r="J369" s="19" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
     </row>
     <row r="370" spans="2:10" x14ac:dyDescent="0.35">
@@ -8630,7 +8630,7 @@
         <v>717</v>
       </c>
       <c r="J375" s="21" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
     </row>
     <row r="376" spans="2:10" x14ac:dyDescent="0.35">
@@ -8655,7 +8655,7 @@
         <v>719</v>
       </c>
       <c r="J377" s="21" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
     </row>
     <row r="378" spans="2:10" x14ac:dyDescent="0.35">
@@ -8709,7 +8709,7 @@
         <v>356</v>
       </c>
       <c r="J383" s="21" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
     </row>
     <row r="384" spans="2:10" x14ac:dyDescent="0.35">
@@ -8729,7 +8729,7 @@
         <v>347</v>
       </c>
       <c r="J384" s="21" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.35">
@@ -8754,7 +8754,7 @@
         <v>350</v>
       </c>
       <c r="J386" s="21" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.35">
@@ -8811,7 +8811,7 @@
         <v>344</v>
       </c>
       <c r="J392" s="21" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.35">
@@ -8876,7 +8876,7 @@
         <v>355</v>
       </c>
       <c r="J399" s="19" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.35">
@@ -8945,7 +8945,7 @@
         <v>717</v>
       </c>
       <c r="J405" s="21" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
     </row>
     <row r="406" spans="2:10" x14ac:dyDescent="0.35">
@@ -8970,7 +8970,7 @@
         <v>719</v>
       </c>
       <c r="J407" s="21" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
     </row>
     <row r="408" spans="2:10" x14ac:dyDescent="0.35">
@@ -9024,7 +9024,7 @@
         <v>356</v>
       </c>
       <c r="J413" s="21" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
     </row>
     <row r="414" spans="2:10" x14ac:dyDescent="0.35">
@@ -9044,7 +9044,7 @@
         <v>347</v>
       </c>
       <c r="J414" s="21" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
     </row>
     <row r="415" spans="2:10" x14ac:dyDescent="0.35">
@@ -9069,7 +9069,7 @@
         <v>350</v>
       </c>
       <c r="J416" s="21" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.35">
@@ -9126,7 +9126,7 @@
         <v>344</v>
       </c>
       <c r="J422" s="21" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.35">
@@ -9191,7 +9191,7 @@
         <v>355</v>
       </c>
       <c r="J429" s="19" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.35">
@@ -9260,7 +9260,7 @@
         <v>717</v>
       </c>
       <c r="J435" s="21" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
     </row>
     <row r="436" spans="2:10" x14ac:dyDescent="0.35">
@@ -9285,7 +9285,7 @@
         <v>719</v>
       </c>
       <c r="J437" s="21" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
     </row>
     <row r="438" spans="2:10" x14ac:dyDescent="0.35">
@@ -9339,7 +9339,7 @@
         <v>356</v>
       </c>
       <c r="J443" s="21" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
     </row>
     <row r="444" spans="2:10" x14ac:dyDescent="0.35">
@@ -9359,7 +9359,7 @@
         <v>347</v>
       </c>
       <c r="J444" s="21" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
     </row>
     <row r="445" spans="2:10" x14ac:dyDescent="0.35">
@@ -9384,7 +9384,7 @@
         <v>350</v>
       </c>
       <c r="J446" s="21" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
     </row>
     <row r="447" spans="2:10" x14ac:dyDescent="0.35">
@@ -9441,7 +9441,7 @@
         <v>344</v>
       </c>
       <c r="J452" s="21" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.35">
@@ -9490,7 +9490,7 @@
         <v>359</v>
       </c>
       <c r="J457" s="19" t="s">
-        <v>773</v>
+        <v>832</v>
       </c>
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.35">
@@ -9515,7 +9515,7 @@
         <v>362</v>
       </c>
       <c r="J459" s="22" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.35">
@@ -9564,7 +9564,7 @@
         <v>364</v>
       </c>
       <c r="J464" s="19" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
     </row>
     <row r="465" spans="1:15" x14ac:dyDescent="0.35">
@@ -9584,7 +9584,7 @@
         <v>365</v>
       </c>
       <c r="J465" s="19" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
     </row>
     <row r="466" spans="1:15" x14ac:dyDescent="0.35">
@@ -9612,7 +9612,7 @@
         <v>368</v>
       </c>
       <c r="J467" s="19" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
     </row>
     <row r="468" spans="1:15" x14ac:dyDescent="0.35">
